--- a/pretreatment.xlsx
+++ b/pretreatment.xlsx
@@ -39,7 +39,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +57,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -103,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -111,20 +117,23 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -132,22 +141,22 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -467,6047 +476,6047 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="14">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <f>B2^4</f>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="16">
         <f>0.000000001*B52^4</f>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <f>-0.000000003*B2^4-0.00000003*B2^3+0.0001*B2^2+0.0123*B2</f>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <f>0.000000001*B52^4-0.00000009*B2^3-0.00000005</f>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
-      <c r="B3" s="14">
+      <c r="B3" s="15">
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <f>B3^4</f>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <f>0.000000001*B53^4</f>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <f>-0.000000003*B3^4-0.00000003*B3^3+0.0001*B3^2+0.0123*B3</f>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <f>0.000000001*B53^4-0.00000009*B3^3-0.00000005</f>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
-      <c r="B4" s="14">
+      <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <f>B4^4</f>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <f>0.000000001*B54^4</f>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <f>-0.000000003*B4^4-0.00000003*B4^3+0.0001*B4^2+0.0123*B4</f>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <f>0.000000001*B54^4-0.00000009*B4^3-0.00000005</f>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
-      <c r="B5" s="14">
+      <c r="B5" s="15">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <f>B5^4</f>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <f>0.000000001*B55^4</f>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <f>-0.000000003*B5^4-0.00000003*B5^3+0.0001*B5^2+0.0123*B5</f>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <f>0.000000001*B55^4-0.00000009*B5^3-0.00000005</f>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <f>B6^4</f>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <f>0.000000001*B56^4</f>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <f>-0.000000003*B6^4-0.00000003*B6^3+0.0001*B6^2+0.0123*B6</f>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <f>0.000000001*B56^4-0.00000009*B6^3-0.00000005</f>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
-      <c r="B7" s="14">
+      <c r="B7" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <f>B7^4</f>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <f>0.000000001*B57^4</f>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <f>-0.000000003*B7^4-0.00000003*B7^3+0.0001*B7^2+0.0123*B7</f>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <f>0.000000001*B57^4-0.00000009*B7^3-0.00000005</f>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="14">
+      <c r="B8" s="15">
         <v>7</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <f>B8^4</f>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <f>0.000000001*B58^4</f>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <f>-0.000000003*B8^4-0.00000003*B8^3+0.0001*B8^2+0.0123*B8</f>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="16">
         <f>0.000000001*B58^4-0.00000009*B8^3-0.00000005</f>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="14">
+      <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <f>B9^4</f>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <f>0.000000001*B59^4</f>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <f>-0.000000003*B9^4-0.00000003*B9^3+0.0001*B9^2+0.0123*B9</f>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="16">
         <f>0.000000001*B59^4-0.00000009*B9^3-0.00000005</f>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <f>B10^4</f>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <f>0.000000001*B60^4</f>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <f>-0.000000003*B10^4-0.00000003*B10^3+0.0001*B10^2+0.0123*B10</f>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="16">
         <f>0.000000001*B60^4-0.00000009*B10^3-0.00000005</f>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="14">
+      <c r="B11" s="15">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <f>B11^4</f>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <f>0.000000001*B61^4</f>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <f>-0.000000003*B11^4-0.00000003*B11^3+0.0001*B11^2+0.0123*B11</f>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <f>0.000000001*B61^4-0.00000009*B11^3-0.00000005</f>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="14">
+      <c r="B12" s="15">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="15">
         <f>B12^4</f>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <f>0.000000001*B62^4</f>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <f>-0.000000003*B12^4-0.00000003*B12^3+0.0001*B12^2+0.0123*B12</f>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <f>0.000000001*B62^4-0.00000009*B12^3-0.00000005</f>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="14">
+      <c r="B13" s="15">
         <v>12</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="15">
         <f>B13^4</f>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <f>0.000000001*B63^4</f>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="15">
+      <c r="F13" s="16">
         <f>-0.000000003*B13^4-0.00000003*B13^3+0.0001*B13^2+0.0123*B13</f>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="16">
         <f>0.000000001*B63^4-0.00000009*B13^3-0.00000005</f>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="14">
+      <c r="B14" s="15">
         <v>13</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <f>B14^4</f>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <f>0.000000001*B64^4</f>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="15">
+      <c r="F14" s="16">
         <f>-0.000000003*B14^4-0.00000003*B14^3+0.0001*B14^2+0.0123*B14</f>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="16">
         <f>0.000000001*B64^4-0.00000009*B14^3-0.00000005</f>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="14">
+      <c r="B15" s="15">
         <v>14</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <f>B15^4</f>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <f>0.000000001*B65^4</f>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="15">
+      <c r="F15" s="16">
         <f>-0.000000003*B15^4-0.00000003*B15^3+0.0001*B15^2+0.0123*B15</f>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="16">
         <f>0.000000001*B65^4-0.00000009*B15^3-0.00000005</f>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="14">
+      <c r="B16" s="15">
         <v>15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <f>B16^4</f>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="16">
         <f>0.000000001*B66^4</f>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="15">
+      <c r="F16" s="16">
         <f>-0.000000003*B16^4-0.00000003*B16^3+0.0001*B16^2+0.0123*B16</f>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="16">
         <f>0.000000001*B66^4-0.00000009*B16^3-0.00000005</f>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="14">
+      <c r="B17" s="15">
         <v>16</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <f>B17^4</f>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <f>0.000000001*B67^4</f>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="15">
+      <c r="F17" s="16">
         <f>-0.000000003*B17^4-0.00000003*B17^3+0.0001*B17^2+0.0123*B17</f>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="16">
         <f>0.000000001*B67^4-0.00000009*B17^3-0.00000005</f>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="14">
+      <c r="B18" s="15">
         <v>17</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <f>B18^4</f>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="16">
         <f>0.000000001*B68^4</f>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="15">
+      <c r="F18" s="16">
         <f>-0.000000003*B18^4-0.00000003*B18^3+0.0001*B18^2+0.0123*B18</f>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="16">
         <f>0.000000001*B68^4-0.00000009*B18^3-0.00000005</f>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1"/>
-      <c r="B19" s="14">
+      <c r="B19" s="15">
         <v>18</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <f>B19^4</f>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="16">
         <f>0.000000001*B69^4</f>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="15">
+      <c r="F19" s="16">
         <f>-0.000000003*B19^4-0.00000003*B19^3+0.0001*B19^2+0.0123*B19</f>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="16">
         <f>0.000000001*B69^4-0.00000009*B19^3-0.00000005</f>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="14">
+      <c r="B20" s="15">
         <v>19</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <f>B20^4</f>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <f>0.000000001*B70^4</f>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="15">
+      <c r="F20" s="16">
         <f>-0.000000003*B20^4-0.00000003*B20^3+0.0001*B20^2+0.0123*B20</f>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="16">
         <f>0.000000001*B70^4-0.00000009*B20^3-0.00000005</f>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="14">
+      <c r="B21" s="15">
         <v>20</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <f>B21^4</f>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="16">
         <f>0.000000001*B71^4</f>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="15">
+      <c r="F21" s="16">
         <f>-0.000000003*B21^4-0.00000003*B21^3+0.0001*B21^2+0.0123*B21</f>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="16">
         <f>0.000000001*B71^4-0.00000009*B21^3-0.00000005</f>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1"/>
-      <c r="B22" s="14">
+      <c r="B22" s="15">
         <v>21</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <f>B22^4</f>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <f>0.000000001*B72^4</f>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="15">
+      <c r="F22" s="16">
         <f>-0.000000003*B22^4-0.00000003*B22^3+0.0001*B22^2+0.0123*B22</f>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="16">
         <f>0.000000001*B72^4-0.00000009*B22^3-0.00000005</f>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="14">
+      <c r="B23" s="15">
         <v>22</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <f>B23^4</f>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="16">
         <f>0.000000001*B73^4</f>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="15">
+      <c r="F23" s="16">
         <f>-0.000000003*B23^4-0.00000003*B23^3+0.0001*B23^2+0.0123*B23</f>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="16">
         <f>0.000000001*B73^4-0.00000009*B23^3-0.00000005</f>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="14">
+      <c r="B24" s="15">
         <v>23</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <f>B24^4</f>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="16">
         <f>0.000000001*B74^4</f>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="15">
+      <c r="F24" s="16">
         <f>-0.000000003*B24^4-0.00000003*B24^3+0.0001*B24^2+0.0123*B24</f>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="16">
         <f>0.000000001*B74^4-0.00000009*B24^3-0.00000005</f>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="14">
+      <c r="B25" s="15">
         <v>24</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <f>B25^4</f>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="16">
         <f>0.000000001*B75^4</f>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="15">
+      <c r="F25" s="16">
         <f>-0.000000003*B25^4-0.00000003*B25^3+0.0001*B25^2+0.0123*B25</f>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="16">
         <f>0.000000001*B75^4-0.00000009*B25^3-0.00000005</f>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1"/>
-      <c r="B26" s="14">
+      <c r="B26" s="15">
         <v>25</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="15">
         <f>B26^4</f>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="16">
         <f>0.000000001*B76^4</f>
       </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="15">
+      <c r="F26" s="16">
         <f>-0.000000003*B26^4-0.00000003*B26^3+0.0001*B26^2+0.0123*B26</f>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="16">
         <f>0.000000001*B76^4-0.00000009*B26^3-0.00000005</f>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1"/>
-      <c r="B27" s="14">
+      <c r="B27" s="15">
         <v>26</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="15">
         <f>B27^4</f>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="16">
         <f>0.000000001*B77^4</f>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="15">
+      <c r="F27" s="16">
         <f>-0.000000003*B27^4-0.00000003*B27^3+0.0001*B27^2+0.0123*B27</f>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="16">
         <f>0.000000001*B77^4-0.00000009*B27^3-0.00000005</f>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="14">
+      <c r="B28" s="15">
         <v>27</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="15">
         <f>B28^4</f>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="16">
         <f>0.000000001*B78^4</f>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="15">
+      <c r="F28" s="16">
         <f>-0.000000003*B28^4-0.00000003*B28^3+0.0001*B28^2+0.0123*B28</f>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="16">
         <f>0.000000001*B78^4-0.00000009*B28^3-0.00000005</f>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1"/>
-      <c r="B29" s="14">
+      <c r="B29" s="15">
         <v>28</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="15">
         <f>B29^4</f>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="16">
         <f>0.000000001*B79^4</f>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="15">
+      <c r="F29" s="16">
         <f>-0.000000003*B29^4-0.00000003*B29^3+0.0001*B29^2+0.0123*B29</f>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="16">
         <f>0.000000001*B79^4-0.00000009*B29^3-0.00000005</f>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="14">
+      <c r="B30" s="15">
         <v>29</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="15">
         <f>B30^4</f>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="16">
         <f>0.000000001*B80^4</f>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="15">
+      <c r="F30" s="16">
         <f>-0.000000003*B30^4-0.00000003*B30^3+0.0001*B30^2+0.0123*B30</f>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="16">
         <f>0.000000001*B80^4-0.00000009*B30^3-0.00000005</f>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
-      <c r="B31" s="14">
+      <c r="B31" s="15">
         <v>30</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="15">
         <f>B31^4</f>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="16">
         <f>0.000000001*B81^4</f>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="15">
+      <c r="F31" s="16">
         <f>-0.000000003*B31^4-0.00000003*B31^3+0.0001*B31^2+0.0123*B31</f>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="16">
         <f>0.000000001*B81^4-0.00000009*B31^3-0.00000005</f>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="14">
+      <c r="B32" s="15">
         <v>31</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="15">
         <f>B32^4</f>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="16">
         <f>0.000000001*B82^4</f>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="15">
+      <c r="F32" s="16">
         <f>-0.000000003*B32^4-0.00000003*B32^3+0.0001*B32^2+0.0123*B32</f>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="16">
         <f>0.000000001*B82^4-0.00000009*B32^3-0.00000005</f>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="14">
+      <c r="B33" s="15">
         <v>32</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="15">
         <f>B33^4</f>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="16">
         <f>0.000000001*B83^4</f>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="15">
+      <c r="F33" s="16">
         <f>-0.000000003*B33^4-0.00000003*B33^3+0.0001*B33^2+0.0123*B33</f>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="16">
         <f>0.000000001*B83^4-0.00000009*B33^3-0.00000005</f>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="14">
+      <c r="B34" s="15">
         <v>33</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="15">
         <f>B34^4</f>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <f>0.000000001*B84^4</f>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <f>-0.000000003*B34^4-0.00000003*B34^3+0.0001*B34^2+0.0123*B34</f>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="16">
         <f>0.000000001*B84^4-0.00000009*B34^3-0.00000005</f>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="14">
+      <c r="B35" s="15">
         <v>34</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="15">
         <f>B35^4</f>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="16">
         <f>0.000000001*B85^4</f>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="15">
+      <c r="F35" s="16">
         <f>-0.000000003*B35^4-0.00000003*B35^3+0.0001*B35^2+0.0123*B35</f>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="16">
         <f>0.000000001*B85^4-0.00000009*B35^3-0.00000005</f>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="14">
+      <c r="B36" s="15">
         <v>35</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="15">
         <f>B36^4</f>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="16">
         <f>0.000000001*B86^4</f>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="15">
+      <c r="F36" s="16">
         <f>-0.000000003*B36^4-0.00000003*B36^3+0.0001*B36^2+0.0123*B36</f>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="16">
         <f>0.000000001*B86^4-0.00000009*B36^3-0.00000005</f>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="14">
+      <c r="B37" s="15">
         <v>36</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="15">
         <f>B37^4</f>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="16">
         <f>0.000000001*B87^4</f>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="15">
+      <c r="F37" s="16">
         <f>-0.000000003*B37^4-0.00000003*B37^3+0.0001*B37^2+0.0123*B37</f>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="16">
         <f>0.000000001*B87^4-0.00000009*B37^3-0.00000005</f>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="14">
+      <c r="B38" s="15">
         <v>37</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="15">
         <f>B38^4</f>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="16">
         <f>0.000000001*B88^4</f>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="15">
+      <c r="F38" s="16">
         <f>-0.000000003*B38^4-0.00000003*B38^3+0.0001*B38^2+0.0123*B38</f>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="16">
         <f>0.000000001*B88^4-0.00000009*B38^3-0.00000005</f>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
-      <c r="B39" s="14">
+      <c r="B39" s="15">
         <v>38</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="15">
         <f>B39^4</f>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="16">
         <f>0.000000001*B89^4</f>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="15">
+      <c r="F39" s="16">
         <f>-0.000000003*B39^4-0.00000003*B39^3+0.0001*B39^2+0.0123*B39</f>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="16">
         <f>0.000000001*B89^4-0.00000009*B39^3-0.00000005</f>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="14">
+      <c r="B40" s="15">
         <v>39</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="15">
         <f>B40^4</f>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="16">
         <f>0.000000001*B90^4</f>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="15">
+      <c r="F40" s="16">
         <f>-0.000000003*B40^4-0.00000003*B40^3+0.0001*B40^2+0.0123*B40</f>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="16">
         <f>0.000000001*B90^4-0.00000009*B40^3-0.00000005</f>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="14">
+      <c r="B41" s="15">
         <v>40</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="15">
         <f>B41^4</f>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="16">
         <f>0.000000001*B91^4</f>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="15">
+      <c r="F41" s="16">
         <f>-0.000000003*B41^4-0.00000003*B41^3+0.0001*B41^2+0.0123*B41</f>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="16">
         <f>0.000000001*B91^4-0.00000009*B41^3-0.00000005</f>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="14">
+      <c r="B42" s="15">
         <v>41</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="15">
         <f>B42^4</f>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="16">
         <f>0.000000001*B92^4</f>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="15">
+      <c r="F42" s="16">
         <f>-0.000000003*B42^4-0.00000003*B42^3+0.0001*B42^2+0.0123*B42</f>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="16">
         <f>0.000000001*B92^4-0.00000009*B42^3-0.00000005</f>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="14">
+      <c r="B43" s="15">
         <v>42</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="15">
         <f>B43^4</f>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="16">
         <f>0.000000001*B93^4</f>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="15">
+      <c r="F43" s="16">
         <f>-0.000000003*B43^4-0.00000003*B43^3+0.0001*B43^2+0.0123*B43</f>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="16">
         <f>0.000000001*B93^4-0.00000009*B43^3-0.00000005</f>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
-      <c r="B44" s="14">
+      <c r="B44" s="15">
         <v>43</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="15">
         <f>B44^4</f>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="16">
         <f>0.000000001*B94^4</f>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="15">
+      <c r="F44" s="16">
         <f>-0.000000003*B44^4-0.00000003*B44^3+0.0001*B44^2+0.0123*B44</f>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="16">
         <f>0.000000001*B94^4-0.00000009*B44^3-0.00000005</f>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="14">
+      <c r="B45" s="15">
         <v>44</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="15">
         <f>B45^4</f>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="16">
         <f>0.000000001*B95^4</f>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="15">
+      <c r="F45" s="16">
         <f>-0.000000003*B45^4-0.00000003*B45^3+0.0001*B45^2+0.0123*B45</f>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="16">
         <f>0.000000001*B95^4-0.00000009*B45^3-0.00000005</f>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="14">
+      <c r="B46" s="15">
         <v>45</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="15">
         <f>B46^4</f>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="16">
         <f>0.000000001*B96^4</f>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="15">
+      <c r="F46" s="16">
         <f>-0.000000003*B46^4-0.00000003*B46^3+0.0001*B46^2+0.0123*B46</f>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="16">
         <f>0.000000001*B96^4-0.00000009*B46^3-0.00000005</f>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="14">
+      <c r="B47" s="15">
         <v>46</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="15">
         <f>B47^4</f>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="16">
         <f>0.000000001*B97^4</f>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="15">
+      <c r="F47" s="16">
         <f>-0.000000003*B47^4-0.00000003*B47^3+0.0001*B47^2+0.0123*B47</f>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="16">
         <f>0.000000001*B97^4-0.00000009*B47^3-0.00000005</f>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
-      <c r="B48" s="14">
+      <c r="B48" s="15">
         <v>47</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="15">
         <f>B48^4</f>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="16">
         <f>0.000000001*B98^4</f>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="15">
+      <c r="F48" s="16">
         <f>-0.000000003*B48^4-0.00000003*B48^3+0.0001*B48^2+0.0123*B48</f>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="16">
         <f>0.000000001*B98^4-0.00000009*B48^3-0.00000005</f>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
-      <c r="B49" s="14">
+      <c r="B49" s="15">
         <v>48</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="15">
         <f>B49^4</f>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="16">
         <f>0.000000001*B99^4</f>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="15">
+      <c r="F49" s="16">
         <f>-0.000000003*B49^4-0.00000003*B49^3+0.0001*B49^2+0.0123*B49</f>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="16">
         <f>0.000000001*B99^4-0.00000009*B49^3-0.00000005</f>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
-      <c r="B50" s="14">
+      <c r="B50" s="15">
         <v>49</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="15">
         <f>B50^4</f>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="16">
         <f>0.000000001*B100^4</f>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="15">
+      <c r="F50" s="16">
         <f>-0.000000003*B50^4-0.00000003*B50^3+0.0001*B50^2+0.0123*B50</f>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="16">
         <f>0.000000001*B100^4-0.00000009*B50^3-0.00000005</f>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="14">
+      <c r="B51" s="15">
         <v>50</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="15">
         <f>B51^4</f>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="16">
         <f>0.000000001*B101^4</f>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="15">
+      <c r="F51" s="16">
         <f>-0.000000003*B51^4-0.00000003*B51^3+0.0001*B51^2+0.0123*B51</f>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="16">
         <f>0.000000001*B101^4-0.00000009*B51^3-0.00000005</f>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="14">
+      <c r="B52" s="15">
         <v>51</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="15">
         <f>B52^4</f>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="16">
         <f>0.000000001*B102^4</f>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="15">
+      <c r="F52" s="16">
         <f>-0.000000003*B52^4-0.00000003*B52^3+0.0001*B52^2+0.0123*B52</f>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="16">
         <f>0.000000001*B102^4-0.00000009*B52^3-0.00000005</f>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="14">
+      <c r="B53" s="15">
         <v>52</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="15">
         <f>B53^4</f>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="16">
         <f>0.000000001*B103^4</f>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="15">
+      <c r="F53" s="16">
         <f>-0.000000003*B53^4-0.00000003*B53^3+0.0001*B53^2+0.0123*B53</f>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="16">
         <f>0.000000001*B103^4-0.00000009*B53^3-0.00000005</f>
       </c>
-      <c r="H53" s="13"/>
+      <c r="H53" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="14">
+      <c r="B54" s="15">
         <v>53</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="15">
         <f>B54^4</f>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="16">
         <f>0.000000001*B104^4</f>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="15">
+      <c r="F54" s="16">
         <f>-0.000000003*B54^4-0.00000003*B54^3+0.0001*B54^2+0.0123*B54</f>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="16">
         <f>0.000000001*B104^4-0.00000009*B54^3-0.00000005</f>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
-      <c r="B55" s="14">
+      <c r="B55" s="15">
         <v>54</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="15">
         <f>B55^4</f>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="16">
         <f>0.000000001*B105^4</f>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="15">
+      <c r="F55" s="16">
         <f>-0.000000003*B55^4-0.00000003*B55^3+0.0001*B55^2+0.0123*B55</f>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="16">
         <f>0.000000001*B105^4-0.00000009*B55^3-0.00000005</f>
       </c>
-      <c r="H55" s="13"/>
+      <c r="H55" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="14">
+      <c r="B56" s="15">
         <v>55</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="15">
         <f>B56^4</f>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="16">
         <f>0.000000001*B106^4</f>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="15">
+      <c r="F56" s="16">
         <f>-0.000000003*B56^4-0.00000003*B56^3+0.0001*B56^2+0.0123*B56</f>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="16">
         <f>0.000000001*B106^4-0.00000009*B56^3-0.00000005</f>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="16">
         <v>0.10657682500000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="14">
+      <c r="B57" s="15">
         <v>56</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="15">
         <f>B57^4</f>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="16">
         <f>0.000000001*B107^4</f>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="15">
+      <c r="F57" s="16">
         <f>-0.000000003*B57^4-0.00000003*B57^3+0.0001*B57^2+0.0123*B57</f>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="16">
         <f>0.000000001*B107^4-0.00000009*B57^3-0.00000005</f>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="16">
         <v>0.10657682500000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="14">
+      <c r="B58" s="15">
         <v>57</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="15">
         <f>B58^4</f>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="16">
         <f>0.000000001*B108^4</f>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="15">
+      <c r="F58" s="16">
         <f>-0.000000003*B58^4-0.00000003*B58^3+0.0001*B58^2+0.0123*B58</f>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="16">
         <f>0.000000001*B108^4-0.00000009*B58^3-0.00000005</f>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="16">
         <v>0.10657682500000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="14">
+      <c r="B59" s="15">
         <v>58</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="15">
         <f>B59^4</f>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="16">
         <f>0.000000001*B109^4</f>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="15">
+      <c r="F59" s="16">
         <f>-0.000000003*B59^4-0.00000003*B59^3+0.0001*B59^2+0.0123*B59</f>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="16">
         <f>0.000000001*B109^4-0.00000009*B59^3-0.00000005</f>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="16">
         <v>0.10657682500000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="14">
+      <c r="B60" s="15">
         <v>59</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="15">
         <f>B60^4</f>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="16">
         <f>0.000000001*B110^4</f>
       </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="15">
+      <c r="F60" s="16">
         <f>-0.000000003*B60^4-0.00000003*B60^3+0.0001*B60^2+0.0123*B60</f>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="16">
         <f>0.000000001*B110^4-0.00000009*B60^3-0.00000005</f>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="16">
         <v>0.10657682500000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="14">
+      <c r="B61" s="15">
         <v>60</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="15">
         <f>B61^4</f>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="16">
         <f>0.000000001*B111^4</f>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="15">
+      <c r="F61" s="16">
         <f>-0.000000003*B61^4-0.00000003*B61^3+0.0001*B61^2+0.0123*B61</f>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="16">
         <f>0.000000001*B111^4-0.00000009*B61^3-0.00000005</f>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="16">
         <v>0.11044220600000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="14">
+      <c r="B62" s="15">
         <v>61</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="15">
         <f>B62^4</f>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="16">
         <f>0.000000001*B112^4</f>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="15">
+      <c r="F62" s="16">
         <f>-0.000000003*B62^4-0.00000003*B62^3+0.0001*B62^2+0.0123*B62</f>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="16">
         <f>0.000000001*B112^4-0.00000009*B62^3-0.00000005</f>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="16">
         <v>0.11044220600000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
-      <c r="B63" s="14">
+      <c r="B63" s="15">
         <v>62</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="15">
         <f>B63^4</f>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="16">
         <f>0.000000001*B113^4</f>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="15">
+      <c r="F63" s="16">
         <f>-0.000000003*B63^4-0.00000003*B63^3+0.0001*B63^2+0.0123*B63</f>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="16">
         <f>0.000000001*B113^4-0.00000009*B63^3-0.00000005</f>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="16">
         <v>0.11044220600000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
-      <c r="B64" s="14">
+      <c r="B64" s="15">
         <v>63</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="15">
         <f>B64^4</f>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="16">
         <f>0.000000001*B114^4</f>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="15">
+      <c r="F64" s="16">
         <f>-0.000000003*B64^4-0.00000003*B64^3+0.0001*B64^2+0.0123*B64</f>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="16">
         <f>0.000000001*B114^4-0.00000009*B64^3-0.00000005</f>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="16">
         <v>0.11044220600000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
-      <c r="B65" s="14">
+      <c r="B65" s="15">
         <v>64</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="15">
         <f>B65^4</f>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="16">
         <f>0.000000001*B115^4</f>
       </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="15">
+      <c r="F65" s="16">
         <f>-0.000000003*B65^4-0.00000003*B65^3+0.0001*B65^2+0.0123*B65</f>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="16">
         <f>0.000000001*B115^4-0.00000009*B65^3-0.00000005</f>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="16">
         <v>0.11044220600000001</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
-      <c r="B66" s="14">
+      <c r="B66" s="15">
         <v>65</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="15">
         <f>B66^4</f>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="16">
         <f>0.000000001*B116^4</f>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="15">
+      <c r="F66" s="16">
         <f>-0.000000003*B66^4-0.00000003*B66^3+0.0001*B66^2+0.0123*B66</f>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="16">
         <f>0.000000001*B116^4-0.00000009*B66^3-0.00000005</f>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="14">
+      <c r="B67" s="15">
         <v>66</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="15">
         <f>B67^4</f>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="16">
         <f>0.000000001*B117^4</f>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="15">
+      <c r="F67" s="16">
         <f>-0.000000003*B67^4-0.00000003*B67^3+0.0001*B67^2+0.0123*B67</f>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="16">
         <f>0.000000001*B117^4-0.00000009*B67^3-0.00000005</f>
       </c>
-      <c r="H67" s="13"/>
+      <c r="H67" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
-      <c r="B68" s="14">
+      <c r="B68" s="15">
         <v>67</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="15">
         <f>B68^4</f>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="16">
         <f>0.000000001*B118^4</f>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="15">
+      <c r="F68" s="16">
         <f>-0.000000003*B68^4-0.00000003*B68^3+0.0001*B68^2+0.0123*B68</f>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="16">
         <f>0.000000001*B118^4-0.00000009*B68^3-0.00000005</f>
       </c>
-      <c r="H68" s="13"/>
+      <c r="H68" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
-      <c r="B69" s="14">
+      <c r="B69" s="15">
         <v>68</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="15">
         <f>B69^4</f>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="16">
         <f>0.000000001*B119^4</f>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="15">
+      <c r="F69" s="16">
         <f>-0.000000003*B69^4-0.00000003*B69^3+0.0001*B69^2+0.0123*B69</f>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="16">
         <f>0.000000001*B119^4-0.00000009*B69^3-0.00000005</f>
       </c>
-      <c r="H69" s="13"/>
+      <c r="H69" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
-      <c r="B70" s="14">
+      <c r="B70" s="15">
         <v>69</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="15">
         <f>B70^4</f>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="16">
         <f>0.000000001*B120^4</f>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="15">
+      <c r="F70" s="16">
         <f>-0.000000003*B70^4-0.00000003*B70^3+0.0001*B70^2+0.0123*B70</f>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="16">
         <f>0.000000001*B120^4-0.00000009*B70^3-0.00000005</f>
       </c>
-      <c r="H70" s="13"/>
+      <c r="H70" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
-      <c r="B71" s="14">
+      <c r="B71" s="15">
         <v>70</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="15">
         <f>B71^4</f>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="16">
         <f>0.000000001*B121^4</f>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="15">
+      <c r="F71" s="16">
         <f>-0.000000003*B71^4-0.00000003*B71^3+0.0001*B71^2+0.0123*B71</f>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="16">
         <f>0.000000001*B121^4-0.00000009*B71^3-0.00000005</f>
       </c>
-      <c r="H71" s="13"/>
+      <c r="H71" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
-      <c r="B72" s="14">
+      <c r="B72" s="15">
         <v>71</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="15">
         <f>B72^4</f>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="16">
         <f>0.000000001*B122^4</f>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="15">
+      <c r="F72" s="16">
         <f>-0.000000003*B72^4-0.00000003*B72^3+0.0001*B72^2+0.0123*B72</f>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="16">
         <f>0.000000001*B122^4-0.00000009*B72^3-0.00000005</f>
       </c>
-      <c r="H72" s="13"/>
+      <c r="H72" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
-      <c r="B73" s="14">
+      <c r="B73" s="15">
         <v>72</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="15">
         <f>B73^4</f>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="16">
         <f>0.000000001*B123^4</f>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="15">
+      <c r="F73" s="16">
         <f>-0.000000003*B73^4-0.00000003*B73^3+0.0001*B73^2+0.0123*B73</f>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="16">
         <f>0.000000001*B123^4-0.00000009*B73^3-0.00000005</f>
       </c>
-      <c r="H73" s="13"/>
+      <c r="H73" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
-      <c r="B74" s="14">
+      <c r="B74" s="15">
         <v>73</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="15">
         <f>B74^4</f>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="16">
         <f>0.000000001*B124^4</f>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="15">
+      <c r="F74" s="16">
         <f>-0.000000003*B74^4-0.00000003*B74^3+0.0001*B74^2+0.0123*B74</f>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="16">
         <f>0.000000001*B124^4-0.00000009*B74^3-0.00000005</f>
       </c>
-      <c r="H74" s="13"/>
+      <c r="H74" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
-      <c r="B75" s="14">
+      <c r="B75" s="15">
         <v>74</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="15">
         <f>B75^4</f>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="16">
         <f>0.000000001*B125^4</f>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="15">
+      <c r="F75" s="16">
         <f>-0.000000003*B75^4-0.00000003*B75^3+0.0001*B75^2+0.0123*B75</f>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="16">
         <f>0.000000001*B125^4-0.00000009*B75^3-0.00000005</f>
       </c>
-      <c r="H75" s="13"/>
+      <c r="H75" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
-      <c r="B76" s="14">
+      <c r="B76" s="15">
         <v>75</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="15">
         <f>B76^4</f>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="16">
         <f>0.000000001*B126^4</f>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="15">
+      <c r="F76" s="16">
         <f>-0.000000003*B76^4-0.00000003*B76^3+0.0001*B76^2+0.0123*B76</f>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="16">
         <f>0.000000001*B126^4-0.00000009*B76^3-0.00000005</f>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
-      <c r="B77" s="14">
+      <c r="B77" s="15">
         <v>76</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="15">
         <f>B77^4</f>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="16">
         <f>0.000000001*B127^4</f>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="15">
+      <c r="F77" s="16">
         <f>-0.000000003*B77^4-0.00000003*B77^3+0.0001*B77^2+0.0123*B77</f>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="16">
         <f>0.000000001*B127^4-0.00000009*B77^3-0.00000005</f>
       </c>
-      <c r="H77" s="13"/>
+      <c r="H77" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
-      <c r="B78" s="14">
+      <c r="B78" s="15">
         <v>77</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="15">
         <f>B78^4</f>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="16">
         <f>0.000000001*B128^4</f>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="15">
+      <c r="F78" s="16">
         <f>-0.000000003*B78^4-0.00000003*B78^3+0.0001*B78^2+0.0123*B78</f>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="16">
         <f>0.000000001*B128^4-0.00000009*B78^3-0.00000005</f>
       </c>
-      <c r="H78" s="13"/>
+      <c r="H78" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
-      <c r="B79" s="14">
+      <c r="B79" s="15">
         <v>78</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="15">
         <f>B79^4</f>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="16">
         <f>0.000000001*B129^4</f>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="15">
+      <c r="F79" s="16">
         <f>-0.000000003*B79^4-0.00000003*B79^3+0.0001*B79^2+0.0123*B79</f>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="16">
         <f>0.000000001*B129^4-0.00000009*B79^3-0.00000005</f>
       </c>
-      <c r="H79" s="13"/>
+      <c r="H79" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="14">
+      <c r="B80" s="15">
         <v>79</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="15">
         <f>B80^4</f>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="16">
         <f>0.000000001*B130^4</f>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="15">
+      <c r="F80" s="16">
         <f>-0.000000003*B80^4-0.00000003*B80^3+0.0001*B80^2+0.0123*B80</f>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="16">
         <f>0.000000001*B130^4-0.00000009*B80^3-0.00000005</f>
       </c>
-      <c r="H80" s="13"/>
+      <c r="H80" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="14">
+      <c r="B81" s="15">
         <v>80</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="15">
         <f>B81^4</f>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="16">
         <f>0.000000001*B131^4</f>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="15">
+      <c r="F81" s="16">
         <f>-0.000000003*B81^4-0.00000003*B81^3+0.0001*B81^2+0.0123*B81</f>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="16">
         <f>0.000000001*B131^4-0.00000009*B81^3-0.00000005</f>
       </c>
-      <c r="H81" s="13"/>
+      <c r="H81" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
-      <c r="B82" s="14">
+      <c r="B82" s="15">
         <v>81</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="15">
         <f>B82^4</f>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="16">
         <f>0.000000001*B132^4</f>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="15">
+      <c r="F82" s="16">
         <f>-0.000000003*B82^4-0.00000003*B82^3+0.0001*B82^2+0.0123*B82</f>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="16">
         <f>0.000000001*B132^4-0.00000009*B82^3-0.00000005</f>
       </c>
-      <c r="H82" s="13"/>
+      <c r="H82" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
-      <c r="B83" s="14">
+      <c r="B83" s="15">
         <v>82</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="15">
         <f>B83^4</f>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="16">
         <f>0.000000001*B133^4</f>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="15">
+      <c r="F83" s="16">
         <f>-0.000000003*B83^4-0.00000003*B83^3+0.0001*B83^2+0.0123*B83</f>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="16">
         <f>0.000000001*B133^4-0.00000009*B83^3-0.00000005</f>
       </c>
-      <c r="H83" s="13"/>
+      <c r="H83" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
-      <c r="B84" s="14">
+      <c r="B84" s="15">
         <v>83</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="15">
         <f>B84^4</f>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="16">
         <f>0.000000001*B134^4</f>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="15">
+      <c r="F84" s="16">
         <f>-0.000000003*B84^4-0.00000003*B84^3+0.0001*B84^2+0.0123*B84</f>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="16">
         <f>0.000000001*B134^4-0.00000009*B84^3-0.00000005</f>
       </c>
-      <c r="H84" s="13"/>
+      <c r="H84" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
-      <c r="B85" s="14">
+      <c r="B85" s="15">
         <v>84</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="15">
         <f>B85^4</f>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="16">
         <f>0.000000001*B135^4</f>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="15">
+      <c r="F85" s="16">
         <f>-0.000000003*B85^4-0.00000003*B85^3+0.0001*B85^2+0.0123*B85</f>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="16">
         <f>0.000000001*B135^4-0.00000009*B85^3-0.00000005</f>
       </c>
-      <c r="H85" s="13"/>
+      <c r="H85" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
-      <c r="B86" s="14">
+      <c r="B86" s="15">
         <v>85</v>
       </c>
-      <c r="C86" s="14">
+      <c r="C86" s="15">
         <f>B86^4</f>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="16">
         <f>0.000000001*B136^4</f>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="15">
+      <c r="F86" s="16">
         <f>-0.000000003*B86^4-0.00000003*B86^3+0.0001*B86^2+0.0123*B86</f>
       </c>
-      <c r="G86" s="15">
+      <c r="G86" s="16">
         <f>0.000000001*B136^4-0.00000009*B86^3-0.00000005</f>
       </c>
-      <c r="H86" s="13"/>
+      <c r="H86" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
-      <c r="B87" s="14">
+      <c r="B87" s="15">
         <v>86</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="15">
         <f>B87^4</f>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="16">
         <f>0.000000001*B137^4</f>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="15">
+      <c r="F87" s="16">
         <f>-0.000000003*B87^4-0.00000003*B87^3+0.0001*B87^2+0.0123*B87</f>
       </c>
-      <c r="G87" s="15">
+      <c r="G87" s="16">
         <f>0.000000001*B137^4-0.00000009*B87^3-0.00000005</f>
       </c>
-      <c r="H87" s="13"/>
+      <c r="H87" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
-      <c r="B88" s="14">
+      <c r="B88" s="15">
         <v>87</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="15">
         <f>B88^4</f>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="16">
         <f>0.000000001*B138^4</f>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="15">
+      <c r="F88" s="16">
         <f>-0.000000003*B88^4-0.00000003*B88^3+0.0001*B88^2+0.0123*B88</f>
       </c>
-      <c r="G88" s="15">
+      <c r="G88" s="16">
         <f>0.000000001*B138^4-0.00000009*B88^3-0.00000005</f>
       </c>
-      <c r="H88" s="13"/>
+      <c r="H88" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
-      <c r="B89" s="14">
+      <c r="B89" s="15">
         <v>88</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="15">
         <f>B89^4</f>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="16">
         <f>0.000000001*B139^4</f>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="15">
+      <c r="F89" s="16">
         <f>-0.000000003*B89^4-0.00000003*B89^3+0.0001*B89^2+0.0123*B89</f>
       </c>
-      <c r="G89" s="15">
+      <c r="G89" s="16">
         <f>0.000000001*B139^4-0.00000009*B89^3-0.00000005</f>
       </c>
-      <c r="H89" s="13"/>
+      <c r="H89" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
-      <c r="B90" s="14">
+      <c r="B90" s="15">
         <v>89</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="15">
         <f>B90^4</f>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="16">
         <f>0.000000001*B140^4</f>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="15">
+      <c r="F90" s="16">
         <f>-0.000000003*B90^4-0.00000003*B90^3+0.0001*B90^2+0.0123*B90</f>
       </c>
-      <c r="G90" s="15">
+      <c r="G90" s="16">
         <f>0.000000001*B140^4-0.00000009*B90^3-0.00000005</f>
       </c>
-      <c r="H90" s="13"/>
+      <c r="H90" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
-      <c r="B91" s="14">
+      <c r="B91" s="15">
         <v>90</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="15">
         <f>B91^4</f>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="16">
         <f>0.000000001*B141^4</f>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="15">
+      <c r="F91" s="16">
         <f>-0.000000003*B91^4-0.00000003*B91^3+0.0001*B91^2+0.0123*B91</f>
       </c>
-      <c r="G91" s="15">
+      <c r="G91" s="16">
         <f>0.000000001*B141^4-0.00000009*B91^3-0.00000005</f>
       </c>
-      <c r="H91" s="13"/>
+      <c r="H91" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1"/>
-      <c r="B92" s="14">
+      <c r="B92" s="15">
         <v>91</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="15">
         <f>B92^4</f>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="16">
         <f>0.000000001*B142^4</f>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="15">
+      <c r="F92" s="16">
         <f>-0.000000003*B92^4-0.00000003*B92^3+0.0001*B92^2+0.0123*B92</f>
       </c>
-      <c r="G92" s="15">
+      <c r="G92" s="16">
         <f>0.000000001*B142^4-0.00000009*B92^3-0.00000005</f>
       </c>
-      <c r="H92" s="13"/>
+      <c r="H92" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1"/>
-      <c r="B93" s="14">
+      <c r="B93" s="15">
         <v>92</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="15">
         <f>B93^4</f>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="16">
         <f>0.000000001*B143^4</f>
       </c>
       <c r="E93" s="1"/>
-      <c r="F93" s="15">
+      <c r="F93" s="16">
         <f>-0.000000003*B93^4-0.00000003*B93^3+0.0001*B93^2+0.0123*B93</f>
       </c>
-      <c r="G93" s="15">
+      <c r="G93" s="16">
         <f>0.000000001*B143^4-0.00000009*B93^3-0.00000005</f>
       </c>
-      <c r="H93" s="13"/>
+      <c r="H93" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1"/>
-      <c r="B94" s="14">
+      <c r="B94" s="15">
         <v>93</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C94" s="15">
         <f>B94^4</f>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="16">
         <f>0.000000001*B144^4</f>
       </c>
       <c r="E94" s="1"/>
-      <c r="F94" s="15">
+      <c r="F94" s="16">
         <f>-0.000000003*B94^4-0.00000003*B94^3+0.0001*B94^2+0.0123*B94</f>
       </c>
-      <c r="G94" s="15">
+      <c r="G94" s="16">
         <f>0.000000001*B144^4-0.00000009*B94^3-0.00000005</f>
       </c>
-      <c r="H94" s="13"/>
+      <c r="H94" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1"/>
-      <c r="B95" s="14">
+      <c r="B95" s="15">
         <v>94</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="15">
         <f>B95^4</f>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="16">
         <f>0.000000001*B145^4</f>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="15">
+      <c r="F95" s="16">
         <f>-0.000000003*B95^4-0.00000003*B95^3+0.0001*B95^2+0.0123*B95</f>
       </c>
-      <c r="G95" s="15">
+      <c r="G95" s="16">
         <f>0.000000001*B145^4-0.00000009*B95^3-0.00000005</f>
       </c>
-      <c r="H95" s="13"/>
+      <c r="H95" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1"/>
-      <c r="B96" s="14">
+      <c r="B96" s="15">
         <v>95</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="15">
         <f>B96^4</f>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="16">
         <f>0.000000001*B146^4</f>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="15">
+      <c r="F96" s="16">
         <f>-0.000000003*B96^4-0.00000003*B96^3+0.0001*B96^2+0.0123*B96</f>
       </c>
-      <c r="G96" s="15">
+      <c r="G96" s="16">
         <f>0.000000001*B146^4-0.00000009*B96^3-0.00000005</f>
       </c>
-      <c r="H96" s="13"/>
+      <c r="H96" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1"/>
-      <c r="B97" s="14">
+      <c r="B97" s="15">
         <v>96</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="15">
         <f>B97^4</f>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="16">
         <f>0.000000001*B147^4</f>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="15">
+      <c r="F97" s="16">
         <f>-0.000000003*B97^4-0.00000003*B97^3+0.0001*B97^2+0.0123*B97</f>
       </c>
-      <c r="G97" s="15">
+      <c r="G97" s="16">
         <f>0.000000001*B147^4-0.00000009*B97^3-0.00000005</f>
       </c>
-      <c r="H97" s="13"/>
+      <c r="H97" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1"/>
-      <c r="B98" s="14">
+      <c r="B98" s="15">
         <v>97</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="15">
         <f>B98^4</f>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="16">
         <f>0.000000001*B148^4</f>
       </c>
       <c r="E98" s="1"/>
-      <c r="F98" s="15">
+      <c r="F98" s="16">
         <f>-0.000000003*B98^4-0.00000003*B98^3+0.0001*B98^2+0.0123*B98</f>
       </c>
-      <c r="G98" s="15">
+      <c r="G98" s="16">
         <f>0.000000001*B148^4-0.00000009*B98^3-0.00000005</f>
       </c>
-      <c r="H98" s="13"/>
+      <c r="H98" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1"/>
-      <c r="B99" s="14">
+      <c r="B99" s="15">
         <v>98</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="15">
         <f>B99^4</f>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="16">
         <f>0.000000001*B149^4</f>
       </c>
       <c r="E99" s="1"/>
-      <c r="F99" s="15">
+      <c r="F99" s="16">
         <f>-0.000000003*B99^4-0.00000003*B99^3+0.0001*B99^2+0.0123*B99</f>
       </c>
-      <c r="G99" s="15">
+      <c r="G99" s="16">
         <f>0.000000001*B149^4-0.00000009*B99^3-0.00000005</f>
       </c>
-      <c r="H99" s="13"/>
+      <c r="H99" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1"/>
-      <c r="B100" s="14">
+      <c r="B100" s="15">
         <v>99</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="15">
         <f>B100^4</f>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="16">
         <f>0.000000001*B150^4</f>
       </c>
       <c r="E100" s="1"/>
-      <c r="F100" s="15">
+      <c r="F100" s="16">
         <f>-0.000000003*B100^4-0.00000003*B100^3+0.0001*B100^2+0.0123*B100</f>
       </c>
-      <c r="G100" s="15">
+      <c r="G100" s="16">
         <f>0.000000001*B150^4-0.00000009*B100^3-0.00000005</f>
       </c>
-      <c r="H100" s="13"/>
+      <c r="H100" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1"/>
-      <c r="B101" s="14">
+      <c r="B101" s="15">
         <v>100</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="15">
         <f>B101^4</f>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="16">
         <f>0.000000001*B151^4</f>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="15">
+      <c r="F101" s="16">
         <f>-0.000000003*B101^4-0.00000003*B101^3+0.0001*B101^2+0.0123*B101</f>
       </c>
-      <c r="G101" s="15">
+      <c r="G101" s="16">
         <f>0.000000001*B151^4-0.00000009*B101^3-0.00000005</f>
       </c>
-      <c r="H101" s="13"/>
+      <c r="H101" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1"/>
-      <c r="B102" s="14">
+      <c r="B102" s="15">
         <v>101</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="15">
         <f>B102^4</f>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="16">
         <f>0.000000001*B152^4</f>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="15">
+      <c r="F102" s="16">
         <f>-0.000000003*B102^4-0.00000003*B102^3+0.0001*B102^2+0.0123*B102</f>
       </c>
-      <c r="G102" s="15">
+      <c r="G102" s="16">
         <f>0.000000001*B152^4-0.00000009*B102^3-0.00000005</f>
       </c>
-      <c r="H102" s="13"/>
+      <c r="H102" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1"/>
-      <c r="B103" s="14">
+      <c r="B103" s="15">
         <v>102</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="15">
         <f>B103^4</f>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="16">
         <f>0.000000001*B153^4</f>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="15">
+      <c r="F103" s="16">
         <f>-0.000000003*B103^4-0.00000003*B103^3+0.0001*B103^2+0.0123*B103</f>
       </c>
-      <c r="G103" s="15">
+      <c r="G103" s="16">
         <f>0.000000001*B153^4-0.00000009*B103^3-0.00000005</f>
       </c>
-      <c r="H103" s="13"/>
+      <c r="H103" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1"/>
-      <c r="B104" s="14">
+      <c r="B104" s="15">
         <v>103</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="15">
         <f>B104^4</f>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="16">
         <f>0.000000001*B154^4</f>
       </c>
       <c r="E104" s="1"/>
-      <c r="F104" s="15">
+      <c r="F104" s="16">
         <f>-0.000000003*B104^4-0.00000003*B104^3+0.0001*B104^2+0.0123*B104</f>
       </c>
-      <c r="G104" s="15">
+      <c r="G104" s="16">
         <f>0.000000001*B154^4-0.00000009*B104^3-0.00000005</f>
       </c>
-      <c r="H104" s="13"/>
+      <c r="H104" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1"/>
-      <c r="B105" s="14">
+      <c r="B105" s="15">
         <v>104</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="15">
         <f>B105^4</f>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="16">
         <f>0.000000001*B155^4</f>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="15">
+      <c r="F105" s="16">
         <f>-0.000000003*B105^4-0.00000003*B105^3+0.0001*B105^2+0.0123*B105</f>
       </c>
-      <c r="G105" s="15">
+      <c r="G105" s="16">
         <f>0.000000001*B155^4-0.00000009*B105^3-0.00000005</f>
       </c>
-      <c r="H105" s="13"/>
+      <c r="H105" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1"/>
-      <c r="B106" s="14">
+      <c r="B106" s="15">
         <v>105</v>
       </c>
-      <c r="C106" s="14">
+      <c r="C106" s="15">
         <f>B106^4</f>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="16">
         <f>0.000000001*B156^4</f>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="15">
+      <c r="F106" s="16">
         <f>-0.000000003*B106^4-0.00000003*B106^3+0.0001*B106^2+0.0123*B106</f>
       </c>
-      <c r="G106" s="15">
+      <c r="G106" s="16">
         <f>0.000000001*B156^4-0.00000009*B106^3-0.00000005</f>
       </c>
-      <c r="H106" s="13"/>
+      <c r="H106" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1"/>
-      <c r="B107" s="14">
+      <c r="B107" s="15">
         <v>106</v>
       </c>
-      <c r="C107" s="14">
+      <c r="C107" s="15">
         <f>B107^4</f>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="16">
         <f>0.000000001*B157^4</f>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="15">
+      <c r="F107" s="16">
         <f>-0.000000003*B107^4-0.00000003*B107^3+0.0001*B107^2+0.0123*B107</f>
       </c>
-      <c r="G107" s="15">
+      <c r="G107" s="16">
         <f>0.000000001*B157^4-0.00000009*B107^3-0.00000005</f>
       </c>
-      <c r="H107" s="13"/>
+      <c r="H107" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1"/>
-      <c r="B108" s="14">
+      <c r="B108" s="15">
         <v>107</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="15">
         <f>B108^4</f>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="16">
         <f>0.000000001*B158^4</f>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="15">
+      <c r="F108" s="16">
         <f>-0.000000003*B108^4-0.00000003*B108^3+0.0001*B108^2+0.0123*B108</f>
       </c>
-      <c r="G108" s="15">
+      <c r="G108" s="16">
         <f>0.000000001*B158^4-0.00000009*B108^3-0.00000005</f>
       </c>
-      <c r="H108" s="13"/>
+      <c r="H108" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1"/>
-      <c r="B109" s="14">
+      <c r="B109" s="15">
         <v>108</v>
       </c>
-      <c r="C109" s="14">
+      <c r="C109" s="15">
         <f>B109^4</f>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="16">
         <f>0.000000001*B159^4</f>
       </c>
       <c r="E109" s="1"/>
-      <c r="F109" s="15">
+      <c r="F109" s="16">
         <f>-0.000000003*B109^4-0.00000003*B109^3+0.0001*B109^2+0.0123*B109</f>
       </c>
-      <c r="G109" s="15">
+      <c r="G109" s="16">
         <f>0.000000001*B159^4-0.00000009*B109^3-0.00000005</f>
       </c>
-      <c r="H109" s="13"/>
+      <c r="H109" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1"/>
-      <c r="B110" s="14">
+      <c r="B110" s="15">
         <v>109</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="15">
         <f>B110^4</f>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="16">
         <f>0.000000001*B160^4</f>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="15">
+      <c r="F110" s="16">
         <f>-0.000000003*B110^4-0.00000003*B110^3+0.0001*B110^2+0.0123*B110</f>
       </c>
-      <c r="G110" s="15">
+      <c r="G110" s="16">
         <f>0.000000001*B160^4-0.00000009*B110^3-0.00000005</f>
       </c>
-      <c r="H110" s="13"/>
+      <c r="H110" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1"/>
-      <c r="B111" s="14">
+      <c r="B111" s="15">
         <v>110</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="15">
         <f>B111^4</f>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="16">
         <f>0.000000001*B161^4</f>
       </c>
       <c r="E111" s="1"/>
-      <c r="F111" s="15">
+      <c r="F111" s="16">
         <f>-0.000000003*B111^4-0.00000003*B111^3+0.0001*B111^2+0.0123*B111</f>
       </c>
-      <c r="G111" s="15">
+      <c r="G111" s="16">
         <f>0.000000001*B161^4-0.00000009*B111^3-0.00000005</f>
       </c>
-      <c r="H111" s="13"/>
+      <c r="H111" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1"/>
-      <c r="B112" s="14">
+      <c r="B112" s="15">
         <v>111</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112" s="15">
         <f>B112^4</f>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="16">
         <f>0.000000001*B162^4</f>
       </c>
       <c r="E112" s="1"/>
-      <c r="F112" s="15">
+      <c r="F112" s="16">
         <f>-0.000000003*B112^4-0.00000003*B112^3+0.0001*B112^2+0.0123*B112</f>
       </c>
-      <c r="G112" s="15">
+      <c r="G112" s="16">
         <f>0.000000001*B162^4-0.00000009*B112^3-0.00000005</f>
       </c>
-      <c r="H112" s="13"/>
+      <c r="H112" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1"/>
-      <c r="B113" s="14">
+      <c r="B113" s="15">
         <v>112</v>
       </c>
-      <c r="C113" s="14">
+      <c r="C113" s="15">
         <f>B113^4</f>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="16">
         <f>0.000000001*B163^4</f>
       </c>
       <c r="E113" s="1"/>
-      <c r="F113" s="15">
+      <c r="F113" s="16">
         <f>-0.000000003*B113^4-0.00000003*B113^3+0.0001*B113^2+0.0123*B113</f>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="16">
         <f>0.000000001*B163^4-0.00000009*B113^3-0.00000005</f>
       </c>
-      <c r="H113" s="13"/>
+      <c r="H113" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1"/>
-      <c r="B114" s="14">
+      <c r="B114" s="15">
         <v>113</v>
       </c>
-      <c r="C114" s="14">
+      <c r="C114" s="15">
         <f>B114^4</f>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="16">
         <f>0.000000001*B164^4</f>
       </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="15">
+      <c r="F114" s="16">
         <f>-0.000000003*B114^4-0.00000003*B114^3+0.0001*B114^2+0.0123*B114</f>
       </c>
-      <c r="G114" s="15">
+      <c r="G114" s="16">
         <f>0.000000001*B164^4-0.00000009*B114^3-0.00000005</f>
       </c>
-      <c r="H114" s="13"/>
+      <c r="H114" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1"/>
-      <c r="B115" s="14">
+      <c r="B115" s="15">
         <v>114</v>
       </c>
-      <c r="C115" s="14">
+      <c r="C115" s="15">
         <f>B115^4</f>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="16">
         <f>0.000000001*B165^4</f>
       </c>
       <c r="E115" s="1"/>
-      <c r="F115" s="15">
+      <c r="F115" s="16">
         <f>-0.000000003*B115^4-0.00000003*B115^3+0.0001*B115^2+0.0123*B115</f>
       </c>
-      <c r="G115" s="15">
+      <c r="G115" s="16">
         <f>0.000000001*B165^4-0.00000009*B115^3-0.00000005</f>
       </c>
-      <c r="H115" s="13"/>
+      <c r="H115" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1"/>
-      <c r="B116" s="14">
+      <c r="B116" s="15">
         <v>115</v>
       </c>
-      <c r="C116" s="14">
+      <c r="C116" s="15">
         <f>B116^4</f>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="16">
         <f>0.000000001*B166^4</f>
       </c>
       <c r="E116" s="1"/>
-      <c r="F116" s="15">
+      <c r="F116" s="16">
         <f>-0.000000003*B116^4-0.00000003*B116^3+0.0001*B116^2+0.0123*B116</f>
       </c>
-      <c r="G116" s="15">
+      <c r="G116" s="16">
         <f>0.000000001*B166^4-0.00000009*B116^3-0.00000005</f>
       </c>
-      <c r="H116" s="13"/>
+      <c r="H116" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1"/>
-      <c r="B117" s="14">
+      <c r="B117" s="15">
         <v>116</v>
       </c>
-      <c r="C117" s="14">
+      <c r="C117" s="15">
         <f>B117^4</f>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="16">
         <f>0.000000001*B167^4</f>
       </c>
       <c r="E117" s="1"/>
-      <c r="F117" s="15">
+      <c r="F117" s="16">
         <f>-0.000000003*B117^4-0.00000003*B117^3+0.0001*B117^2+0.0123*B117</f>
       </c>
-      <c r="G117" s="15">
+      <c r="G117" s="16">
         <f>0.000000001*B167^4-0.00000009*B117^3-0.00000005</f>
       </c>
-      <c r="H117" s="13"/>
+      <c r="H117" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1"/>
-      <c r="B118" s="14">
+      <c r="B118" s="15">
         <v>117</v>
       </c>
-      <c r="C118" s="14">
+      <c r="C118" s="15">
         <f>B118^4</f>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="16">
         <f>0.000000001*B168^4</f>
       </c>
       <c r="E118" s="1"/>
-      <c r="F118" s="15">
+      <c r="F118" s="16">
         <f>-0.000000003*B118^4-0.00000003*B118^3+0.0001*B118^2+0.0123*B118</f>
       </c>
-      <c r="G118" s="15">
+      <c r="G118" s="16">
         <f>0.000000001*B168^4-0.00000009*B118^3-0.00000005</f>
       </c>
-      <c r="H118" s="13"/>
+      <c r="H118" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1"/>
-      <c r="B119" s="14">
+      <c r="B119" s="15">
         <v>118</v>
       </c>
-      <c r="C119" s="14">
+      <c r="C119" s="15">
         <f>B119^4</f>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="16">
         <f>0.000000001*B169^4</f>
       </c>
       <c r="E119" s="1"/>
-      <c r="F119" s="15">
+      <c r="F119" s="16">
         <f>-0.000000003*B119^4-0.00000003*B119^3+0.0001*B119^2+0.0123*B119</f>
       </c>
-      <c r="G119" s="15">
+      <c r="G119" s="16">
         <f>0.000000001*B169^4-0.00000009*B119^3-0.00000005</f>
       </c>
-      <c r="H119" s="13"/>
+      <c r="H119" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1"/>
-      <c r="B120" s="14">
+      <c r="B120" s="15">
         <v>119</v>
       </c>
-      <c r="C120" s="14">
+      <c r="C120" s="15">
         <f>B120^4</f>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="16">
         <f>0.000000001*B170^4</f>
       </c>
       <c r="E120" s="1"/>
-      <c r="F120" s="15">
+      <c r="F120" s="16">
         <f>-0.000000003*B120^4-0.00000003*B120^3+0.0001*B120^2+0.0123*B120</f>
       </c>
-      <c r="G120" s="15">
+      <c r="G120" s="16">
         <f>0.000000001*B170^4-0.00000009*B120^3-0.00000005</f>
       </c>
-      <c r="H120" s="13"/>
+      <c r="H120" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1"/>
-      <c r="B121" s="14">
+      <c r="B121" s="15">
         <v>120</v>
       </c>
-      <c r="C121" s="14">
+      <c r="C121" s="15">
         <f>B121^4</f>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="16">
         <f>0.000000001*B171^4</f>
       </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="15">
+      <c r="F121" s="16">
         <f>-0.000000003*B121^4-0.00000003*B121^3+0.0001*B121^2+0.0123*B121</f>
       </c>
-      <c r="G121" s="15">
+      <c r="G121" s="16">
         <f>0.000000001*B171^4-0.00000009*B121^3-0.00000005</f>
       </c>
-      <c r="H121" s="13"/>
+      <c r="H121" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1"/>
-      <c r="B122" s="14">
+      <c r="B122" s="15">
         <v>121</v>
       </c>
-      <c r="C122" s="14">
+      <c r="C122" s="15">
         <f>B122^4</f>
       </c>
-      <c r="D122" s="15">
+      <c r="D122" s="16">
         <f>0.000000001*B172^4</f>
       </c>
       <c r="E122" s="1"/>
-      <c r="F122" s="15">
+      <c r="F122" s="16">
         <f>-0.000000003*B122^4-0.00000003*B122^3+0.0001*B122^2+0.0123*B122</f>
       </c>
-      <c r="G122" s="15">
+      <c r="G122" s="16">
         <f>0.000000001*B172^4-0.00000009*B122^3-0.00000005</f>
       </c>
-      <c r="H122" s="13"/>
+      <c r="H122" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1"/>
-      <c r="B123" s="14">
+      <c r="B123" s="15">
         <v>122</v>
       </c>
-      <c r="C123" s="14">
+      <c r="C123" s="15">
         <f>B123^4</f>
       </c>
-      <c r="D123" s="15">
+      <c r="D123" s="16">
         <f>0.000000001*B173^4</f>
       </c>
       <c r="E123" s="1"/>
-      <c r="F123" s="15">
+      <c r="F123" s="16">
         <f>-0.000000003*B123^4-0.00000003*B123^3+0.0001*B123^2+0.0123*B123</f>
       </c>
-      <c r="G123" s="15">
+      <c r="G123" s="16">
         <f>0.000000001*B173^4-0.00000009*B123^3-0.00000005</f>
       </c>
-      <c r="H123" s="13"/>
+      <c r="H123" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1"/>
-      <c r="B124" s="14">
+      <c r="B124" s="15">
         <v>123</v>
       </c>
-      <c r="C124" s="14">
+      <c r="C124" s="15">
         <f>B124^4</f>
       </c>
-      <c r="D124" s="15">
+      <c r="D124" s="16">
         <f>0.000000001*B174^4</f>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="15">
+      <c r="F124" s="16">
         <f>-0.000000003*B124^4-0.00000003*B124^3+0.0001*B124^2+0.0123*B124</f>
       </c>
-      <c r="G124" s="15">
+      <c r="G124" s="16">
         <f>0.000000001*B174^4-0.00000009*B124^3-0.00000005</f>
       </c>
-      <c r="H124" s="13"/>
+      <c r="H124" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1"/>
-      <c r="B125" s="14">
+      <c r="B125" s="15">
         <v>124</v>
       </c>
-      <c r="C125" s="14">
+      <c r="C125" s="15">
         <f>B125^4</f>
       </c>
-      <c r="D125" s="15">
+      <c r="D125" s="16">
         <f>0.000000001*B175^4</f>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="15">
+      <c r="F125" s="16">
         <f>-0.000000003*B125^4-0.00000003*B125^3+0.0001*B125^2+0.0123*B125</f>
       </c>
-      <c r="G125" s="15">
+      <c r="G125" s="16">
         <f>0.000000001*B175^4-0.00000009*B125^3-0.00000005</f>
       </c>
-      <c r="H125" s="13"/>
+      <c r="H125" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1"/>
-      <c r="B126" s="14">
+      <c r="B126" s="15">
         <v>125</v>
       </c>
-      <c r="C126" s="14">
+      <c r="C126" s="15">
         <f>B126^4</f>
       </c>
-      <c r="D126" s="15">
+      <c r="D126" s="16">
         <f>0.000000001*B176^4</f>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="15">
+      <c r="F126" s="16">
         <f>-0.000000003*B126^4-0.00000003*B126^3+0.0001*B126^2+0.0123*B126</f>
       </c>
-      <c r="G126" s="15">
+      <c r="G126" s="16">
         <f>0.000000001*B176^4-0.00000009*B126^3-0.00000005</f>
       </c>
-      <c r="H126" s="13"/>
+      <c r="H126" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1"/>
-      <c r="B127" s="14">
+      <c r="B127" s="15">
         <v>126</v>
       </c>
-      <c r="C127" s="14">
+      <c r="C127" s="15">
         <f>B127^4</f>
       </c>
-      <c r="D127" s="15">
+      <c r="D127" s="16">
         <f>0.000000001*B177^4</f>
       </c>
       <c r="E127" s="1"/>
-      <c r="F127" s="15">
+      <c r="F127" s="16">
         <f>-0.000000003*B127^4-0.00000003*B127^3+0.0001*B127^2+0.0123*B127</f>
       </c>
-      <c r="G127" s="15">
+      <c r="G127" s="16">
         <f>0.000000001*B177^4-0.00000009*B127^3-0.00000005</f>
       </c>
-      <c r="H127" s="13"/>
+      <c r="H127" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1"/>
-      <c r="B128" s="14">
+      <c r="B128" s="15">
         <v>127</v>
       </c>
-      <c r="C128" s="14">
+      <c r="C128" s="15">
         <f>B128^4</f>
       </c>
-      <c r="D128" s="15">
+      <c r="D128" s="16">
         <f>0.000000001*B178^4</f>
       </c>
       <c r="E128" s="1"/>
-      <c r="F128" s="15">
+      <c r="F128" s="16">
         <f>-0.000000003*B128^4-0.00000003*B128^3+0.0001*B128^2+0.0123*B128</f>
       </c>
-      <c r="G128" s="15">
+      <c r="G128" s="16">
         <f>0.000000001*B178^4-0.00000009*B128^3-0.00000005</f>
       </c>
-      <c r="H128" s="13"/>
+      <c r="H128" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="1"/>
-      <c r="B129" s="14">
+      <c r="B129" s="15">
         <v>128</v>
       </c>
-      <c r="C129" s="14">
+      <c r="C129" s="15">
         <f>B129^4</f>
       </c>
-      <c r="D129" s="15">
+      <c r="D129" s="16">
         <f>0.000000001*B179^4</f>
       </c>
       <c r="E129" s="1"/>
-      <c r="F129" s="15">
+      <c r="F129" s="16">
         <f>-0.000000003*B129^4-0.00000003*B129^3+0.0001*B129^2+0.0123*B129</f>
       </c>
-      <c r="G129" s="15">
+      <c r="G129" s="16">
         <f>0.000000001*B179^4-0.00000009*B129^3-0.00000005</f>
       </c>
-      <c r="H129" s="13"/>
+      <c r="H129" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="1"/>
-      <c r="B130" s="14">
+      <c r="B130" s="15">
         <v>129</v>
       </c>
-      <c r="C130" s="14">
+      <c r="C130" s="15">
         <f>B130^4</f>
       </c>
-      <c r="D130" s="15">
+      <c r="D130" s="16">
         <f>0.000000001*B180^4</f>
       </c>
       <c r="E130" s="1"/>
-      <c r="F130" s="15">
+      <c r="F130" s="16">
         <f>-0.000000003*B130^4-0.00000003*B130^3+0.0001*B130^2+0.0123*B130</f>
       </c>
-      <c r="G130" s="15">
+      <c r="G130" s="16">
         <f>0.000000001*B180^4-0.00000009*B130^3-0.00000005</f>
       </c>
-      <c r="H130" s="13"/>
+      <c r="H130" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="1"/>
-      <c r="B131" s="14">
+      <c r="B131" s="15">
         <v>130</v>
       </c>
-      <c r="C131" s="14">
+      <c r="C131" s="15">
         <f>B131^4</f>
       </c>
-      <c r="D131" s="15">
+      <c r="D131" s="16">
         <f>0.000000001*B181^4</f>
       </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="15">
+      <c r="F131" s="16">
         <f>-0.000000003*B131^4-0.00000003*B131^3+0.0001*B131^2+0.0123*B131</f>
       </c>
-      <c r="G131" s="15">
+      <c r="G131" s="16">
         <f>0.000000001*B181^4-0.00000009*B131^3-0.00000005</f>
       </c>
-      <c r="H131" s="13"/>
+      <c r="H131" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="1"/>
-      <c r="B132" s="14">
+      <c r="B132" s="15">
         <v>131</v>
       </c>
-      <c r="C132" s="14">
+      <c r="C132" s="15">
         <f>B132^4</f>
       </c>
-      <c r="D132" s="15">
+      <c r="D132" s="16">
         <f>0.000000001*B182^4</f>
       </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="15">
+      <c r="F132" s="16">
         <f>-0.000000003*B132^4-0.00000003*B132^3+0.0001*B132^2+0.0123*B132</f>
       </c>
-      <c r="G132" s="15">
+      <c r="G132" s="16">
         <f>0.000000001*B182^4-0.00000009*B132^3-0.00000005</f>
       </c>
-      <c r="H132" s="13"/>
+      <c r="H132" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="1"/>
-      <c r="B133" s="14">
+      <c r="B133" s="15">
         <v>132</v>
       </c>
-      <c r="C133" s="14">
+      <c r="C133" s="15">
         <f>B133^4</f>
       </c>
-      <c r="D133" s="15">
+      <c r="D133" s="16">
         <f>0.000000001*B183^4</f>
       </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="15">
+      <c r="F133" s="16">
         <f>-0.000000003*B133^4-0.00000003*B133^3+0.0001*B133^2+0.0123*B133</f>
       </c>
-      <c r="G133" s="15">
+      <c r="G133" s="16">
         <f>0.000000001*B183^4-0.00000009*B133^3-0.00000005</f>
       </c>
-      <c r="H133" s="13"/>
+      <c r="H133" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="1"/>
-      <c r="B134" s="14">
+      <c r="B134" s="15">
         <v>133</v>
       </c>
-      <c r="C134" s="14">
+      <c r="C134" s="15">
         <f>B134^4</f>
       </c>
-      <c r="D134" s="15">
+      <c r="D134" s="16">
         <f>0.000000001*B184^4</f>
       </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="15">
+      <c r="F134" s="16">
         <f>-0.000000003*B134^4-0.00000003*B134^3+0.0001*B134^2+0.0123*B134</f>
       </c>
-      <c r="G134" s="15">
+      <c r="G134" s="16">
         <f>0.000000001*B184^4-0.00000009*B134^3-0.00000005</f>
       </c>
-      <c r="H134" s="13"/>
+      <c r="H134" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1"/>
-      <c r="B135" s="14">
+      <c r="B135" s="15">
         <v>134</v>
       </c>
-      <c r="C135" s="14">
+      <c r="C135" s="15">
         <f>B135^4</f>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="16">
         <f>0.000000001*B185^4</f>
       </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="15">
+      <c r="F135" s="16">
         <f>-0.000000003*B135^4-0.00000003*B135^3+0.0001*B135^2+0.0123*B135</f>
       </c>
-      <c r="G135" s="15">
+      <c r="G135" s="16">
         <f>0.000000001*B185^4-0.00000009*B135^3-0.00000005</f>
       </c>
-      <c r="H135" s="13"/>
+      <c r="H135" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1"/>
-      <c r="B136" s="14">
+      <c r="B136" s="15">
         <v>135</v>
       </c>
-      <c r="C136" s="14">
+      <c r="C136" s="15">
         <f>B136^4</f>
       </c>
-      <c r="D136" s="15">
+      <c r="D136" s="16">
         <f>0.000000001*B186^4</f>
       </c>
       <c r="E136" s="1"/>
-      <c r="F136" s="15">
+      <c r="F136" s="16">
         <f>-0.000000003*B136^4-0.00000003*B136^3+0.0001*B136^2+0.0123*B136</f>
       </c>
-      <c r="G136" s="15">
+      <c r="G136" s="16">
         <f>0.000000001*B186^4-0.00000009*B136^3-0.00000005</f>
       </c>
-      <c r="H136" s="13"/>
+      <c r="H136" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1"/>
-      <c r="B137" s="14">
+      <c r="B137" s="15">
         <v>136</v>
       </c>
-      <c r="C137" s="14">
+      <c r="C137" s="15">
         <f>B137^4</f>
       </c>
-      <c r="D137" s="15">
+      <c r="D137" s="16">
         <f>0.000000001*B187^4</f>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="15">
+      <c r="F137" s="16">
         <f>-0.000000003*B137^4-0.00000003*B137^3+0.0001*B137^2+0.0123*B137</f>
       </c>
-      <c r="G137" s="15">
+      <c r="G137" s="16">
         <f>0.000000001*B187^4-0.00000009*B137^3-0.00000005</f>
       </c>
-      <c r="H137" s="13"/>
+      <c r="H137" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1"/>
-      <c r="B138" s="14">
+      <c r="B138" s="15">
         <v>137</v>
       </c>
-      <c r="C138" s="14">
+      <c r="C138" s="15">
         <f>B138^4</f>
       </c>
-      <c r="D138" s="15">
+      <c r="D138" s="16">
         <f>0.000000001*B188^4</f>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="15">
+      <c r="F138" s="16">
         <f>-0.000000003*B138^4-0.00000003*B138^3+0.0001*B138^2+0.0123*B138</f>
       </c>
-      <c r="G138" s="15">
+      <c r="G138" s="16">
         <f>0.000000001*B188^4-0.00000009*B138^3-0.00000005</f>
       </c>
-      <c r="H138" s="13"/>
+      <c r="H138" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="1"/>
-      <c r="B139" s="14">
+      <c r="B139" s="15">
         <v>138</v>
       </c>
-      <c r="C139" s="14">
+      <c r="C139" s="15">
         <f>B139^4</f>
       </c>
-      <c r="D139" s="15">
+      <c r="D139" s="16">
         <f>0.000000001*B189^4</f>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="15">
+      <c r="F139" s="16">
         <f>-0.000000003*B139^4-0.00000003*B139^3+0.0001*B139^2+0.0123*B139</f>
       </c>
-      <c r="G139" s="15">
+      <c r="G139" s="16">
         <f>0.000000001*B189^4-0.00000009*B139^3-0.00000005</f>
       </c>
-      <c r="H139" s="13"/>
+      <c r="H139" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="1"/>
-      <c r="B140" s="14">
+      <c r="B140" s="15">
         <v>139</v>
       </c>
-      <c r="C140" s="14">
+      <c r="C140" s="15">
         <f>B140^4</f>
       </c>
-      <c r="D140" s="15">
+      <c r="D140" s="16">
         <f>0.000000001*B190^4</f>
       </c>
       <c r="E140" s="1"/>
-      <c r="F140" s="15">
+      <c r="F140" s="16">
         <f>-0.000000003*B140^4-0.00000003*B140^3+0.0001*B140^2+0.0123*B140</f>
       </c>
-      <c r="G140" s="15">
+      <c r="G140" s="16">
         <f>0.000000001*B190^4-0.00000009*B140^3-0.00000005</f>
       </c>
-      <c r="H140" s="13"/>
+      <c r="H140" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="1"/>
-      <c r="B141" s="14">
+      <c r="B141" s="15">
         <v>140</v>
       </c>
-      <c r="C141" s="14">
+      <c r="C141" s="15">
         <f>B141^4</f>
       </c>
-      <c r="D141" s="15">
+      <c r="D141" s="16">
         <f>0.000000001*B191^4</f>
       </c>
       <c r="E141" s="1"/>
-      <c r="F141" s="15">
+      <c r="F141" s="16">
         <f>-0.000000003*B141^4-0.00000003*B141^3+0.0001*B141^2+0.0123*B141</f>
       </c>
-      <c r="G141" s="15">
+      <c r="G141" s="16">
         <f>0.000000001*B191^4-0.00000009*B141^3-0.00000005</f>
       </c>
-      <c r="H141" s="13"/>
+      <c r="H141" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="1"/>
-      <c r="B142" s="14">
+      <c r="B142" s="15">
         <v>141</v>
       </c>
-      <c r="C142" s="14">
+      <c r="C142" s="15">
         <f>B142^4</f>
       </c>
-      <c r="D142" s="15">
+      <c r="D142" s="16">
         <f>0.000000001*B192^4</f>
       </c>
       <c r="E142" s="1"/>
-      <c r="F142" s="15">
+      <c r="F142" s="16">
         <f>-0.000000003*B142^4-0.00000003*B142^3+0.0001*B142^2+0.0123*B142</f>
       </c>
-      <c r="G142" s="15">
+      <c r="G142" s="16">
         <f>0.000000001*B192^4-0.00000009*B142^3-0.00000005</f>
       </c>
-      <c r="H142" s="13"/>
+      <c r="H142" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1"/>
-      <c r="B143" s="14">
+      <c r="B143" s="15">
         <v>142</v>
       </c>
-      <c r="C143" s="14">
+      <c r="C143" s="15">
         <f>B143^4</f>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="16">
         <f>0.000000001*B193^4</f>
       </c>
       <c r="E143" s="1"/>
-      <c r="F143" s="15">
+      <c r="F143" s="16">
         <f>-0.000000003*B143^4-0.00000003*B143^3+0.0001*B143^2+0.0123*B143</f>
       </c>
-      <c r="G143" s="15">
+      <c r="G143" s="16">
         <f>0.000000001*B193^4-0.00000009*B143^3-0.00000005</f>
       </c>
-      <c r="H143" s="13"/>
+      <c r="H143" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1"/>
-      <c r="B144" s="14">
+      <c r="B144" s="15">
         <v>143</v>
       </c>
-      <c r="C144" s="14">
+      <c r="C144" s="15">
         <f>B144^4</f>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="16">
         <f>0.000000001*B194^4</f>
       </c>
       <c r="E144" s="1"/>
-      <c r="F144" s="15">
+      <c r="F144" s="16">
         <f>-0.000000003*B144^4-0.00000003*B144^3+0.0001*B144^2+0.0123*B144</f>
       </c>
-      <c r="G144" s="15">
+      <c r="G144" s="16">
         <f>0.000000001*B194^4-0.00000009*B144^3-0.00000005</f>
       </c>
-      <c r="H144" s="13"/>
+      <c r="H144" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1"/>
-      <c r="B145" s="14">
+      <c r="B145" s="15">
         <v>144</v>
       </c>
-      <c r="C145" s="14">
+      <c r="C145" s="15">
         <f>B145^4</f>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="16">
         <f>0.000000001*B195^4</f>
       </c>
       <c r="E145" s="1"/>
-      <c r="F145" s="15">
+      <c r="F145" s="16">
         <f>-0.000000003*B145^4-0.00000003*B145^3+0.0001*B145^2+0.0123*B145</f>
       </c>
-      <c r="G145" s="15">
+      <c r="G145" s="16">
         <f>0.000000001*B195^4-0.00000009*B145^3-0.00000005</f>
       </c>
-      <c r="H145" s="13"/>
+      <c r="H145" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="1"/>
-      <c r="B146" s="14">
+      <c r="B146" s="15">
         <v>145</v>
       </c>
-      <c r="C146" s="14">
+      <c r="C146" s="15">
         <f>B146^4</f>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="16">
         <f>0.000000001*B196^4</f>
       </c>
       <c r="E146" s="1"/>
-      <c r="F146" s="15">
+      <c r="F146" s="16">
         <f>-0.000000003*B146^4-0.00000003*B146^3+0.0001*B146^2+0.0123*B146</f>
       </c>
-      <c r="G146" s="15">
+      <c r="G146" s="16">
         <f>0.000000001*B196^4-0.00000009*B146^3-0.00000005</f>
       </c>
-      <c r="H146" s="13"/>
+      <c r="H146" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="1"/>
-      <c r="B147" s="14">
+      <c r="B147" s="15">
         <v>146</v>
       </c>
-      <c r="C147" s="14">
+      <c r="C147" s="15">
         <f>B147^4</f>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="16">
         <f>0.000000001*B197^4</f>
       </c>
       <c r="E147" s="1"/>
-      <c r="F147" s="15">
+      <c r="F147" s="16">
         <f>-0.000000003*B147^4-0.00000003*B147^3+0.0001*B147^2+0.0123*B147</f>
       </c>
-      <c r="G147" s="15">
+      <c r="G147" s="16">
         <f>0.000000001*B197^4-0.00000009*B147^3-0.00000005</f>
       </c>
-      <c r="H147" s="13"/>
+      <c r="H147" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="1"/>
-      <c r="B148" s="14">
+      <c r="B148" s="15">
         <v>147</v>
       </c>
-      <c r="C148" s="14">
+      <c r="C148" s="15">
         <f>B148^4</f>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="16">
         <f>0.000000001*B198^4</f>
       </c>
       <c r="E148" s="1"/>
-      <c r="F148" s="15">
+      <c r="F148" s="16">
         <f>-0.000000003*B148^4-0.00000003*B148^3+0.0001*B148^2+0.0123*B148</f>
       </c>
-      <c r="G148" s="15">
+      <c r="G148" s="16">
         <f>0.000000001*B198^4-0.00000009*B148^3-0.00000005</f>
       </c>
-      <c r="H148" s="13"/>
+      <c r="H148" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="1"/>
-      <c r="B149" s="14">
+      <c r="B149" s="15">
         <v>148</v>
       </c>
-      <c r="C149" s="14">
+      <c r="C149" s="15">
         <f>B149^4</f>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="16">
         <f>0.000000001*B199^4</f>
       </c>
       <c r="E149" s="1"/>
-      <c r="F149" s="15">
+      <c r="F149" s="16">
         <f>-0.000000003*B149^4-0.00000003*B149^3+0.0001*B149^2+0.0123*B149</f>
       </c>
-      <c r="G149" s="15">
+      <c r="G149" s="16">
         <f>0.000000001*B199^4-0.00000009*B149^3-0.00000005</f>
       </c>
-      <c r="H149" s="13"/>
+      <c r="H149" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="1"/>
-      <c r="B150" s="14">
+      <c r="B150" s="15">
         <v>149</v>
       </c>
-      <c r="C150" s="14">
+      <c r="C150" s="15">
         <f>B150^4</f>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="16">
         <f>0.000000001*B200^4</f>
       </c>
       <c r="E150" s="1"/>
-      <c r="F150" s="15">
+      <c r="F150" s="16">
         <f>-0.000000003*B150^4-0.00000003*B150^3+0.0001*B150^2+0.0123*B150</f>
       </c>
-      <c r="G150" s="15">
+      <c r="G150" s="16">
         <f>0.000000001*B200^4-0.00000009*B150^3-0.00000005</f>
       </c>
-      <c r="H150" s="13"/>
+      <c r="H150" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1"/>
-      <c r="B151" s="14">
+      <c r="B151" s="15">
         <v>150</v>
       </c>
-      <c r="C151" s="14">
+      <c r="C151" s="15">
         <f>B151^4</f>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="16">
         <f>0.000000001*B201^4</f>
       </c>
       <c r="E151" s="1"/>
-      <c r="F151" s="15">
+      <c r="F151" s="16">
         <f>-0.000000003*B151^4-0.00000003*B151^3+0.0001*B151^2+0.0123*B151</f>
       </c>
-      <c r="G151" s="15">
+      <c r="G151" s="16">
         <f>0.000000001*B201^4-0.00000009*B151^3-0.00000005</f>
       </c>
-      <c r="H151" s="13"/>
+      <c r="H151" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1"/>
-      <c r="B152" s="14">
+      <c r="B152" s="15">
         <v>151</v>
       </c>
-      <c r="C152" s="14">
+      <c r="C152" s="15">
         <f>B152^4</f>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="16">
         <f>0.000000001*B202^4</f>
       </c>
       <c r="E152" s="1"/>
-      <c r="F152" s="15">
+      <c r="F152" s="16">
         <f>-0.000000003*B152^4-0.00000003*B152^3+0.0001*B152^2+0.0123*B152</f>
       </c>
-      <c r="G152" s="15">
+      <c r="G152" s="16">
         <f>0.000000001*B202^4-0.00000009*B152^3-0.00000005</f>
       </c>
-      <c r="H152" s="13"/>
+      <c r="H152" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1"/>
-      <c r="B153" s="14">
+      <c r="B153" s="15">
         <v>152</v>
       </c>
-      <c r="C153" s="14">
+      <c r="C153" s="15">
         <f>B153^4</f>
       </c>
-      <c r="D153" s="15">
+      <c r="D153" s="16">
         <f>0.000000001*B203^4</f>
       </c>
       <c r="E153" s="1"/>
-      <c r="F153" s="15">
+      <c r="F153" s="16">
         <f>-0.000000003*B153^4-0.00000003*B153^3+0.0001*B153^2+0.0123*B153</f>
       </c>
-      <c r="G153" s="15">
+      <c r="G153" s="16">
         <f>0.000000001*B203^4-0.00000009*B153^3-0.00000005</f>
       </c>
-      <c r="H153" s="13"/>
+      <c r="H153" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="1"/>
-      <c r="B154" s="14">
+      <c r="B154" s="15">
         <v>153</v>
       </c>
-      <c r="C154" s="14">
+      <c r="C154" s="15">
         <f>B154^4</f>
       </c>
-      <c r="D154" s="15">
+      <c r="D154" s="16">
         <f>0.000000001*B204^4</f>
       </c>
       <c r="E154" s="1"/>
-      <c r="F154" s="15">
+      <c r="F154" s="16">
         <f>-0.000000003*B154^4-0.00000003*B154^3+0.0001*B154^2+0.0123*B154</f>
       </c>
-      <c r="G154" s="15">
+      <c r="G154" s="16">
         <f>0.000000001*B204^4-0.00000009*B154^3-0.00000005</f>
       </c>
-      <c r="H154" s="13"/>
+      <c r="H154" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="1"/>
-      <c r="B155" s="14">
+      <c r="B155" s="15">
         <v>154</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="15">
         <f>B155^4</f>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="16">
         <f>0.000000001*B205^4</f>
       </c>
       <c r="E155" s="1"/>
-      <c r="F155" s="15">
+      <c r="F155" s="16">
         <f>-0.000000003*B155^4-0.00000003*B155^3+0.0001*B155^2+0.0123*B155</f>
       </c>
-      <c r="G155" s="15">
+      <c r="G155" s="16">
         <f>0.000000001*B205^4-0.00000009*B155^3-0.00000005</f>
       </c>
-      <c r="H155" s="13"/>
+      <c r="H155" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="1"/>
-      <c r="B156" s="14">
+      <c r="B156" s="15">
         <v>155</v>
       </c>
-      <c r="C156" s="14">
+      <c r="C156" s="15">
         <f>B156^4</f>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="16">
         <f>0.000000001*B206^4</f>
       </c>
       <c r="E156" s="1"/>
-      <c r="F156" s="15">
+      <c r="F156" s="16">
         <f>-0.000000003*B156^4-0.00000003*B156^3+0.0001*B156^2+0.0123*B156</f>
       </c>
-      <c r="G156" s="15">
+      <c r="G156" s="16">
         <f>0.000000001*B206^4-0.00000009*B156^3-0.00000005</f>
       </c>
-      <c r="H156" s="13"/>
+      <c r="H156" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="1"/>
-      <c r="B157" s="14">
+      <c r="B157" s="15">
         <v>156</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="15">
         <f>B157^4</f>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="16">
         <f>0.000000001*B207^4</f>
       </c>
       <c r="E157" s="1"/>
-      <c r="F157" s="15">
+      <c r="F157" s="16">
         <f>-0.000000003*B157^4-0.00000003*B157^3+0.0001*B157^2+0.0123*B157</f>
       </c>
-      <c r="G157" s="15">
+      <c r="G157" s="16">
         <f>0.000000001*B207^4-0.00000009*B157^3-0.00000005</f>
       </c>
-      <c r="H157" s="13"/>
+      <c r="H157" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="1"/>
-      <c r="B158" s="14">
+      <c r="B158" s="15">
         <v>157</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="15">
         <f>B158^4</f>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="16">
         <f>0.000000001*B208^4</f>
       </c>
       <c r="E158" s="1"/>
-      <c r="F158" s="15">
+      <c r="F158" s="16">
         <f>-0.000000003*B158^4-0.00000003*B158^3+0.0001*B158^2+0.0123*B158</f>
       </c>
-      <c r="G158" s="15">
+      <c r="G158" s="16">
         <f>0.000000001*B208^4-0.00000009*B158^3-0.00000005</f>
       </c>
-      <c r="H158" s="13"/>
+      <c r="H158" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1"/>
-      <c r="B159" s="14">
+      <c r="B159" s="15">
         <v>158</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="15">
         <f>B159^4</f>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="16">
         <f>0.000000001*B209^4</f>
       </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="15">
+      <c r="F159" s="16">
         <f>-0.000000003*B159^4-0.00000003*B159^3+0.0001*B159^2+0.0123*B159</f>
       </c>
-      <c r="G159" s="15">
+      <c r="G159" s="16">
         <f>0.000000001*B209^4-0.00000009*B159^3-0.00000005</f>
       </c>
-      <c r="H159" s="13"/>
+      <c r="H159" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="1"/>
-      <c r="B160" s="14">
+      <c r="B160" s="15">
         <v>159</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="15">
         <f>B160^4</f>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="16">
         <f>0.000000001*B210^4</f>
       </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="15">
+      <c r="F160" s="16">
         <f>-0.000000003*B160^4-0.00000003*B160^3+0.0001*B160^2+0.0123*B160</f>
       </c>
-      <c r="G160" s="15">
+      <c r="G160" s="16">
         <f>0.000000001*B210^4-0.00000009*B160^3-0.00000005</f>
       </c>
-      <c r="H160" s="13"/>
+      <c r="H160" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="1"/>
-      <c r="B161" s="14">
+      <c r="B161" s="15">
         <v>160</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="15">
         <f>B161^4</f>
       </c>
-      <c r="D161" s="15">
+      <c r="D161" s="16">
         <f>0.000000001*B211^4</f>
       </c>
       <c r="E161" s="1"/>
-      <c r="F161" s="15">
+      <c r="F161" s="16">
         <f>-0.000000003*B161^4-0.00000003*B161^3+0.0001*B161^2+0.0123*B161</f>
       </c>
-      <c r="G161" s="15">
+      <c r="G161" s="16">
         <f>0.000000001*B211^4-0.00000009*B161^3-0.00000005</f>
       </c>
-      <c r="H161" s="13"/>
+      <c r="H161" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="1"/>
-      <c r="B162" s="14">
+      <c r="B162" s="15">
         <v>161</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="15">
         <f>B162^4</f>
       </c>
-      <c r="D162" s="15">
+      <c r="D162" s="16">
         <f>0.000000001*B212^4</f>
       </c>
       <c r="E162" s="1"/>
-      <c r="F162" s="15">
+      <c r="F162" s="16">
         <f>-0.000000003*B162^4-0.00000003*B162^3+0.0001*B162^2+0.0123*B162</f>
       </c>
-      <c r="G162" s="15">
+      <c r="G162" s="16">
         <f>0.000000001*B212^4-0.00000009*B162^3-0.00000005</f>
       </c>
-      <c r="H162" s="13"/>
+      <c r="H162" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="1"/>
-      <c r="B163" s="14">
+      <c r="B163" s="15">
         <v>162</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="15">
         <f>B163^4</f>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="16">
         <f>0.000000001*B213^4</f>
       </c>
       <c r="E163" s="1"/>
-      <c r="F163" s="15">
+      <c r="F163" s="16">
         <f>-0.000000003*B163^4-0.00000003*B163^3+0.0001*B163^2+0.0123*B163</f>
       </c>
-      <c r="G163" s="15">
+      <c r="G163" s="16">
         <f>0.000000001*B213^4-0.00000009*B163^3-0.00000005</f>
       </c>
-      <c r="H163" s="13"/>
+      <c r="H163" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="1"/>
-      <c r="B164" s="14">
+      <c r="B164" s="15">
         <v>163</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="15">
         <f>B164^4</f>
       </c>
-      <c r="D164" s="15">
+      <c r="D164" s="16">
         <f>0.000000001*B214^4</f>
       </c>
       <c r="E164" s="1"/>
-      <c r="F164" s="15">
+      <c r="F164" s="16">
         <f>-0.000000003*B164^4-0.00000003*B164^3+0.0001*B164^2+0.0123*B164</f>
       </c>
-      <c r="G164" s="15">
+      <c r="G164" s="16">
         <f>0.000000001*B214^4-0.00000009*B164^3-0.00000005</f>
       </c>
-      <c r="H164" s="13"/>
+      <c r="H164" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="1"/>
-      <c r="B165" s="14">
+      <c r="B165" s="15">
         <v>164</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="15">
         <f>B165^4</f>
       </c>
-      <c r="D165" s="15">
+      <c r="D165" s="16">
         <f>0.000000001*B215^4</f>
       </c>
       <c r="E165" s="1"/>
-      <c r="F165" s="15">
+      <c r="F165" s="16">
         <f>-0.000000003*B165^4-0.00000003*B165^3+0.0001*B165^2+0.0123*B165</f>
       </c>
-      <c r="G165" s="15">
+      <c r="G165" s="16">
         <f>0.000000001*B215^4-0.00000009*B165^3-0.00000005</f>
       </c>
-      <c r="H165" s="13"/>
+      <c r="H165" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="1"/>
-      <c r="B166" s="14">
+      <c r="B166" s="15">
         <v>165</v>
       </c>
-      <c r="C166" s="14">
+      <c r="C166" s="15">
         <f>B166^4</f>
       </c>
-      <c r="D166" s="15">
+      <c r="D166" s="16">
         <f>0.000000001*B216^4</f>
       </c>
       <c r="E166" s="1"/>
-      <c r="F166" s="15">
+      <c r="F166" s="16">
         <f>-0.000000003*B166^4-0.00000003*B166^3+0.0001*B166^2+0.0123*B166</f>
       </c>
-      <c r="G166" s="15">
+      <c r="G166" s="16">
         <f>0.000000001*B216^4-0.00000009*B166^3-0.00000005</f>
       </c>
-      <c r="H166" s="13"/>
+      <c r="H166" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="1"/>
-      <c r="B167" s="14">
+      <c r="B167" s="15">
         <v>166</v>
       </c>
-      <c r="C167" s="14">
+      <c r="C167" s="15">
         <f>B167^4</f>
       </c>
-      <c r="D167" s="15">
+      <c r="D167" s="16">
         <f>0.000000001*B217^4</f>
       </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="15">
+      <c r="F167" s="16">
         <f>-0.000000003*B167^4-0.00000003*B167^3+0.0001*B167^2+0.0123*B167</f>
       </c>
-      <c r="G167" s="15">
+      <c r="G167" s="16">
         <f>0.000000001*B217^4-0.00000009*B167^3-0.00000005</f>
       </c>
-      <c r="H167" s="13"/>
+      <c r="H167" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="1"/>
-      <c r="B168" s="14">
+      <c r="B168" s="15">
         <v>167</v>
       </c>
-      <c r="C168" s="14">
+      <c r="C168" s="15">
         <f>B168^4</f>
       </c>
-      <c r="D168" s="15">
+      <c r="D168" s="16">
         <f>0.000000001*B218^4</f>
       </c>
       <c r="E168" s="1"/>
-      <c r="F168" s="15">
+      <c r="F168" s="16">
         <f>-0.000000003*B168^4-0.00000003*B168^3+0.0001*B168^2+0.0123*B168</f>
       </c>
-      <c r="G168" s="15">
+      <c r="G168" s="16">
         <f>0.000000001*B218^4-0.00000009*B168^3-0.00000005</f>
       </c>
-      <c r="H168" s="13"/>
+      <c r="H168" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="1"/>
-      <c r="B169" s="14">
+      <c r="B169" s="15">
         <v>168</v>
       </c>
-      <c r="C169" s="14">
+      <c r="C169" s="15">
         <f>B169^4</f>
       </c>
-      <c r="D169" s="15">
+      <c r="D169" s="16">
         <f>0.000000001*B219^4</f>
       </c>
       <c r="E169" s="1"/>
-      <c r="F169" s="15">
+      <c r="F169" s="16">
         <f>-0.000000003*B169^4-0.00000003*B169^3+0.0001*B169^2+0.0123*B169</f>
       </c>
-      <c r="G169" s="15">
+      <c r="G169" s="16">
         <f>0.000000001*B219^4-0.00000009*B169^3-0.00000005</f>
       </c>
-      <c r="H169" s="13"/>
+      <c r="H169" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="1"/>
-      <c r="B170" s="14">
+      <c r="B170" s="15">
         <v>169</v>
       </c>
-      <c r="C170" s="14">
+      <c r="C170" s="15">
         <f>B170^4</f>
       </c>
-      <c r="D170" s="15">
+      <c r="D170" s="16">
         <f>0.000000001*B220^4</f>
       </c>
       <c r="E170" s="1"/>
-      <c r="F170" s="15">
+      <c r="F170" s="16">
         <f>-0.000000003*B170^4-0.00000003*B170^3+0.0001*B170^2+0.0123*B170</f>
       </c>
-      <c r="G170" s="15">
+      <c r="G170" s="16">
         <f>0.000000001*B220^4-0.00000009*B170^3-0.00000005</f>
       </c>
-      <c r="H170" s="13"/>
+      <c r="H170" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="1"/>
-      <c r="B171" s="14">
+      <c r="B171" s="15">
         <v>170</v>
       </c>
-      <c r="C171" s="14">
+      <c r="C171" s="15">
         <f>B171^4</f>
       </c>
-      <c r="D171" s="15">
+      <c r="D171" s="16">
         <f>0.000000001*B221^4</f>
       </c>
       <c r="E171" s="1"/>
-      <c r="F171" s="15">
+      <c r="F171" s="16">
         <f>-0.000000003*B171^4-0.00000003*B171^3+0.0001*B171^2+0.0123*B171</f>
       </c>
-      <c r="G171" s="15">
+      <c r="G171" s="16">
         <f>0.000000001*B221^4-0.00000009*B171^3-0.00000005</f>
       </c>
-      <c r="H171" s="13"/>
+      <c r="H171" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1"/>
-      <c r="B172" s="14">
+      <c r="B172" s="15">
         <v>171</v>
       </c>
-      <c r="C172" s="14">
+      <c r="C172" s="15">
         <f>B172^4</f>
       </c>
-      <c r="D172" s="15">
+      <c r="D172" s="16">
         <f>0.000000001*B222^4</f>
       </c>
       <c r="E172" s="1"/>
-      <c r="F172" s="15">
+      <c r="F172" s="16">
         <f>-0.000000003*B172^4-0.00000003*B172^3+0.0001*B172^2+0.0123*B172</f>
       </c>
-      <c r="G172" s="15">
+      <c r="G172" s="16">
         <f>0.000000001*B222^4-0.00000009*B172^3-0.00000005</f>
       </c>
-      <c r="H172" s="13"/>
+      <c r="H172" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1"/>
-      <c r="B173" s="14">
+      <c r="B173" s="15">
         <v>172</v>
       </c>
-      <c r="C173" s="14">
+      <c r="C173" s="15">
         <f>B173^4</f>
       </c>
-      <c r="D173" s="15">
+      <c r="D173" s="16">
         <f>0.000000001*B223^4</f>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="15">
+      <c r="F173" s="16">
         <f>-0.000000003*B173^4-0.00000003*B173^3+0.0001*B173^2+0.0123*B173</f>
       </c>
-      <c r="G173" s="15">
+      <c r="G173" s="16">
         <f>0.000000001*B223^4-0.00000009*B173^3-0.00000005</f>
       </c>
-      <c r="H173" s="13"/>
+      <c r="H173" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1"/>
-      <c r="B174" s="14">
+      <c r="B174" s="15">
         <v>173</v>
       </c>
-      <c r="C174" s="14">
+      <c r="C174" s="15">
         <f>B174^4</f>
       </c>
-      <c r="D174" s="15">
+      <c r="D174" s="16">
         <f>0.000000001*B224^4</f>
       </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="15">
+      <c r="F174" s="16">
         <f>-0.000000003*B174^4-0.00000003*B174^3+0.0001*B174^2+0.0123*B174</f>
       </c>
-      <c r="G174" s="15">
+      <c r="G174" s="16">
         <f>0.000000001*B224^4-0.00000009*B174^3-0.00000005</f>
       </c>
-      <c r="H174" s="13"/>
+      <c r="H174" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1"/>
-      <c r="B175" s="14">
+      <c r="B175" s="15">
         <v>174</v>
       </c>
-      <c r="C175" s="14">
+      <c r="C175" s="15">
         <f>B175^4</f>
       </c>
-      <c r="D175" s="15">
+      <c r="D175" s="16">
         <f>0.000000001*B225^4</f>
       </c>
       <c r="E175" s="1"/>
-      <c r="F175" s="15">
+      <c r="F175" s="16">
         <f>-0.000000003*B175^4-0.00000003*B175^3+0.0001*B175^2+0.0123*B175</f>
       </c>
-      <c r="G175" s="15">
+      <c r="G175" s="16">
         <f>0.000000001*B225^4-0.00000009*B175^3-0.00000005</f>
       </c>
-      <c r="H175" s="13"/>
+      <c r="H175" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1"/>
-      <c r="B176" s="14">
+      <c r="B176" s="15">
         <v>175</v>
       </c>
-      <c r="C176" s="14">
+      <c r="C176" s="15">
         <f>B176^4</f>
       </c>
-      <c r="D176" s="15">
+      <c r="D176" s="16">
         <f>0.000000001*B226^4</f>
       </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="15">
+      <c r="F176" s="16">
         <f>-0.000000003*B176^4-0.00000003*B176^3+0.0001*B176^2+0.0123*B176</f>
       </c>
-      <c r="G176" s="15">
+      <c r="G176" s="16">
         <f>0.000000001*B226^4-0.00000009*B176^3-0.00000005</f>
       </c>
-      <c r="H176" s="13"/>
+      <c r="H176" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1"/>
-      <c r="B177" s="14">
+      <c r="B177" s="15">
         <v>176</v>
       </c>
-      <c r="C177" s="14">
+      <c r="C177" s="15">
         <f>B177^4</f>
       </c>
-      <c r="D177" s="15">
+      <c r="D177" s="16">
         <f>0.000000001*B227^4</f>
       </c>
       <c r="E177" s="1"/>
-      <c r="F177" s="15">
+      <c r="F177" s="16">
         <f>-0.000000003*B177^4-0.00000003*B177^3+0.0001*B177^2+0.0123*B177</f>
       </c>
-      <c r="G177" s="15">
+      <c r="G177" s="16">
         <f>0.000000001*B227^4-0.00000009*B177^3-0.00000005</f>
       </c>
-      <c r="H177" s="13"/>
+      <c r="H177" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1"/>
-      <c r="B178" s="14">
+      <c r="B178" s="15">
         <v>177</v>
       </c>
-      <c r="C178" s="14">
+      <c r="C178" s="15">
         <f>B178^4</f>
       </c>
-      <c r="D178" s="15">
+      <c r="D178" s="16">
         <f>0.000000001*B228^4</f>
       </c>
       <c r="E178" s="1"/>
-      <c r="F178" s="15">
+      <c r="F178" s="16">
         <f>-0.000000003*B178^4-0.00000003*B178^3+0.0001*B178^2+0.0123*B178</f>
       </c>
-      <c r="G178" s="15">
+      <c r="G178" s="16">
         <f>0.000000001*B228^4-0.00000009*B178^3-0.00000005</f>
       </c>
-      <c r="H178" s="13"/>
+      <c r="H178" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1"/>
-      <c r="B179" s="14">
+      <c r="B179" s="15">
         <v>178</v>
       </c>
-      <c r="C179" s="14">
+      <c r="C179" s="15">
         <f>B179^4</f>
       </c>
-      <c r="D179" s="15">
+      <c r="D179" s="16">
         <f>0.000000001*B229^4</f>
       </c>
       <c r="E179" s="1"/>
-      <c r="F179" s="15">
+      <c r="F179" s="16">
         <f>-0.000000003*B179^4-0.00000003*B179^3+0.0001*B179^2+0.0123*B179</f>
       </c>
-      <c r="G179" s="15">
+      <c r="G179" s="16">
         <f>0.000000001*B229^4-0.00000009*B179^3-0.00000005</f>
       </c>
-      <c r="H179" s="13"/>
+      <c r="H179" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1"/>
-      <c r="B180" s="14">
+      <c r="B180" s="15">
         <v>179</v>
       </c>
-      <c r="C180" s="14">
+      <c r="C180" s="15">
         <f>B180^4</f>
       </c>
-      <c r="D180" s="15">
+      <c r="D180" s="16">
         <f>0.000000001*B230^4</f>
       </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="15">
+      <c r="F180" s="16">
         <f>-0.000000003*B180^4-0.00000003*B180^3+0.0001*B180^2+0.0123*B180</f>
       </c>
-      <c r="G180" s="15">
+      <c r="G180" s="16">
         <f>0.000000001*B230^4-0.00000009*B180^3-0.00000005</f>
       </c>
-      <c r="H180" s="13"/>
+      <c r="H180" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1"/>
-      <c r="B181" s="14">
+      <c r="B181" s="15">
         <v>180</v>
       </c>
-      <c r="C181" s="14">
+      <c r="C181" s="15">
         <f>B181^4</f>
       </c>
-      <c r="D181" s="15">
+      <c r="D181" s="16">
         <f>0.000000001*B231^4</f>
       </c>
       <c r="E181" s="1"/>
-      <c r="F181" s="15">
+      <c r="F181" s="16">
         <f>-0.000000003*B181^4-0.00000003*B181^3+0.0001*B181^2+0.0123*B181</f>
       </c>
-      <c r="G181" s="15">
+      <c r="G181" s="16">
         <f>0.000000001*B231^4-0.00000009*B181^3-0.00000005</f>
       </c>
-      <c r="H181" s="13"/>
+      <c r="H181" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="1"/>
-      <c r="B182" s="14">
+      <c r="B182" s="15">
         <v>181</v>
       </c>
-      <c r="C182" s="14">
+      <c r="C182" s="15">
         <f>B182^4</f>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="16">
         <f>0.000000001*B232^4</f>
       </c>
       <c r="E182" s="1"/>
-      <c r="F182" s="15">
+      <c r="F182" s="16">
         <f>-0.000000003*B182^4-0.00000003*B182^3+0.0001*B182^2+0.0123*B182</f>
       </c>
-      <c r="G182" s="15">
+      <c r="G182" s="16">
         <f>0.000000001*B232^4-0.00000009*B182^3-0.00000005</f>
       </c>
-      <c r="H182" s="13"/>
+      <c r="H182" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="1"/>
-      <c r="B183" s="14">
+      <c r="B183" s="15">
         <v>182</v>
       </c>
-      <c r="C183" s="14">
+      <c r="C183" s="15">
         <f>B183^4</f>
       </c>
-      <c r="D183" s="15">
+      <c r="D183" s="16">
         <f>0.000000001*B233^4</f>
       </c>
       <c r="E183" s="1"/>
-      <c r="F183" s="15">
+      <c r="F183" s="16">
         <f>-0.000000003*B183^4-0.00000003*B183^3+0.0001*B183^2+0.0123*B183</f>
       </c>
-      <c r="G183" s="15">
+      <c r="G183" s="16">
         <f>0.000000001*B233^4-0.00000009*B183^3-0.00000005</f>
       </c>
-      <c r="H183" s="13"/>
+      <c r="H183" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="1"/>
-      <c r="B184" s="14">
+      <c r="B184" s="15">
         <v>183</v>
       </c>
-      <c r="C184" s="14">
+      <c r="C184" s="15">
         <f>B184^4</f>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="16">
         <f>0.000000001*B234^4</f>
       </c>
       <c r="E184" s="1"/>
-      <c r="F184" s="15">
+      <c r="F184" s="16">
         <f>-0.000000003*B184^4-0.00000003*B184^3+0.0001*B184^2+0.0123*B184</f>
       </c>
-      <c r="G184" s="15">
+      <c r="G184" s="16">
         <f>0.000000001*B234^4-0.00000009*B184^3-0.00000005</f>
       </c>
-      <c r="H184" s="13"/>
+      <c r="H184" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="1"/>
-      <c r="B185" s="14">
+      <c r="B185" s="15">
         <v>184</v>
       </c>
-      <c r="C185" s="14">
+      <c r="C185" s="15">
         <f>B185^4</f>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="16">
         <f>0.000000001*B235^4</f>
       </c>
       <c r="E185" s="1"/>
-      <c r="F185" s="15">
+      <c r="F185" s="16">
         <f>-0.000000003*B185^4-0.00000003*B185^3+0.0001*B185^2+0.0123*B185</f>
       </c>
-      <c r="G185" s="15">
+      <c r="G185" s="16">
         <f>0.000000001*B235^4-0.00000009*B185^3-0.00000005</f>
       </c>
-      <c r="H185" s="13"/>
+      <c r="H185" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1"/>
-      <c r="B186" s="14">
+      <c r="B186" s="15">
         <v>185</v>
       </c>
-      <c r="C186" s="14">
+      <c r="C186" s="15">
         <f>B186^4</f>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="16">
         <f>0.000000001*B236^4</f>
       </c>
       <c r="E186" s="1"/>
-      <c r="F186" s="15">
+      <c r="F186" s="16">
         <f>-0.000000003*B186^4-0.00000003*B186^3+0.0001*B186^2+0.0123*B186</f>
       </c>
-      <c r="G186" s="15">
+      <c r="G186" s="16">
         <f>0.000000001*B236^4-0.00000009*B186^3-0.00000005</f>
       </c>
-      <c r="H186" s="13"/>
+      <c r="H186" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1"/>
-      <c r="B187" s="14">
+      <c r="B187" s="15">
         <v>186</v>
       </c>
-      <c r="C187" s="14">
+      <c r="C187" s="15">
         <f>B187^4</f>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="16">
         <f>0.000000001*B237^4</f>
       </c>
       <c r="E187" s="1"/>
-      <c r="F187" s="15">
+      <c r="F187" s="16">
         <f>-0.000000003*B187^4-0.00000003*B187^3+0.0001*B187^2+0.0123*B187</f>
       </c>
-      <c r="G187" s="15">
+      <c r="G187" s="16">
         <f>0.000000001*B237^4-0.00000009*B187^3-0.00000005</f>
       </c>
-      <c r="H187" s="13"/>
+      <c r="H187" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1"/>
-      <c r="B188" s="14">
+      <c r="B188" s="15">
         <v>187</v>
       </c>
-      <c r="C188" s="14">
+      <c r="C188" s="15">
         <f>B188^4</f>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="16">
         <f>0.000000001*B238^4</f>
       </c>
       <c r="E188" s="1"/>
-      <c r="F188" s="15">
+      <c r="F188" s="16">
         <f>-0.000000003*B188^4-0.00000003*B188^3+0.0001*B188^2+0.0123*B188</f>
       </c>
-      <c r="G188" s="15">
+      <c r="G188" s="16">
         <f>0.000000001*B238^4-0.00000009*B188^3-0.00000005</f>
       </c>
-      <c r="H188" s="13"/>
+      <c r="H188" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1"/>
-      <c r="B189" s="14">
+      <c r="B189" s="15">
         <v>188</v>
       </c>
-      <c r="C189" s="14">
+      <c r="C189" s="15">
         <f>B189^4</f>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="16">
         <f>0.000000001*B239^4</f>
       </c>
       <c r="E189" s="1"/>
-      <c r="F189" s="15">
+      <c r="F189" s="16">
         <f>-0.000000003*B189^4-0.00000003*B189^3+0.0001*B189^2+0.0123*B189</f>
       </c>
-      <c r="G189" s="15">
+      <c r="G189" s="16">
         <f>0.000000001*B239^4-0.00000009*B189^3-0.00000005</f>
       </c>
-      <c r="H189" s="13"/>
+      <c r="H189" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="1"/>
-      <c r="B190" s="14">
+      <c r="B190" s="15">
         <v>189</v>
       </c>
-      <c r="C190" s="14">
+      <c r="C190" s="15">
         <f>B190^4</f>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="16">
         <f>0.000000001*B240^4</f>
       </c>
       <c r="E190" s="1"/>
-      <c r="F190" s="15">
+      <c r="F190" s="16">
         <f>-0.000000003*B190^4-0.00000003*B190^3+0.0001*B190^2+0.0123*B190</f>
       </c>
-      <c r="G190" s="15">
+      <c r="G190" s="16">
         <f>0.000000001*B240^4-0.00000009*B190^3-0.00000005</f>
       </c>
-      <c r="H190" s="13"/>
+      <c r="H190" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="1"/>
-      <c r="B191" s="14">
+      <c r="B191" s="15">
         <v>190</v>
       </c>
-      <c r="C191" s="14">
+      <c r="C191" s="15">
         <f>B191^4</f>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="16">
         <f>0.000000001*B241^4</f>
       </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="15">
+      <c r="F191" s="16">
         <f>-0.000000003*B191^4-0.00000003*B191^3+0.0001*B191^2+0.0123*B191</f>
       </c>
-      <c r="G191" s="15">
+      <c r="G191" s="16">
         <f>0.000000001*B241^4-0.00000009*B191^3-0.00000005</f>
       </c>
-      <c r="H191" s="13"/>
+      <c r="H191" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="1"/>
-      <c r="B192" s="14">
+      <c r="B192" s="15">
         <v>191</v>
       </c>
-      <c r="C192" s="14">
+      <c r="C192" s="15">
         <f>B192^4</f>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="16">
         <f>0.000000001*B242^4</f>
       </c>
       <c r="E192" s="1"/>
-      <c r="F192" s="15">
+      <c r="F192" s="16">
         <f>-0.000000003*B192^4-0.00000003*B192^3+0.0001*B192^2+0.0123*B192</f>
       </c>
-      <c r="G192" s="15">
+      <c r="G192" s="16">
         <f>0.000000001*B242^4-0.00000009*B192^3-0.00000005</f>
       </c>
-      <c r="H192" s="13"/>
+      <c r="H192" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="1"/>
-      <c r="B193" s="14">
+      <c r="B193" s="15">
         <v>192</v>
       </c>
-      <c r="C193" s="14">
+      <c r="C193" s="15">
         <f>B193^4</f>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="16">
         <f>0.000000001*B243^4</f>
       </c>
       <c r="E193" s="1"/>
-      <c r="F193" s="15">
+      <c r="F193" s="16">
         <f>-0.000000003*B193^4-0.00000003*B193^3+0.0001*B193^2+0.0123*B193</f>
       </c>
-      <c r="G193" s="15">
+      <c r="G193" s="16">
         <f>0.000000001*B243^4-0.00000009*B193^3-0.00000005</f>
       </c>
-      <c r="H193" s="13"/>
+      <c r="H193" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1"/>
-      <c r="B194" s="14">
+      <c r="B194" s="15">
         <v>193</v>
       </c>
-      <c r="C194" s="14">
+      <c r="C194" s="15">
         <f>B194^4</f>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="16">
         <f>0.000000001*B244^4</f>
       </c>
       <c r="E194" s="1"/>
-      <c r="F194" s="15">
+      <c r="F194" s="16">
         <f>-0.000000003*B194^4-0.00000003*B194^3+0.0001*B194^2+0.0123*B194</f>
       </c>
-      <c r="G194" s="15">
+      <c r="G194" s="16">
         <f>0.000000001*B244^4-0.00000009*B194^3-0.00000005</f>
       </c>
-      <c r="H194" s="13"/>
+      <c r="H194" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1"/>
-      <c r="B195" s="14">
+      <c r="B195" s="15">
         <v>194</v>
       </c>
-      <c r="C195" s="14">
+      <c r="C195" s="15">
         <f>B195^4</f>
       </c>
-      <c r="D195" s="15">
+      <c r="D195" s="16">
         <f>0.000000001*B245^4</f>
       </c>
       <c r="E195" s="1"/>
-      <c r="F195" s="15">
+      <c r="F195" s="16">
         <f>-0.000000003*B195^4-0.00000003*B195^3+0.0001*B195^2+0.0123*B195</f>
       </c>
-      <c r="G195" s="15">
+      <c r="G195" s="16">
         <f>0.000000001*B245^4-0.00000009*B195^3-0.00000005</f>
       </c>
-      <c r="H195" s="13"/>
+      <c r="H195" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="1"/>
-      <c r="B196" s="14">
+      <c r="B196" s="15">
         <v>195</v>
       </c>
-      <c r="C196" s="14">
+      <c r="C196" s="15">
         <f>B196^4</f>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="16">
         <f>0.000000001*B246^4</f>
       </c>
       <c r="E196" s="1"/>
-      <c r="F196" s="15">
+      <c r="F196" s="16">
         <f>-0.000000003*B196^4-0.00000003*B196^3+0.0001*B196^2+0.0123*B196</f>
       </c>
-      <c r="G196" s="15">
+      <c r="G196" s="16">
         <f>0.000000001*B246^4-0.00000009*B196^3-0.00000005</f>
       </c>
-      <c r="H196" s="13"/>
+      <c r="H196" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="1"/>
-      <c r="B197" s="14">
+      <c r="B197" s="15">
         <v>196</v>
       </c>
-      <c r="C197" s="14">
+      <c r="C197" s="15">
         <f>B197^4</f>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="16">
         <f>0.000000001*B247^4</f>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="15">
+      <c r="F197" s="16">
         <f>-0.000000003*B197^4-0.00000003*B197^3+0.0001*B197^2+0.0123*B197</f>
       </c>
-      <c r="G197" s="15">
+      <c r="G197" s="16">
         <f>0.000000001*B247^4-0.00000009*B197^3-0.00000005</f>
       </c>
-      <c r="H197" s="13"/>
+      <c r="H197" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="1"/>
-      <c r="B198" s="14">
+      <c r="B198" s="15">
         <v>197</v>
       </c>
-      <c r="C198" s="14">
+      <c r="C198" s="15">
         <f>B198^4</f>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="16">
         <f>0.000000001*B248^4</f>
       </c>
       <c r="E198" s="1"/>
-      <c r="F198" s="15">
+      <c r="F198" s="16">
         <f>-0.000000003*B198^4-0.00000003*B198^3+0.0001*B198^2+0.0123*B198</f>
       </c>
-      <c r="G198" s="15">
+      <c r="G198" s="16">
         <f>0.000000001*B248^4-0.00000009*B198^3-0.00000005</f>
       </c>
-      <c r="H198" s="13"/>
+      <c r="H198" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="1"/>
-      <c r="B199" s="14">
+      <c r="B199" s="15">
         <v>198</v>
       </c>
-      <c r="C199" s="14">
+      <c r="C199" s="15">
         <f>B199^4</f>
       </c>
-      <c r="D199" s="15">
+      <c r="D199" s="16">
         <f>0.000000001*B249^4</f>
       </c>
       <c r="E199" s="1"/>
-      <c r="F199" s="15">
+      <c r="F199" s="16">
         <f>-0.000000003*B199^4-0.00000003*B199^3+0.0001*B199^2+0.0123*B199</f>
       </c>
-      <c r="G199" s="15">
+      <c r="G199" s="16">
         <f>0.000000001*B249^4-0.00000009*B199^3-0.00000005</f>
       </c>
-      <c r="H199" s="13"/>
+      <c r="H199" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="1"/>
-      <c r="B200" s="14">
+      <c r="B200" s="15">
         <v>199</v>
       </c>
-      <c r="C200" s="14">
+      <c r="C200" s="15">
         <f>B200^4</f>
       </c>
-      <c r="D200" s="15">
+      <c r="D200" s="16">
         <f>0.000000001*B250^4</f>
       </c>
       <c r="E200" s="1"/>
-      <c r="F200" s="15">
+      <c r="F200" s="16">
         <f>-0.000000003*B200^4-0.00000003*B200^3+0.0001*B200^2+0.0123*B200</f>
       </c>
-      <c r="G200" s="15">
+      <c r="G200" s="16">
         <f>0.000000001*B250^4-0.00000009*B200^3-0.00000005</f>
       </c>
-      <c r="H200" s="13"/>
+      <c r="H200" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1"/>
-      <c r="B201" s="14">
+      <c r="B201" s="15">
         <v>200</v>
       </c>
-      <c r="C201" s="14">
+      <c r="C201" s="15">
         <f>B201^4</f>
       </c>
-      <c r="D201" s="15">
+      <c r="D201" s="16">
         <f>0.000000001*B251^4</f>
       </c>
       <c r="E201" s="1"/>
-      <c r="F201" s="15">
+      <c r="F201" s="16">
         <f>-0.000000003*B201^4-0.00000003*B201^3+0.0001*B201^2+0.0123*B201</f>
       </c>
-      <c r="G201" s="15">
+      <c r="G201" s="16">
         <f>0.000000001*B251^4-0.00000009*B201^3-0.00000005</f>
       </c>
-      <c r="H201" s="13"/>
+      <c r="H201" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="1"/>
-      <c r="B202" s="14">
+      <c r="B202" s="15">
         <v>201</v>
       </c>
-      <c r="C202" s="14">
+      <c r="C202" s="15">
         <f>B202^4</f>
       </c>
-      <c r="D202" s="15">
+      <c r="D202" s="16">
         <f>0.000000001*B252^4</f>
       </c>
       <c r="E202" s="1"/>
-      <c r="F202" s="15">
+      <c r="F202" s="16">
         <f>-0.000000003*B202^4-0.00000003*B202^3+0.0001*B202^2+0.0123*B202</f>
       </c>
-      <c r="G202" s="15">
+      <c r="G202" s="16">
         <f>0.000000001*B252^4-0.00000009*B202^3-0.00000005</f>
       </c>
-      <c r="H202" s="13"/>
+      <c r="H202" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="1"/>
-      <c r="B203" s="14">
+      <c r="B203" s="15">
         <v>202</v>
       </c>
-      <c r="C203" s="14">
+      <c r="C203" s="15">
         <f>B203^4</f>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="16">
         <f>0.000000001*B253^4</f>
       </c>
       <c r="E203" s="1"/>
-      <c r="F203" s="15">
+      <c r="F203" s="16">
         <f>-0.000000003*B203^4-0.00000003*B203^3+0.0001*B203^2+0.0123*B203</f>
       </c>
-      <c r="G203" s="15">
+      <c r="G203" s="16">
         <f>0.000000001*B253^4-0.00000009*B203^3-0.00000005</f>
       </c>
-      <c r="H203" s="13"/>
+      <c r="H203" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="1"/>
-      <c r="B204" s="14">
+      <c r="B204" s="15">
         <v>203</v>
       </c>
-      <c r="C204" s="14">
+      <c r="C204" s="15">
         <f>B204^4</f>
       </c>
-      <c r="D204" s="15">
+      <c r="D204" s="16">
         <f>0.000000001*B254^4</f>
       </c>
       <c r="E204" s="1"/>
-      <c r="F204" s="15">
+      <c r="F204" s="16">
         <f>-0.000000003*B204^4-0.00000003*B204^3+0.0001*B204^2+0.0123*B204</f>
       </c>
-      <c r="G204" s="15">
+      <c r="G204" s="16">
         <f>0.000000001*B254^4-0.00000009*B204^3-0.00000005</f>
       </c>
-      <c r="H204" s="13"/>
+      <c r="H204" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="1"/>
-      <c r="B205" s="14">
+      <c r="B205" s="15">
         <v>204</v>
       </c>
-      <c r="C205" s="14">
+      <c r="C205" s="15">
         <f>B205^4</f>
       </c>
-      <c r="D205" s="15">
+      <c r="D205" s="16">
         <f>0.000000001*B255^4</f>
       </c>
       <c r="E205" s="1"/>
-      <c r="F205" s="15">
+      <c r="F205" s="16">
         <f>-0.000000003*B205^4-0.00000003*B205^3+0.0001*B205^2+0.0123*B205</f>
       </c>
-      <c r="G205" s="15">
+      <c r="G205" s="16">
         <f>0.000000001*B255^4-0.00000009*B205^3-0.00000005</f>
       </c>
-      <c r="H205" s="13"/>
+      <c r="H205" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="1"/>
-      <c r="B206" s="14">
+      <c r="B206" s="15">
         <v>205</v>
       </c>
-      <c r="C206" s="14">
+      <c r="C206" s="15">
         <f>B206^4</f>
       </c>
-      <c r="D206" s="15">
+      <c r="D206" s="16">
         <f>0.000000001*B256^4</f>
       </c>
       <c r="E206" s="1"/>
-      <c r="F206" s="15">
+      <c r="F206" s="16">
         <f>-0.000000003*B206^4-0.00000003*B206^3+0.0001*B206^2+0.0123*B206</f>
       </c>
-      <c r="G206" s="15">
+      <c r="G206" s="16">
         <f>0.000000001*B256^4-0.00000009*B206^3-0.00000005</f>
       </c>
-      <c r="H206" s="13"/>
+      <c r="H206" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="1"/>
-      <c r="B207" s="14">
+      <c r="B207" s="15">
         <v>206</v>
       </c>
-      <c r="C207" s="14">
+      <c r="C207" s="15">
         <f>B207^4</f>
       </c>
-      <c r="D207" s="15">
+      <c r="D207" s="16">
         <f>0.000000001*B257^4</f>
       </c>
       <c r="E207" s="1"/>
-      <c r="F207" s="15">
+      <c r="F207" s="16">
         <f>-0.000000003*B207^4-0.00000003*B207^3+0.0001*B207^2+0.0123*B207</f>
       </c>
-      <c r="G207" s="15">
+      <c r="G207" s="16">
         <f>0.000000001*B257^4-0.00000009*B207^3-0.00000005</f>
       </c>
-      <c r="H207" s="13"/>
+      <c r="H207" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="1"/>
-      <c r="B208" s="14">
+      <c r="B208" s="15">
         <v>207</v>
       </c>
-      <c r="C208" s="14">
+      <c r="C208" s="15">
         <f>B208^4</f>
       </c>
-      <c r="D208" s="15">
+      <c r="D208" s="16">
         <f>0.000000001*B258^4</f>
       </c>
       <c r="E208" s="1"/>
-      <c r="F208" s="15">
+      <c r="F208" s="16">
         <f>-0.000000003*B208^4-0.00000003*B208^3+0.0001*B208^2+0.0123*B208</f>
       </c>
-      <c r="G208" s="15">
+      <c r="G208" s="16">
         <f>0.000000001*B258^4-0.00000009*B208^3-0.00000005</f>
       </c>
-      <c r="H208" s="13"/>
+      <c r="H208" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="1"/>
-      <c r="B209" s="14">
+      <c r="B209" s="15">
         <v>208</v>
       </c>
-      <c r="C209" s="14">
+      <c r="C209" s="15">
         <f>B209^4</f>
       </c>
-      <c r="D209" s="15">
+      <c r="D209" s="16">
         <f>0.000000001*B259^4</f>
       </c>
       <c r="E209" s="1"/>
-      <c r="F209" s="15">
+      <c r="F209" s="16">
         <f>-0.000000003*B209^4-0.00000003*B209^3+0.0001*B209^2+0.0123*B209</f>
       </c>
-      <c r="G209" s="15">
+      <c r="G209" s="16">
         <f>0.000000001*B259^4-0.00000009*B209^3-0.00000005</f>
       </c>
-      <c r="H209" s="13"/>
+      <c r="H209" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="1"/>
-      <c r="B210" s="14">
+      <c r="B210" s="15">
         <v>209</v>
       </c>
-      <c r="C210" s="14">
+      <c r="C210" s="15">
         <f>B210^4</f>
       </c>
-      <c r="D210" s="15">
+      <c r="D210" s="16">
         <f>0.000000001*B260^4</f>
       </c>
       <c r="E210" s="1"/>
-      <c r="F210" s="15">
+      <c r="F210" s="16">
         <f>-0.000000003*B210^4-0.00000003*B210^3+0.0001*B210^2+0.0123*B210</f>
       </c>
-      <c r="G210" s="15">
+      <c r="G210" s="16">
         <f>0.000000001*B260^4-0.00000009*B210^3-0.00000005</f>
       </c>
-      <c r="H210" s="13"/>
+      <c r="H210" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="1"/>
-      <c r="B211" s="14">
+      <c r="B211" s="15">
         <v>210</v>
       </c>
-      <c r="C211" s="14">
+      <c r="C211" s="15">
         <f>B211^4</f>
       </c>
-      <c r="D211" s="15">
+      <c r="D211" s="16">
         <f>0.000000001*B261^4</f>
       </c>
       <c r="E211" s="1"/>
-      <c r="F211" s="15">
+      <c r="F211" s="16">
         <f>-0.000000003*B211^4-0.00000003*B211^3+0.0001*B211^2+0.0123*B211</f>
       </c>
-      <c r="G211" s="15">
+      <c r="G211" s="16">
         <f>0.000000001*B261^4-0.00000009*B211^3-0.00000005</f>
       </c>
-      <c r="H211" s="13"/>
+      <c r="H211" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="1"/>
-      <c r="B212" s="14">
+      <c r="B212" s="15">
         <v>211</v>
       </c>
-      <c r="C212" s="14">
+      <c r="C212" s="15">
         <f>B212^4</f>
       </c>
-      <c r="D212" s="15">
+      <c r="D212" s="16">
         <f>0.000000001*B262^4</f>
       </c>
       <c r="E212" s="1"/>
-      <c r="F212" s="15">
+      <c r="F212" s="16">
         <f>-0.000000003*B212^4-0.00000003*B212^3+0.0001*B212^2+0.0123*B212</f>
       </c>
-      <c r="G212" s="15">
+      <c r="G212" s="16">
         <f>0.000000001*B262^4-0.00000009*B212^3-0.00000005</f>
       </c>
-      <c r="H212" s="13"/>
+      <c r="H212" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="1"/>
-      <c r="B213" s="14">
+      <c r="B213" s="15">
         <v>212</v>
       </c>
-      <c r="C213" s="14">
+      <c r="C213" s="15">
         <f>B213^4</f>
       </c>
-      <c r="D213" s="15">
+      <c r="D213" s="16">
         <f>0.000000001*B263^4</f>
       </c>
       <c r="E213" s="1"/>
-      <c r="F213" s="15">
+      <c r="F213" s="16">
         <f>-0.000000003*B213^4-0.00000003*B213^3+0.0001*B213^2+0.0123*B213</f>
       </c>
-      <c r="G213" s="15">
+      <c r="G213" s="16">
         <f>0.000000001*B263^4-0.00000009*B213^3-0.00000005</f>
       </c>
-      <c r="H213" s="13"/>
+      <c r="H213" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="1"/>
-      <c r="B214" s="14">
+      <c r="B214" s="15">
         <v>213</v>
       </c>
-      <c r="C214" s="14">
+      <c r="C214" s="15">
         <f>B214^4</f>
       </c>
-      <c r="D214" s="15">
+      <c r="D214" s="16">
         <f>0.000000001*B264^4</f>
       </c>
       <c r="E214" s="1"/>
-      <c r="F214" s="15">
+      <c r="F214" s="16">
         <f>-0.000000003*B214^4-0.00000003*B214^3+0.0001*B214^2+0.0123*B214</f>
       </c>
-      <c r="G214" s="15">
+      <c r="G214" s="16">
         <f>0.000000001*B264^4-0.00000009*B214^3-0.00000005</f>
       </c>
-      <c r="H214" s="13"/>
+      <c r="H214" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="1"/>
-      <c r="B215" s="14">
+      <c r="B215" s="15">
         <v>214</v>
       </c>
-      <c r="C215" s="14">
+      <c r="C215" s="15">
         <f>B215^4</f>
       </c>
-      <c r="D215" s="15">
+      <c r="D215" s="16">
         <f>0.000000001*B265^4</f>
       </c>
       <c r="E215" s="1"/>
-      <c r="F215" s="15">
+      <c r="F215" s="16">
         <f>-0.000000003*B215^4-0.00000003*B215^3+0.0001*B215^2+0.0123*B215</f>
       </c>
-      <c r="G215" s="15">
+      <c r="G215" s="16">
         <f>0.000000001*B265^4-0.00000009*B215^3-0.00000005</f>
       </c>
-      <c r="H215" s="13"/>
+      <c r="H215" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="1"/>
-      <c r="B216" s="14">
+      <c r="B216" s="15">
         <v>215</v>
       </c>
-      <c r="C216" s="14">
+      <c r="C216" s="15">
         <f>B216^4</f>
       </c>
-      <c r="D216" s="15">
+      <c r="D216" s="16">
         <f>0.000000001*B266^4</f>
       </c>
       <c r="E216" s="1"/>
-      <c r="F216" s="15">
+      <c r="F216" s="16">
         <f>-0.000000003*B216^4-0.00000003*B216^3+0.0001*B216^2+0.0123*B216</f>
       </c>
-      <c r="G216" s="15">
+      <c r="G216" s="16">
         <f>0.000000001*B266^4-0.00000009*B216^3-0.00000005</f>
       </c>
-      <c r="H216" s="13"/>
+      <c r="H216" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="1"/>
-      <c r="B217" s="14">
+      <c r="B217" s="15">
         <v>216</v>
       </c>
-      <c r="C217" s="14">
+      <c r="C217" s="15">
         <f>B217^4</f>
       </c>
-      <c r="D217" s="15">
+      <c r="D217" s="16">
         <f>0.000000001*B267^4</f>
       </c>
       <c r="E217" s="1"/>
-      <c r="F217" s="15">
+      <c r="F217" s="16">
         <f>-0.000000003*B217^4-0.00000003*B217^3+0.0001*B217^2+0.0123*B217</f>
       </c>
-      <c r="G217" s="15">
+      <c r="G217" s="16">
         <f>0.000000001*B267^4-0.00000009*B217^3-0.00000005</f>
       </c>
-      <c r="H217" s="13"/>
+      <c r="H217" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="1"/>
-      <c r="B218" s="14">
+      <c r="B218" s="15">
         <v>217</v>
       </c>
-      <c r="C218" s="14">
+      <c r="C218" s="15">
         <f>B218^4</f>
       </c>
-      <c r="D218" s="15">
+      <c r="D218" s="16">
         <f>0.000000001*B268^4</f>
       </c>
       <c r="E218" s="1"/>
-      <c r="F218" s="15">
+      <c r="F218" s="16">
         <f>-0.000000003*B218^4-0.00000003*B218^3+0.0001*B218^2+0.0123*B218</f>
       </c>
-      <c r="G218" s="15">
+      <c r="G218" s="16">
         <f>0.000000001*B268^4-0.00000009*B218^3-0.00000005</f>
       </c>
-      <c r="H218" s="13"/>
+      <c r="H218" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="1"/>
-      <c r="B219" s="14">
+      <c r="B219" s="15">
         <v>218</v>
       </c>
-      <c r="C219" s="14">
+      <c r="C219" s="15">
         <f>B219^4</f>
       </c>
-      <c r="D219" s="15">
+      <c r="D219" s="16">
         <f>0.000000001*B269^4</f>
       </c>
       <c r="E219" s="1"/>
-      <c r="F219" s="15">
+      <c r="F219" s="16">
         <f>-0.000000003*B219^4-0.00000003*B219^3+0.0001*B219^2+0.0123*B219</f>
       </c>
-      <c r="G219" s="15">
+      <c r="G219" s="16">
         <f>0.000000001*B269^4-0.00000009*B219^3-0.00000005</f>
       </c>
-      <c r="H219" s="13"/>
+      <c r="H219" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="1"/>
-      <c r="B220" s="14">
+      <c r="B220" s="15">
         <v>219</v>
       </c>
-      <c r="C220" s="14">
+      <c r="C220" s="15">
         <f>B220^4</f>
       </c>
-      <c r="D220" s="15">
+      <c r="D220" s="16">
         <f>0.000000001*B270^4</f>
       </c>
       <c r="E220" s="1"/>
-      <c r="F220" s="15">
+      <c r="F220" s="16">
         <f>-0.000000003*B220^4-0.00000003*B220^3+0.0001*B220^2+0.0123*B220</f>
       </c>
-      <c r="G220" s="15">
+      <c r="G220" s="16">
         <f>0.000000001*B270^4-0.00000009*B220^3-0.00000005</f>
       </c>
-      <c r="H220" s="13"/>
+      <c r="H220" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="1"/>
-      <c r="B221" s="14">
+      <c r="B221" s="15">
         <v>220</v>
       </c>
-      <c r="C221" s="14">
+      <c r="C221" s="15">
         <f>B221^4</f>
       </c>
-      <c r="D221" s="15">
+      <c r="D221" s="16">
         <f>0.000000001*B271^4</f>
       </c>
       <c r="E221" s="1"/>
-      <c r="F221" s="15">
+      <c r="F221" s="16">
         <f>-0.000000003*B221^4-0.00000003*B221^3+0.0001*B221^2+0.0123*B221</f>
       </c>
-      <c r="G221" s="15">
+      <c r="G221" s="16">
         <f>0.000000001*B271^4-0.00000009*B221^3-0.00000005</f>
       </c>
-      <c r="H221" s="13"/>
+      <c r="H221" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="1"/>
-      <c r="B222" s="14">
+      <c r="B222" s="15">
         <v>221</v>
       </c>
-      <c r="C222" s="14">
+      <c r="C222" s="15">
         <f>B222^4</f>
       </c>
-      <c r="D222" s="15">
+      <c r="D222" s="16">
         <f>0.000000001*B272^4</f>
       </c>
       <c r="E222" s="1"/>
-      <c r="F222" s="15">
+      <c r="F222" s="16">
         <f>-0.000000003*B222^4-0.00000003*B222^3+0.0001*B222^2+0.0123*B222</f>
       </c>
-      <c r="G222" s="15">
+      <c r="G222" s="16">
         <f>0.000000001*B272^4-0.00000009*B222^3-0.00000005</f>
       </c>
-      <c r="H222" s="13"/>
+      <c r="H222" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="1"/>
-      <c r="B223" s="14">
+      <c r="B223" s="15">
         <v>222</v>
       </c>
-      <c r="C223" s="14">
+      <c r="C223" s="15">
         <f>B223^4</f>
       </c>
-      <c r="D223" s="15">
+      <c r="D223" s="16">
         <f>0.000000001*B273^4</f>
       </c>
       <c r="E223" s="1"/>
-      <c r="F223" s="15">
+      <c r="F223" s="16">
         <f>-0.000000003*B223^4-0.00000003*B223^3+0.0001*B223^2+0.0123*B223</f>
       </c>
-      <c r="G223" s="15">
+      <c r="G223" s="16">
         <f>0.000000001*B273^4-0.00000009*B223^3-0.00000005</f>
       </c>
-      <c r="H223" s="13"/>
+      <c r="H223" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="1"/>
-      <c r="B224" s="14">
+      <c r="B224" s="15">
         <v>223</v>
       </c>
-      <c r="C224" s="14">
+      <c r="C224" s="15">
         <f>B224^4</f>
       </c>
-      <c r="D224" s="15">
+      <c r="D224" s="16">
         <f>0.000000001*B274^4</f>
       </c>
       <c r="E224" s="1"/>
-      <c r="F224" s="15">
+      <c r="F224" s="16">
         <f>-0.000000003*B224^4-0.00000003*B224^3+0.0001*B224^2+0.0123*B224</f>
       </c>
-      <c r="G224" s="15">
+      <c r="G224" s="16">
         <f>0.000000001*B274^4-0.00000009*B224^3-0.00000005</f>
       </c>
-      <c r="H224" s="13"/>
+      <c r="H224" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="1"/>
-      <c r="B225" s="14">
+      <c r="B225" s="15">
         <v>224</v>
       </c>
-      <c r="C225" s="14">
+      <c r="C225" s="15">
         <f>B225^4</f>
       </c>
-      <c r="D225" s="15">
+      <c r="D225" s="16">
         <f>0.000000001*B275^4</f>
       </c>
       <c r="E225" s="1"/>
-      <c r="F225" s="15">
+      <c r="F225" s="16">
         <f>-0.000000003*B225^4-0.00000003*B225^3+0.0001*B225^2+0.0123*B225</f>
       </c>
-      <c r="G225" s="15">
+      <c r="G225" s="16">
         <f>0.000000001*B275^4-0.00000009*B225^3-0.00000005</f>
       </c>
-      <c r="H225" s="13"/>
+      <c r="H225" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="1"/>
-      <c r="B226" s="14">
+      <c r="B226" s="15">
         <v>225</v>
       </c>
-      <c r="C226" s="14">
+      <c r="C226" s="15">
         <f>B226^4</f>
       </c>
-      <c r="D226" s="15">
+      <c r="D226" s="16">
         <f>0.000000001*B276^4</f>
       </c>
       <c r="E226" s="1"/>
-      <c r="F226" s="15">
+      <c r="F226" s="16">
         <f>-0.000000003*B226^4-0.00000003*B226^3+0.0001*B226^2+0.0123*B226</f>
       </c>
-      <c r="G226" s="15">
+      <c r="G226" s="16">
         <f>0.000000001*B276^4-0.00000009*B226^3-0.00000005</f>
       </c>
-      <c r="H226" s="13"/>
+      <c r="H226" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="1"/>
-      <c r="B227" s="14">
+      <c r="B227" s="15">
         <v>226</v>
       </c>
-      <c r="C227" s="14">
+      <c r="C227" s="15">
         <f>B227^4</f>
       </c>
-      <c r="D227" s="15">
+      <c r="D227" s="16">
         <f>0.000000001*B277^4</f>
       </c>
       <c r="E227" s="1"/>
-      <c r="F227" s="15">
+      <c r="F227" s="16">
         <f>-0.000000003*B227^4-0.00000003*B227^3+0.0001*B227^2+0.0123*B227</f>
       </c>
-      <c r="G227" s="15">
+      <c r="G227" s="16">
         <f>0.000000001*B277^4-0.00000009*B227^3-0.00000005</f>
       </c>
-      <c r="H227" s="13"/>
+      <c r="H227" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="1"/>
-      <c r="B228" s="14">
+      <c r="B228" s="15">
         <v>227</v>
       </c>
-      <c r="C228" s="14">
+      <c r="C228" s="15">
         <f>B228^4</f>
       </c>
-      <c r="D228" s="15">
+      <c r="D228" s="16">
         <f>0.000000001*B278^4</f>
       </c>
       <c r="E228" s="1"/>
-      <c r="F228" s="15">
+      <c r="F228" s="16">
         <f>-0.000000003*B228^4-0.00000003*B228^3+0.0001*B228^2+0.0123*B228</f>
       </c>
-      <c r="G228" s="15">
+      <c r="G228" s="16">
         <f>0.000000001*B278^4-0.00000009*B228^3-0.00000005</f>
       </c>
-      <c r="H228" s="13"/>
+      <c r="H228" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="1"/>
-      <c r="B229" s="14">
+      <c r="B229" s="15">
         <v>228</v>
       </c>
-      <c r="C229" s="14">
+      <c r="C229" s="15">
         <f>B229^4</f>
       </c>
-      <c r="D229" s="15">
+      <c r="D229" s="16">
         <f>0.000000001*B279^4</f>
       </c>
       <c r="E229" s="1"/>
-      <c r="F229" s="15">
+      <c r="F229" s="16">
         <f>-0.000000003*B229^4-0.00000003*B229^3+0.0001*B229^2+0.0123*B229</f>
       </c>
-      <c r="G229" s="15">
+      <c r="G229" s="16">
         <f>0.000000001*B279^4-0.00000009*B229^3-0.00000005</f>
       </c>
-      <c r="H229" s="13"/>
+      <c r="H229" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="1"/>
-      <c r="B230" s="14">
+      <c r="B230" s="15">
         <v>229</v>
       </c>
-      <c r="C230" s="14">
+      <c r="C230" s="15">
         <f>B230^4</f>
       </c>
-      <c r="D230" s="15">
+      <c r="D230" s="16">
         <f>0.000000001*B280^4</f>
       </c>
       <c r="E230" s="1"/>
-      <c r="F230" s="15">
+      <c r="F230" s="16">
         <f>-0.000000003*B230^4-0.00000003*B230^3+0.0001*B230^2+0.0123*B230</f>
       </c>
-      <c r="G230" s="15">
+      <c r="G230" s="16">
         <f>0.000000001*B280^4-0.00000009*B230^3-0.00000005</f>
       </c>
-      <c r="H230" s="13"/>
+      <c r="H230" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="1"/>
-      <c r="B231" s="14">
+      <c r="B231" s="15">
         <v>230</v>
       </c>
-      <c r="C231" s="14">
+      <c r="C231" s="15">
         <f>B231^4</f>
       </c>
-      <c r="D231" s="15">
+      <c r="D231" s="16">
         <f>0.000000001*B281^4</f>
       </c>
       <c r="E231" s="1"/>
-      <c r="F231" s="15">
+      <c r="F231" s="16">
         <f>-0.000000003*B231^4-0.00000003*B231^3+0.0001*B231^2+0.0123*B231</f>
       </c>
-      <c r="G231" s="15">
+      <c r="G231" s="16">
         <f>0.000000001*B281^4-0.00000009*B231^3-0.00000005</f>
       </c>
-      <c r="H231" s="13"/>
+      <c r="H231" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="1"/>
-      <c r="B232" s="14">
+      <c r="B232" s="15">
         <v>231</v>
       </c>
-      <c r="C232" s="14">
+      <c r="C232" s="15">
         <f>B232^4</f>
       </c>
-      <c r="D232" s="15">
+      <c r="D232" s="16">
         <f>0.000000001*B282^4</f>
       </c>
       <c r="E232" s="1"/>
-      <c r="F232" s="15">
+      <c r="F232" s="16">
         <f>-0.000000003*B232^4-0.00000003*B232^3+0.0001*B232^2+0.0123*B232</f>
       </c>
-      <c r="G232" s="15">
+      <c r="G232" s="16">
         <f>0.000000001*B282^4-0.00000009*B232^3-0.00000005</f>
       </c>
-      <c r="H232" s="13"/>
+      <c r="H232" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="1"/>
-      <c r="B233" s="14">
+      <c r="B233" s="15">
         <v>232</v>
       </c>
-      <c r="C233" s="14">
+      <c r="C233" s="15">
         <f>B233^4</f>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="16">
         <f>0.000000001*B283^4</f>
       </c>
       <c r="E233" s="1"/>
-      <c r="F233" s="15">
+      <c r="F233" s="16">
         <f>-0.000000003*B233^4-0.00000003*B233^3+0.0001*B233^2+0.0123*B233</f>
       </c>
-      <c r="G233" s="15">
+      <c r="G233" s="16">
         <f>0.000000001*B283^4-0.00000009*B233^3-0.00000005</f>
       </c>
-      <c r="H233" s="13"/>
+      <c r="H233" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="1"/>
-      <c r="B234" s="14">
+      <c r="B234" s="15">
         <v>233</v>
       </c>
-      <c r="C234" s="14">
+      <c r="C234" s="15">
         <f>B234^4</f>
       </c>
-      <c r="D234" s="15">
+      <c r="D234" s="16">
         <f>0.000000001*B284^4</f>
       </c>
       <c r="E234" s="1"/>
-      <c r="F234" s="15">
+      <c r="F234" s="16">
         <f>-0.000000003*B234^4-0.00000003*B234^3+0.0001*B234^2+0.0123*B234</f>
       </c>
-      <c r="G234" s="15">
+      <c r="G234" s="16">
         <f>0.000000001*B284^4-0.00000009*B234^3-0.00000005</f>
       </c>
-      <c r="H234" s="13"/>
+      <c r="H234" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="1"/>
-      <c r="B235" s="14">
+      <c r="B235" s="15">
         <v>234</v>
       </c>
-      <c r="C235" s="14">
+      <c r="C235" s="15">
         <f>B235^4</f>
       </c>
-      <c r="D235" s="15">
+      <c r="D235" s="16">
         <f>0.000000001*B285^4</f>
       </c>
       <c r="E235" s="1"/>
-      <c r="F235" s="15">
+      <c r="F235" s="16">
         <f>-0.000000003*B235^4-0.00000003*B235^3+0.0001*B235^2+0.0123*B235</f>
       </c>
-      <c r="G235" s="15">
+      <c r="G235" s="16">
         <f>0.000000001*B285^4-0.00000009*B235^3-0.00000005</f>
       </c>
-      <c r="H235" s="13"/>
+      <c r="H235" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="1"/>
-      <c r="B236" s="14">
+      <c r="B236" s="15">
         <v>235</v>
       </c>
-      <c r="C236" s="14">
+      <c r="C236" s="15">
         <f>B236^4</f>
       </c>
-      <c r="D236" s="15">
+      <c r="D236" s="16">
         <f>0.000000001*B286^4</f>
       </c>
       <c r="E236" s="1"/>
-      <c r="F236" s="15">
+      <c r="F236" s="16">
         <f>-0.000000003*B236^4-0.00000003*B236^3+0.0001*B236^2+0.0123*B236</f>
       </c>
-      <c r="G236" s="15">
+      <c r="G236" s="16">
         <f>0.000000001*B286^4-0.00000009*B236^3-0.00000005</f>
       </c>
-      <c r="H236" s="13"/>
+      <c r="H236" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="1"/>
-      <c r="B237" s="14">
+      <c r="B237" s="15">
         <v>236</v>
       </c>
-      <c r="C237" s="14">
+      <c r="C237" s="15">
         <f>B237^4</f>
       </c>
-      <c r="D237" s="15">
+      <c r="D237" s="16">
         <f>0.000000001*B287^4</f>
       </c>
       <c r="E237" s="1"/>
-      <c r="F237" s="15">
+      <c r="F237" s="16">
         <f>-0.000000003*B237^4-0.00000003*B237^3+0.0001*B237^2+0.0123*B237</f>
       </c>
-      <c r="G237" s="15">
+      <c r="G237" s="16">
         <f>0.000000001*B287^4-0.00000009*B237^3-0.00000005</f>
       </c>
-      <c r="H237" s="13"/>
+      <c r="H237" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="1"/>
-      <c r="B238" s="14">
+      <c r="B238" s="15">
         <v>237</v>
       </c>
-      <c r="C238" s="14">
+      <c r="C238" s="15">
         <f>B238^4</f>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="16">
         <f>0.000000001*B288^4</f>
       </c>
       <c r="E238" s="1"/>
-      <c r="F238" s="15">
+      <c r="F238" s="16">
         <f>-0.000000003*B238^4-0.00000003*B238^3+0.0001*B238^2+0.0123*B238</f>
       </c>
-      <c r="G238" s="15">
+      <c r="G238" s="16">
         <f>0.000000001*B288^4-0.00000009*B238^3-0.00000005</f>
       </c>
-      <c r="H238" s="13"/>
+      <c r="H238" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="1"/>
-      <c r="B239" s="14">
+      <c r="B239" s="15">
         <v>238</v>
       </c>
-      <c r="C239" s="14">
+      <c r="C239" s="15">
         <f>B239^4</f>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="16">
         <f>0.000000001*B289^4</f>
       </c>
       <c r="E239" s="1"/>
-      <c r="F239" s="15">
+      <c r="F239" s="16">
         <f>-0.000000003*B239^4-0.00000003*B239^3+0.0001*B239^2+0.0123*B239</f>
       </c>
-      <c r="G239" s="15">
+      <c r="G239" s="16">
         <f>0.000000001*B289^4-0.00000009*B239^3-0.00000005</f>
       </c>
-      <c r="H239" s="13"/>
+      <c r="H239" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="1"/>
-      <c r="B240" s="14">
+      <c r="B240" s="15">
         <v>239</v>
       </c>
-      <c r="C240" s="14">
+      <c r="C240" s="15">
         <f>B240^4</f>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="16">
         <f>0.000000001*B290^4</f>
       </c>
       <c r="E240" s="1"/>
-      <c r="F240" s="15">
+      <c r="F240" s="16">
         <f>-0.000000003*B240^4-0.00000003*B240^3+0.0001*B240^2+0.0123*B240</f>
       </c>
-      <c r="G240" s="15">
+      <c r="G240" s="16">
         <f>0.000000001*B290^4-0.00000009*B240^3-0.00000005</f>
       </c>
-      <c r="H240" s="13"/>
+      <c r="H240" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="1"/>
-      <c r="B241" s="14">
+      <c r="B241" s="15">
         <v>240</v>
       </c>
-      <c r="C241" s="14">
+      <c r="C241" s="15">
         <f>B241^4</f>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="16">
         <f>0.000000001*B291^4</f>
       </c>
       <c r="E241" s="1"/>
-      <c r="F241" s="15">
+      <c r="F241" s="16">
         <f>-0.000000003*B241^4-0.00000003*B241^3+0.0001*B241^2+0.0123*B241</f>
       </c>
-      <c r="G241" s="15">
+      <c r="G241" s="16">
         <f>0.000000001*B291^4-0.00000009*B241^3-0.00000005</f>
       </c>
-      <c r="H241" s="13"/>
+      <c r="H241" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="1"/>
-      <c r="B242" s="14">
+      <c r="B242" s="15">
         <v>241</v>
       </c>
-      <c r="C242" s="14">
+      <c r="C242" s="15">
         <f>B242^4</f>
       </c>
-      <c r="D242" s="15">
+      <c r="D242" s="16">
         <f>0.000000001*B292^4</f>
       </c>
       <c r="E242" s="1"/>
-      <c r="F242" s="15">
+      <c r="F242" s="16">
         <f>-0.000000003*B242^4-0.00000003*B242^3+0.0001*B242^2+0.0123*B242</f>
       </c>
-      <c r="G242" s="15">
+      <c r="G242" s="16">
         <f>0.000000001*B292^4-0.00000009*B242^3-0.00000005</f>
       </c>
-      <c r="H242" s="13"/>
+      <c r="H242" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="1"/>
-      <c r="B243" s="14">
+      <c r="B243" s="15">
         <v>242</v>
       </c>
-      <c r="C243" s="14">
+      <c r="C243" s="15">
         <f>B243^4</f>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="16">
         <f>0.000000001*B293^4</f>
       </c>
       <c r="E243" s="1"/>
-      <c r="F243" s="15">
+      <c r="F243" s="16">
         <f>-0.000000003*B243^4-0.00000003*B243^3+0.0001*B243^2+0.0123*B243</f>
       </c>
-      <c r="G243" s="15">
+      <c r="G243" s="16">
         <f>0.000000001*B293^4-0.00000009*B243^3-0.00000005</f>
       </c>
-      <c r="H243" s="13"/>
+      <c r="H243" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="1"/>
-      <c r="B244" s="14">
+      <c r="B244" s="15">
         <v>243</v>
       </c>
-      <c r="C244" s="14">
+      <c r="C244" s="15">
         <f>B244^4</f>
       </c>
-      <c r="D244" s="15">
+      <c r="D244" s="16">
         <f>0.000000001*B294^4</f>
       </c>
       <c r="E244" s="1"/>
-      <c r="F244" s="15">
+      <c r="F244" s="16">
         <f>-0.000000003*B244^4-0.00000003*B244^3+0.0001*B244^2+0.0123*B244</f>
       </c>
-      <c r="G244" s="15">
+      <c r="G244" s="16">
         <f>0.000000001*B294^4-0.00000009*B244^3-0.00000005</f>
       </c>
-      <c r="H244" s="13"/>
+      <c r="H244" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="1"/>
-      <c r="B245" s="14">
+      <c r="B245" s="15">
         <v>244</v>
       </c>
-      <c r="C245" s="14">
+      <c r="C245" s="15">
         <f>B245^4</f>
       </c>
-      <c r="D245" s="15">
+      <c r="D245" s="16">
         <f>0.000000001*B295^4</f>
       </c>
       <c r="E245" s="1"/>
-      <c r="F245" s="15">
+      <c r="F245" s="16">
         <f>-0.000000003*B245^4-0.00000003*B245^3+0.0001*B245^2+0.0123*B245</f>
       </c>
-      <c r="G245" s="15">
+      <c r="G245" s="16">
         <f>0.000000001*B295^4-0.00000009*B245^3-0.00000005</f>
       </c>
-      <c r="H245" s="13"/>
+      <c r="H245" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="1"/>
-      <c r="B246" s="14">
+      <c r="B246" s="15">
         <v>245</v>
       </c>
-      <c r="C246" s="14">
+      <c r="C246" s="15">
         <f>B246^4</f>
       </c>
-      <c r="D246" s="15">
+      <c r="D246" s="16">
         <f>0.000000001*B296^4</f>
       </c>
       <c r="E246" s="1"/>
-      <c r="F246" s="15">
+      <c r="F246" s="16">
         <f>-0.000000003*B246^4-0.00000003*B246^3+0.0001*B246^2+0.0123*B246</f>
       </c>
-      <c r="G246" s="15">
+      <c r="G246" s="16">
         <f>0.000000001*B296^4-0.00000009*B246^3-0.00000005</f>
       </c>
-      <c r="H246" s="13"/>
+      <c r="H246" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="1"/>
-      <c r="B247" s="14">
+      <c r="B247" s="15">
         <v>246</v>
       </c>
-      <c r="C247" s="14">
+      <c r="C247" s="15">
         <f>B247^4</f>
       </c>
-      <c r="D247" s="15">
+      <c r="D247" s="16">
         <f>0.000000001*B297^4</f>
       </c>
       <c r="E247" s="1"/>
-      <c r="F247" s="15">
+      <c r="F247" s="16">
         <f>-0.000000003*B247^4-0.00000003*B247^3+0.0001*B247^2+0.0123*B247</f>
       </c>
-      <c r="G247" s="15">
+      <c r="G247" s="16">
         <f>0.000000001*B297^4-0.00000009*B247^3-0.00000005</f>
       </c>
-      <c r="H247" s="13"/>
+      <c r="H247" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="1"/>
-      <c r="B248" s="14">
+      <c r="B248" s="15">
         <v>247</v>
       </c>
-      <c r="C248" s="14">
+      <c r="C248" s="15">
         <f>B248^4</f>
       </c>
-      <c r="D248" s="15">
+      <c r="D248" s="16">
         <f>0.000000001*B298^4</f>
       </c>
       <c r="E248" s="1"/>
-      <c r="F248" s="15">
+      <c r="F248" s="16">
         <f>-0.000000003*B248^4-0.00000003*B248^3+0.0001*B248^2+0.0123*B248</f>
       </c>
-      <c r="G248" s="15">
+      <c r="G248" s="16">
         <f>0.000000001*B298^4-0.00000009*B248^3-0.00000005</f>
       </c>
-      <c r="H248" s="13"/>
+      <c r="H248" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="1"/>
-      <c r="B249" s="14">
+      <c r="B249" s="15">
         <v>248</v>
       </c>
-      <c r="C249" s="14">
+      <c r="C249" s="15">
         <f>B249^4</f>
       </c>
-      <c r="D249" s="15">
+      <c r="D249" s="16">
         <f>0.000000001*B299^4</f>
       </c>
       <c r="E249" s="1"/>
-      <c r="F249" s="15">
+      <c r="F249" s="16">
         <f>-0.000000003*B249^4-0.00000003*B249^3+0.0001*B249^2+0.0123*B249</f>
       </c>
-      <c r="G249" s="15">
+      <c r="G249" s="16">
         <f>0.000000001*B299^4-0.00000009*B249^3-0.00000005</f>
       </c>
-      <c r="H249" s="13"/>
+      <c r="H249" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="1"/>
-      <c r="B250" s="14">
+      <c r="B250" s="15">
         <v>249</v>
       </c>
-      <c r="C250" s="14">
+      <c r="C250" s="15">
         <f>B250^4</f>
       </c>
-      <c r="D250" s="15">
+      <c r="D250" s="16">
         <f>0.000000001*B300^4</f>
       </c>
       <c r="E250" s="1"/>
-      <c r="F250" s="15">
+      <c r="F250" s="16">
         <f>-0.000000003*B250^4-0.00000003*B250^3+0.0001*B250^2+0.0123*B250</f>
       </c>
-      <c r="G250" s="15">
+      <c r="G250" s="16">
         <f>0.000000001*B300^4-0.00000009*B250^3-0.00000005</f>
       </c>
-      <c r="H250" s="13"/>
+      <c r="H250" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="1"/>
-      <c r="B251" s="14">
+      <c r="B251" s="15">
         <v>250</v>
       </c>
-      <c r="C251" s="14">
+      <c r="C251" s="15">
         <f>B251^4</f>
       </c>
-      <c r="D251" s="15">
+      <c r="D251" s="16">
         <f>0.000000001*B301^4</f>
       </c>
       <c r="E251" s="1"/>
-      <c r="F251" s="15">
+      <c r="F251" s="16">
         <f>-0.000000003*B251^4-0.00000003*B251^3+0.0001*B251^2+0.0123*B251</f>
       </c>
-      <c r="G251" s="15">
+      <c r="G251" s="16">
         <f>0.000000001*B301^4-0.00000009*B251^3-0.00000005</f>
       </c>
-      <c r="H251" s="13"/>
+      <c r="H251" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="1"/>
-      <c r="B252" s="14">
+      <c r="B252" s="15">
         <v>251</v>
       </c>
-      <c r="C252" s="14">
+      <c r="C252" s="15">
         <f>B252^4</f>
       </c>
-      <c r="D252" s="14">
+      <c r="D252" s="15">
         <f>0.000000001*B302^4</f>
       </c>
       <c r="E252" s="1"/>
-      <c r="F252" s="15">
+      <c r="F252" s="16">
         <f>-0.000000003*B252^4-0.00000003*B252^3+0.0001*B252^2+0.0123*B252</f>
       </c>
-      <c r="G252" s="15">
+      <c r="G252" s="16">
         <f>0.000000001*B302^4-0.00000009*B252^3-0.00000005</f>
       </c>
-      <c r="H252" s="13"/>
+      <c r="H252" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="1"/>
-      <c r="B253" s="14">
+      <c r="B253" s="15">
         <v>252</v>
       </c>
-      <c r="C253" s="14">
+      <c r="C253" s="15">
         <f>B253^4</f>
       </c>
-      <c r="D253" s="14">
+      <c r="D253" s="15">
         <f>0.000000001*B303^4</f>
       </c>
       <c r="E253" s="1"/>
-      <c r="F253" s="15">
+      <c r="F253" s="16">
         <f>-0.000000003*B253^4-0.00000003*B253^3+0.0001*B253^2+0.0123*B253</f>
       </c>
-      <c r="G253" s="15">
+      <c r="G253" s="16">
         <f>0.000000001*B303^4-0.00000009*B253^3-0.00000005</f>
       </c>
-      <c r="H253" s="13"/>
+      <c r="H253" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="1"/>
-      <c r="B254" s="14">
+      <c r="B254" s="15">
         <v>253</v>
       </c>
-      <c r="C254" s="14">
+      <c r="C254" s="15">
         <f>B254^4</f>
       </c>
-      <c r="D254" s="14">
+      <c r="D254" s="15">
         <f>0.000000001*B304^4</f>
       </c>
       <c r="E254" s="1"/>
-      <c r="F254" s="15">
+      <c r="F254" s="16">
         <f>-0.000000003*B254^4-0.00000003*B254^3+0.0001*B254^2+0.0123*B254</f>
       </c>
-      <c r="G254" s="15">
+      <c r="G254" s="16">
         <f>0.000000001*B304^4-0.00000009*B254^3-0.00000005</f>
       </c>
-      <c r="H254" s="13"/>
+      <c r="H254" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="1"/>
-      <c r="B255" s="14">
+      <c r="B255" s="15">
         <v>254</v>
       </c>
-      <c r="C255" s="14">
+      <c r="C255" s="15">
         <f>B255^4</f>
       </c>
-      <c r="D255" s="14">
+      <c r="D255" s="15">
         <f>0.000000001*B305^4</f>
       </c>
       <c r="E255" s="1"/>
-      <c r="F255" s="15">
+      <c r="F255" s="16">
         <f>-0.000000003*B255^4-0.00000003*B255^3+0.0001*B255^2+0.0123*B255</f>
       </c>
-      <c r="G255" s="15">
+      <c r="G255" s="16">
         <f>0.000000001*B305^4-0.00000009*B255^3-0.00000005</f>
       </c>
-      <c r="H255" s="13"/>
+      <c r="H255" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="1"/>
-      <c r="B256" s="14">
+      <c r="B256" s="15">
         <v>255</v>
       </c>
-      <c r="C256" s="14">
+      <c r="C256" s="15">
         <f>B256^4</f>
       </c>
-      <c r="D256" s="14">
+      <c r="D256" s="15">
         <f>0.000000001*B306^4</f>
       </c>
       <c r="E256" s="1"/>
-      <c r="F256" s="15">
+      <c r="F256" s="16">
         <f>-0.000000003*B256^4-0.00000003*B256^3+0.0001*B256^2+0.0123*B256</f>
       </c>
-      <c r="G256" s="15">
+      <c r="G256" s="16">
         <f>0.000000001*B306^4-0.00000009*B256^3-0.00000005</f>
       </c>
-      <c r="H256" s="13"/>
+      <c r="H256" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="1"/>
-      <c r="B257" s="14">
+      <c r="B257" s="15">
         <v>256</v>
       </c>
-      <c r="C257" s="14">
+      <c r="C257" s="15">
         <f>B257^4</f>
       </c>
-      <c r="D257" s="14">
+      <c r="D257" s="15">
         <f>0.000000001*B307^4</f>
       </c>
       <c r="E257" s="1"/>
-      <c r="F257" s="15">
+      <c r="F257" s="16">
         <f>-0.000000003*B257^4-0.00000003*B257^3+0.0001*B257^2+0.0123*B257</f>
       </c>
-      <c r="G257" s="15">
+      <c r="G257" s="16">
         <f>0.000000001*B307^4-0.00000009*B257^3-0.00000005</f>
       </c>
-      <c r="H257" s="13"/>
+      <c r="H257" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="1"/>
-      <c r="B258" s="14">
+      <c r="B258" s="15">
         <v>257</v>
       </c>
-      <c r="C258" s="14">
+      <c r="C258" s="15">
         <f>B258^4</f>
       </c>
-      <c r="D258" s="14">
+      <c r="D258" s="15">
         <f>0.000000001*B308^4</f>
       </c>
       <c r="E258" s="1"/>
-      <c r="F258" s="15">
+      <c r="F258" s="16">
         <f>-0.000000003*B258^4-0.00000003*B258^3+0.0001*B258^2+0.0123*B258</f>
       </c>
-      <c r="G258" s="15">
+      <c r="G258" s="16">
         <f>0.000000001*B308^4-0.00000009*B258^3-0.00000005</f>
       </c>
-      <c r="H258" s="13"/>
+      <c r="H258" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="1"/>
-      <c r="B259" s="14">
+      <c r="B259" s="15">
         <v>258</v>
       </c>
-      <c r="C259" s="14">
+      <c r="C259" s="15">
         <f>B259^4</f>
       </c>
-      <c r="D259" s="14">
+      <c r="D259" s="15">
         <f>0.000000001*B309^4</f>
       </c>
       <c r="E259" s="1"/>
-      <c r="F259" s="15">
+      <c r="F259" s="16">
         <f>-0.000000003*B259^4-0.00000003*B259^3+0.0001*B259^2+0.0123*B259</f>
       </c>
-      <c r="G259" s="15">
+      <c r="G259" s="16">
         <f>0.000000001*B309^4-0.00000009*B259^3-0.00000005</f>
       </c>
-      <c r="H259" s="13"/>
+      <c r="H259" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="1"/>
-      <c r="B260" s="14">
+      <c r="B260" s="15">
         <v>259</v>
       </c>
-      <c r="C260" s="14">
+      <c r="C260" s="15">
         <f>B260^4</f>
       </c>
-      <c r="D260" s="14">
+      <c r="D260" s="15">
         <f>0.000000001*B310^4</f>
       </c>
       <c r="E260" s="1"/>
-      <c r="F260" s="15">
+      <c r="F260" s="16">
         <f>-0.000000003*B260^4-0.00000003*B260^3+0.0001*B260^2+0.0123*B260</f>
       </c>
-      <c r="G260" s="15">
+      <c r="G260" s="16">
         <f>0.000000001*B310^4-0.00000009*B260^3-0.00000005</f>
       </c>
-      <c r="H260" s="13"/>
+      <c r="H260" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="1"/>
-      <c r="B261" s="14">
+      <c r="B261" s="15">
         <v>260</v>
       </c>
-      <c r="C261" s="14">
+      <c r="C261" s="15">
         <f>B261^4</f>
       </c>
-      <c r="D261" s="14">
+      <c r="D261" s="15">
         <f>0.000000001*B311^4</f>
       </c>
       <c r="E261" s="1"/>
-      <c r="F261" s="15">
+      <c r="F261" s="16">
         <f>-0.000000003*B261^4-0.00000003*B261^3+0.0001*B261^2+0.0123*B261</f>
       </c>
-      <c r="G261" s="15">
+      <c r="G261" s="16">
         <f>0.000000001*B311^4-0.00000009*B261^3-0.00000005</f>
       </c>
-      <c r="H261" s="13"/>
+      <c r="H261" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="1"/>
-      <c r="B262" s="14">
+      <c r="B262" s="15">
         <v>261</v>
       </c>
-      <c r="C262" s="14">
+      <c r="C262" s="15">
         <f>B262^4</f>
       </c>
-      <c r="D262" s="14">
+      <c r="D262" s="15">
         <f>0.000000001*B312^4</f>
       </c>
       <c r="E262" s="1"/>
-      <c r="F262" s="15">
+      <c r="F262" s="16">
         <f>-0.000000003*B262^4-0.00000003*B262^3+0.0001*B262^2+0.0123*B262</f>
       </c>
-      <c r="G262" s="15">
+      <c r="G262" s="16">
         <f>0.000000001*B312^4-0.00000009*B262^3-0.00000005</f>
       </c>
-      <c r="H262" s="13"/>
+      <c r="H262" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="1"/>
-      <c r="B263" s="14">
+      <c r="B263" s="15">
         <v>262</v>
       </c>
-      <c r="C263" s="14">
+      <c r="C263" s="15">
         <f>B263^4</f>
       </c>
-      <c r="D263" s="14">
+      <c r="D263" s="15">
         <f>0.000000001*B313^4</f>
       </c>
       <c r="E263" s="1"/>
-      <c r="F263" s="15">
+      <c r="F263" s="16">
         <f>-0.000000003*B263^4-0.00000003*B263^3+0.0001*B263^2+0.0123*B263</f>
       </c>
-      <c r="G263" s="15">
+      <c r="G263" s="16">
         <f>0.000000001*B313^4-0.00000009*B263^3-0.00000005</f>
       </c>
-      <c r="H263" s="13"/>
+      <c r="H263" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="1"/>
-      <c r="B264" s="14">
+      <c r="B264" s="15">
         <v>263</v>
       </c>
-      <c r="C264" s="14">
+      <c r="C264" s="15">
         <f>B264^4</f>
       </c>
-      <c r="D264" s="14">
+      <c r="D264" s="15">
         <f>0.000000001*B314^4</f>
       </c>
       <c r="E264" s="1"/>
-      <c r="F264" s="15">
+      <c r="F264" s="16">
         <f>-0.000000003*B264^4-0.00000003*B264^3+0.0001*B264^2+0.0123*B264</f>
       </c>
-      <c r="G264" s="15">
+      <c r="G264" s="16">
         <f>0.000000001*B314^4-0.00000009*B264^3-0.00000005</f>
       </c>
-      <c r="H264" s="13"/>
+      <c r="H264" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="1"/>
-      <c r="B265" s="14">
+      <c r="B265" s="15">
         <v>264</v>
       </c>
-      <c r="C265" s="14">
+      <c r="C265" s="15">
         <f>B265^4</f>
       </c>
-      <c r="D265" s="14">
+      <c r="D265" s="15">
         <f>0.000000001*B315^4</f>
       </c>
       <c r="E265" s="1"/>
-      <c r="F265" s="15">
+      <c r="F265" s="16">
         <f>-0.000000003*B265^4-0.00000003*B265^3+0.0001*B265^2+0.0123*B265</f>
       </c>
-      <c r="G265" s="15">
+      <c r="G265" s="16">
         <f>0.000000001*B315^4-0.00000009*B265^3-0.00000005</f>
       </c>
-      <c r="H265" s="13"/>
+      <c r="H265" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="1"/>
-      <c r="B266" s="14">
+      <c r="B266" s="15">
         <v>265</v>
       </c>
-      <c r="C266" s="14">
+      <c r="C266" s="15">
         <f>B266^4</f>
       </c>
-      <c r="D266" s="14">
+      <c r="D266" s="15">
         <f>0.000000001*B316^4</f>
       </c>
       <c r="E266" s="1"/>
-      <c r="F266" s="15">
+      <c r="F266" s="16">
         <f>-0.000000003*B266^4-0.00000003*B266^3+0.0001*B266^2+0.0123*B266</f>
       </c>
-      <c r="G266" s="15">
+      <c r="G266" s="16">
         <f>0.000000001*B316^4-0.00000009*B266^3-0.00000005</f>
       </c>
-      <c r="H266" s="13"/>
+      <c r="H266" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="1"/>
-      <c r="B267" s="14">
+      <c r="B267" s="15">
         <v>266</v>
       </c>
-      <c r="C267" s="14">
+      <c r="C267" s="15">
         <f>B267^4</f>
       </c>
-      <c r="D267" s="14">
+      <c r="D267" s="15">
         <f>0.000000001*B317^4</f>
       </c>
       <c r="E267" s="1"/>
-      <c r="F267" s="15">
+      <c r="F267" s="16">
         <f>-0.000000003*B267^4-0.00000003*B267^3+0.0001*B267^2+0.0123*B267</f>
       </c>
-      <c r="G267" s="15">
+      <c r="G267" s="16">
         <f>0.000000001*B317^4-0.00000009*B267^3-0.00000005</f>
       </c>
-      <c r="H267" s="13"/>
+      <c r="H267" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="1"/>
-      <c r="B268" s="14">
+      <c r="B268" s="15">
         <v>267</v>
       </c>
-      <c r="C268" s="14">
+      <c r="C268" s="15">
         <f>B268^4</f>
       </c>
-      <c r="D268" s="14">
+      <c r="D268" s="15">
         <f>0.000000001*B318^4</f>
       </c>
       <c r="E268" s="1"/>
-      <c r="F268" s="15">
+      <c r="F268" s="16">
         <f>-0.000000003*B268^4-0.00000003*B268^3+0.0001*B268^2+0.0123*B268</f>
       </c>
-      <c r="G268" s="15">
+      <c r="G268" s="16">
         <f>0.000000001*B318^4-0.00000009*B268^3-0.00000005</f>
       </c>
-      <c r="H268" s="13"/>
+      <c r="H268" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="1"/>
-      <c r="B269" s="14">
+      <c r="B269" s="15">
         <v>268</v>
       </c>
-      <c r="C269" s="14">
+      <c r="C269" s="15">
         <f>B269^4</f>
       </c>
-      <c r="D269" s="14">
+      <c r="D269" s="15">
         <f>0.000000001*B319^4</f>
       </c>
       <c r="E269" s="1"/>
-      <c r="F269" s="15">
+      <c r="F269" s="16">
         <f>-0.000000003*B269^4-0.00000003*B269^3+0.0001*B269^2+0.0123*B269</f>
       </c>
-      <c r="G269" s="15">
+      <c r="G269" s="16">
         <f>0.000000001*B319^4-0.00000009*B269^3-0.00000005</f>
       </c>
-      <c r="H269" s="13"/>
+      <c r="H269" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="1"/>
-      <c r="B270" s="14">
+      <c r="B270" s="15">
         <v>269</v>
       </c>
-      <c r="C270" s="14">
+      <c r="C270" s="15">
         <f>B270^4</f>
       </c>
-      <c r="D270" s="14">
+      <c r="D270" s="15">
         <f>0.000000001*B320^4</f>
       </c>
       <c r="E270" s="1"/>
-      <c r="F270" s="15">
+      <c r="F270" s="16">
         <f>-0.000000003*B270^4-0.00000003*B270^3+0.0001*B270^2+0.0123*B270</f>
       </c>
-      <c r="G270" s="15">
+      <c r="G270" s="16">
         <f>0.000000001*B320^4-0.00000009*B270^3-0.00000005</f>
       </c>
-      <c r="H270" s="13"/>
+      <c r="H270" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="1"/>
-      <c r="B271" s="14">
+      <c r="B271" s="15">
         <v>270</v>
       </c>
-      <c r="C271" s="14">
+      <c r="C271" s="15">
         <f>B271^4</f>
       </c>
-      <c r="D271" s="14">
+      <c r="D271" s="15">
         <f>0.000000001*B321^4</f>
       </c>
       <c r="E271" s="1"/>
-      <c r="F271" s="15">
+      <c r="F271" s="16">
         <f>-0.000000003*B271^4-0.00000003*B271^3+0.0001*B271^2+0.0123*B271</f>
       </c>
-      <c r="G271" s="15">
+      <c r="G271" s="16">
         <f>0.000000001*B321^4-0.00000009*B271^3-0.00000005</f>
       </c>
-      <c r="H271" s="13"/>
+      <c r="H271" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="1"/>
-      <c r="B272" s="14">
+      <c r="B272" s="15">
         <v>271</v>
       </c>
-      <c r="C272" s="14">
+      <c r="C272" s="15">
         <f>B272^4</f>
       </c>
-      <c r="D272" s="14">
+      <c r="D272" s="15">
         <f>0.000000001*B322^4</f>
       </c>
       <c r="E272" s="1"/>
-      <c r="F272" s="15">
+      <c r="F272" s="16">
         <f>-0.000000003*B272^4-0.00000003*B272^3+0.0001*B272^2+0.0123*B272</f>
       </c>
-      <c r="G272" s="15">
+      <c r="G272" s="16">
         <f>0.000000001*B322^4-0.00000009*B272^3-0.00000005</f>
       </c>
-      <c r="H272" s="13"/>
+      <c r="H272" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="1"/>
-      <c r="B273" s="14">
+      <c r="B273" s="15">
         <v>272</v>
       </c>
-      <c r="C273" s="14">
+      <c r="C273" s="15">
         <f>B273^4</f>
       </c>
-      <c r="D273" s="14">
+      <c r="D273" s="15">
         <f>0.000000001*B323^4</f>
       </c>
       <c r="E273" s="1"/>
-      <c r="F273" s="15">
+      <c r="F273" s="16">
         <f>-0.000000003*B273^4-0.00000003*B273^3+0.0001*B273^2+0.0123*B273</f>
       </c>
-      <c r="G273" s="15">
+      <c r="G273" s="16">
         <f>0.000000001*B323^4-0.00000009*B273^3-0.00000005</f>
       </c>
-      <c r="H273" s="13"/>
+      <c r="H273" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="1"/>
-      <c r="B274" s="14">
+      <c r="B274" s="15">
         <v>273</v>
       </c>
-      <c r="C274" s="14">
+      <c r="C274" s="15">
         <f>B274^4</f>
       </c>
-      <c r="D274" s="14">
+      <c r="D274" s="15">
         <f>0.000000001*B324^4</f>
       </c>
       <c r="E274" s="1"/>
-      <c r="F274" s="15">
+      <c r="F274" s="16">
         <f>-0.000000003*B274^4-0.00000003*B274^3+0.0001*B274^2+0.0123*B274</f>
       </c>
-      <c r="G274" s="15">
+      <c r="G274" s="16">
         <f>0.000000001*B324^4-0.00000009*B274^3-0.00000005</f>
       </c>
-      <c r="H274" s="13"/>
+      <c r="H274" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="1"/>
-      <c r="B275" s="14">
+      <c r="B275" s="15">
         <v>274</v>
       </c>
-      <c r="C275" s="14">
+      <c r="C275" s="15">
         <f>B275^4</f>
       </c>
-      <c r="D275" s="14">
+      <c r="D275" s="15">
         <f>0.000000001*B325^4</f>
       </c>
       <c r="E275" s="1"/>
-      <c r="F275" s="15">
+      <c r="F275" s="16">
         <f>-0.000000003*B275^4-0.00000003*B275^3+0.0001*B275^2+0.0123*B275</f>
       </c>
-      <c r="G275" s="15">
+      <c r="G275" s="16">
         <f>0.000000001*B325^4-0.00000009*B275^3-0.00000005</f>
       </c>
-      <c r="H275" s="13"/>
+      <c r="H275" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="1"/>
-      <c r="B276" s="14">
+      <c r="B276" s="15">
         <v>275</v>
       </c>
-      <c r="C276" s="14">
+      <c r="C276" s="15">
         <f>B276^4</f>
       </c>
-      <c r="D276" s="14">
+      <c r="D276" s="15">
         <f>0.000000001*B326^4</f>
       </c>
       <c r="E276" s="1"/>
-      <c r="F276" s="15">
+      <c r="F276" s="16">
         <f>-0.000000003*B276^4-0.00000003*B276^3+0.0001*B276^2+0.0123*B276</f>
       </c>
-      <c r="G276" s="15">
+      <c r="G276" s="16">
         <f>0.000000001*B326^4-0.00000009*B276^3-0.00000005</f>
       </c>
-      <c r="H276" s="13"/>
+      <c r="H276" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="1"/>
-      <c r="B277" s="14">
+      <c r="B277" s="15">
         <v>276</v>
       </c>
-      <c r="C277" s="14">
+      <c r="C277" s="15">
         <f>B277^4</f>
       </c>
-      <c r="D277" s="14">
+      <c r="D277" s="15">
         <f>0.000000001*B327^4</f>
       </c>
       <c r="E277" s="1"/>
-      <c r="F277" s="15">
+      <c r="F277" s="16">
         <f>-0.000000003*B277^4-0.00000003*B277^3+0.0001*B277^2+0.0123*B277</f>
       </c>
-      <c r="G277" s="15">
+      <c r="G277" s="16">
         <f>0.000000001*B327^4-0.00000009*B277^3-0.00000005</f>
       </c>
-      <c r="H277" s="13"/>
+      <c r="H277" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="1"/>
-      <c r="B278" s="14">
+      <c r="B278" s="15">
         <v>277</v>
       </c>
-      <c r="C278" s="14">
+      <c r="C278" s="15">
         <f>B278^4</f>
       </c>
-      <c r="D278" s="14">
+      <c r="D278" s="15">
         <f>0.000000001*B328^4</f>
       </c>
       <c r="E278" s="1"/>
-      <c r="F278" s="15">
+      <c r="F278" s="16">
         <f>-0.000000003*B278^4-0.00000003*B278^3+0.0001*B278^2+0.0123*B278</f>
       </c>
-      <c r="G278" s="15">
+      <c r="G278" s="16">
         <f>0.000000001*B328^4-0.00000009*B278^3-0.00000005</f>
       </c>
-      <c r="H278" s="13"/>
+      <c r="H278" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="1"/>
-      <c r="B279" s="14">
+      <c r="B279" s="15">
         <v>278</v>
       </c>
-      <c r="C279" s="14">
+      <c r="C279" s="15">
         <f>B279^4</f>
       </c>
-      <c r="D279" s="14">
+      <c r="D279" s="15">
         <f>0.000000001*B329^4</f>
       </c>
       <c r="E279" s="1"/>
-      <c r="F279" s="15">
+      <c r="F279" s="16">
         <f>-0.000000003*B279^4-0.00000003*B279^3+0.0001*B279^2+0.0123*B279</f>
       </c>
-      <c r="G279" s="15">
+      <c r="G279" s="16">
         <f>0.000000001*B329^4-0.00000009*B279^3-0.00000005</f>
       </c>
-      <c r="H279" s="13"/>
+      <c r="H279" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="1"/>
-      <c r="B280" s="14">
+      <c r="B280" s="15">
         <v>279</v>
       </c>
-      <c r="C280" s="14">
+      <c r="C280" s="15">
         <f>B280^4</f>
       </c>
-      <c r="D280" s="14">
+      <c r="D280" s="15">
         <f>0.000000001*B330^4</f>
       </c>
       <c r="E280" s="1"/>
-      <c r="F280" s="15">
+      <c r="F280" s="16">
         <f>-0.000000003*B280^4-0.00000003*B280^3+0.0001*B280^2+0.0123*B280</f>
       </c>
-      <c r="G280" s="15">
+      <c r="G280" s="16">
         <f>0.000000001*B330^4-0.00000009*B280^3-0.00000005</f>
       </c>
-      <c r="H280" s="13"/>
+      <c r="H280" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="1"/>
-      <c r="B281" s="14">
+      <c r="B281" s="15">
         <v>280</v>
       </c>
-      <c r="C281" s="14">
+      <c r="C281" s="15">
         <f>B281^4</f>
       </c>
-      <c r="D281" s="14">
+      <c r="D281" s="15">
         <f>0.000000001*B331^4</f>
       </c>
       <c r="E281" s="1"/>
-      <c r="F281" s="15">
+      <c r="F281" s="16">
         <f>-0.000000003*B281^4-0.00000003*B281^3+0.0001*B281^2+0.0123*B281</f>
       </c>
-      <c r="G281" s="15">
+      <c r="G281" s="16">
         <f>0.000000001*B331^4-0.00000009*B281^3-0.00000005</f>
       </c>
-      <c r="H281" s="13"/>
+      <c r="H281" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
       <c r="A282" s="1"/>
-      <c r="B282" s="14">
+      <c r="B282" s="15">
         <v>281</v>
       </c>
-      <c r="C282" s="14">
+      <c r="C282" s="15">
         <f>B282^4</f>
       </c>
-      <c r="D282" s="14">
+      <c r="D282" s="15">
         <f>0.000000001*B332^4</f>
       </c>
       <c r="E282" s="1"/>
-      <c r="F282" s="15">
+      <c r="F282" s="16">
         <f>-0.000000003*B282^4-0.00000003*B282^3+0.0001*B282^2+0.0123*B282</f>
       </c>
-      <c r="G282" s="15">
+      <c r="G282" s="16">
         <f>0.000000001*B332^4-0.00000009*B282^3-0.00000005</f>
       </c>
-      <c r="H282" s="13"/>
+      <c r="H282" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
       <c r="A283" s="1"/>
-      <c r="B283" s="14">
+      <c r="B283" s="15">
         <v>282</v>
       </c>
-      <c r="C283" s="14">
+      <c r="C283" s="15">
         <f>B283^4</f>
       </c>
-      <c r="D283" s="14">
+      <c r="D283" s="15">
         <f>0.000000001*B333^4</f>
       </c>
       <c r="E283" s="1"/>
-      <c r="F283" s="15">
+      <c r="F283" s="16">
         <f>-0.000000003*B283^4-0.00000003*B283^3+0.0001*B283^2+0.0123*B283</f>
       </c>
-      <c r="G283" s="15">
+      <c r="G283" s="16">
         <f>0.000000001*B333^4-0.00000009*B283^3-0.00000005</f>
       </c>
-      <c r="H283" s="13"/>
+      <c r="H283" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
       <c r="A284" s="1"/>
-      <c r="B284" s="14">
+      <c r="B284" s="15">
         <v>283</v>
       </c>
-      <c r="C284" s="14">
+      <c r="C284" s="15">
         <f>B284^4</f>
       </c>
-      <c r="D284" s="14">
+      <c r="D284" s="15">
         <f>0.000000001*B334^4</f>
       </c>
       <c r="E284" s="1"/>
-      <c r="F284" s="15">
+      <c r="F284" s="16">
         <f>-0.000000003*B284^4-0.00000003*B284^3+0.0001*B284^2+0.0123*B284</f>
       </c>
-      <c r="G284" s="15">
+      <c r="G284" s="16">
         <f>0.000000001*B334^4-0.00000009*B284^3-0.00000005</f>
       </c>
-      <c r="H284" s="13"/>
+      <c r="H284" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
       <c r="A285" s="1"/>
-      <c r="B285" s="14">
+      <c r="B285" s="15">
         <v>284</v>
       </c>
-      <c r="C285" s="14">
+      <c r="C285" s="15">
         <f>B285^4</f>
       </c>
-      <c r="D285" s="14">
+      <c r="D285" s="15">
         <f>0.000000001*B335^4</f>
       </c>
       <c r="E285" s="1"/>
-      <c r="F285" s="15">
+      <c r="F285" s="16">
         <f>-0.000000003*B285^4-0.00000003*B285^3+0.0001*B285^2+0.0123*B285</f>
       </c>
-      <c r="G285" s="15">
+      <c r="G285" s="16">
         <f>0.000000001*B335^4-0.00000009*B285^3-0.00000005</f>
       </c>
-      <c r="H285" s="13"/>
+      <c r="H285" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
       <c r="A286" s="1"/>
-      <c r="B286" s="14">
+      <c r="B286" s="15">
         <v>285</v>
       </c>
-      <c r="C286" s="14">
+      <c r="C286" s="15">
         <f>B286^4</f>
       </c>
-      <c r="D286" s="14">
+      <c r="D286" s="15">
         <f>0.000000001*B336^4</f>
       </c>
       <c r="E286" s="1"/>
-      <c r="F286" s="15">
+      <c r="F286" s="16">
         <f>-0.000000003*B286^4-0.00000003*B286^3+0.0001*B286^2+0.0123*B286</f>
       </c>
-      <c r="G286" s="15">
+      <c r="G286" s="16">
         <f>0.000000001*B336^4-0.00000009*B286^3-0.00000005</f>
       </c>
-      <c r="H286" s="13"/>
+      <c r="H286" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
       <c r="A287" s="1"/>
-      <c r="B287" s="14">
+      <c r="B287" s="15">
         <v>286</v>
       </c>
-      <c r="C287" s="14">
+      <c r="C287" s="15">
         <f>B287^4</f>
       </c>
-      <c r="D287" s="14">
+      <c r="D287" s="15">
         <f>0.000000001*B337^4</f>
       </c>
       <c r="E287" s="1"/>
-      <c r="F287" s="15">
+      <c r="F287" s="16">
         <f>-0.000000003*B287^4-0.00000003*B287^3+0.0001*B287^2+0.0123*B287</f>
       </c>
-      <c r="G287" s="15">
+      <c r="G287" s="16">
         <f>0.000000001*B337^4-0.00000009*B287^3-0.00000005</f>
       </c>
-      <c r="H287" s="13"/>
+      <c r="H287" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
       <c r="A288" s="1"/>
-      <c r="B288" s="14">
+      <c r="B288" s="15">
         <v>287</v>
       </c>
-      <c r="C288" s="14">
+      <c r="C288" s="15">
         <f>B288^4</f>
       </c>
-      <c r="D288" s="14">
+      <c r="D288" s="15">
         <f>0.000000001*B338^4</f>
       </c>
       <c r="E288" s="1"/>
-      <c r="F288" s="15">
+      <c r="F288" s="16">
         <f>-0.000000003*B288^4-0.00000003*B288^3+0.0001*B288^2+0.0123*B288</f>
       </c>
-      <c r="G288" s="15">
+      <c r="G288" s="16">
         <f>0.000000001*B338^4-0.00000009*B288^3-0.00000005</f>
       </c>
-      <c r="H288" s="13"/>
+      <c r="H288" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
       <c r="A289" s="1"/>
-      <c r="B289" s="14">
+      <c r="B289" s="15">
         <v>288</v>
       </c>
-      <c r="C289" s="14">
+      <c r="C289" s="15">
         <f>B289^4</f>
       </c>
-      <c r="D289" s="14">
+      <c r="D289" s="15">
         <f>0.000000001*B339^4</f>
       </c>
       <c r="E289" s="1"/>
-      <c r="F289" s="15">
+      <c r="F289" s="16">
         <f>-0.000000003*B289^4-0.00000003*B289^3+0.0001*B289^2+0.0123*B289</f>
       </c>
-      <c r="G289" s="15">
+      <c r="G289" s="16">
         <f>0.000000001*B339^4-0.00000009*B289^3-0.00000005</f>
       </c>
-      <c r="H289" s="13"/>
+      <c r="H289" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
       <c r="A290" s="1"/>
-      <c r="B290" s="14">
+      <c r="B290" s="15">
         <v>289</v>
       </c>
-      <c r="C290" s="14">
+      <c r="C290" s="15">
         <f>B290^4</f>
       </c>
-      <c r="D290" s="14">
+      <c r="D290" s="15">
         <f>0.000000001*B340^4</f>
       </c>
       <c r="E290" s="1"/>
-      <c r="F290" s="15">
+      <c r="F290" s="16">
         <f>-0.000000003*B290^4-0.00000003*B290^3+0.0001*B290^2+0.0123*B290</f>
       </c>
-      <c r="G290" s="15">
+      <c r="G290" s="16">
         <f>0.000000001*B340^4-0.00000009*B290^3-0.00000005</f>
       </c>
-      <c r="H290" s="13"/>
+      <c r="H290" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
       <c r="A291" s="1"/>
-      <c r="B291" s="14">
+      <c r="B291" s="15">
         <v>290</v>
       </c>
-      <c r="C291" s="14">
+      <c r="C291" s="15">
         <f>B291^4</f>
       </c>
-      <c r="D291" s="14">
+      <c r="D291" s="15">
         <f>0.000000001*B341^4</f>
       </c>
       <c r="E291" s="1"/>
-      <c r="F291" s="15">
+      <c r="F291" s="16">
         <f>-0.000000003*B291^4-0.00000003*B291^3+0.0001*B291^2+0.0123*B291</f>
       </c>
-      <c r="G291" s="15">
+      <c r="G291" s="16">
         <f>0.000000001*B341^4-0.00000009*B291^3-0.00000005</f>
       </c>
-      <c r="H291" s="13"/>
+      <c r="H291" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
       <c r="A292" s="1"/>
-      <c r="B292" s="14">
+      <c r="B292" s="15">
         <v>291</v>
       </c>
-      <c r="C292" s="14">
+      <c r="C292" s="15">
         <f>B292^4</f>
       </c>
-      <c r="D292" s="14">
+      <c r="D292" s="15">
         <f>0.000000001*B342^4</f>
       </c>
       <c r="E292" s="1"/>
-      <c r="F292" s="15">
+      <c r="F292" s="16">
         <f>-0.000000003*B292^4-0.00000003*B292^3+0.0001*B292^2+0.0123*B292</f>
       </c>
-      <c r="G292" s="15">
+      <c r="G292" s="16">
         <f>0.000000001*B342^4-0.00000009*B292^3-0.00000005</f>
       </c>
-      <c r="H292" s="13"/>
+      <c r="H292" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
       <c r="A293" s="1"/>
-      <c r="B293" s="14">
+      <c r="B293" s="15">
         <v>292</v>
       </c>
-      <c r="C293" s="14">
+      <c r="C293" s="15">
         <f>B293^4</f>
       </c>
-      <c r="D293" s="14">
+      <c r="D293" s="15">
         <f>0.000000001*B343^4</f>
       </c>
       <c r="E293" s="1"/>
-      <c r="F293" s="15">
+      <c r="F293" s="16">
         <f>-0.000000003*B293^4-0.00000003*B293^3+0.0001*B293^2+0.0123*B293</f>
       </c>
-      <c r="G293" s="15">
+      <c r="G293" s="16">
         <f>0.000000001*B343^4-0.00000009*B293^3-0.00000005</f>
       </c>
-      <c r="H293" s="13"/>
+      <c r="H293" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
       <c r="A294" s="1"/>
-      <c r="B294" s="14">
+      <c r="B294" s="15">
         <v>293</v>
       </c>
-      <c r="C294" s="14">
+      <c r="C294" s="15">
         <f>B294^4</f>
       </c>
-      <c r="D294" s="14">
+      <c r="D294" s="15">
         <f>0.000000001*B344^4</f>
       </c>
       <c r="E294" s="1"/>
-      <c r="F294" s="15">
+      <c r="F294" s="16">
         <f>-0.000000003*B294^4-0.00000003*B294^3+0.0001*B294^2+0.0123*B294</f>
       </c>
-      <c r="G294" s="15">
+      <c r="G294" s="16">
         <f>0.000000001*B344^4-0.00000009*B294^3-0.00000005</f>
       </c>
-      <c r="H294" s="13"/>
+      <c r="H294" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
       <c r="A295" s="1"/>
-      <c r="B295" s="14">
+      <c r="B295" s="15">
         <v>294</v>
       </c>
-      <c r="C295" s="14">
+      <c r="C295" s="15">
         <f>B295^4</f>
       </c>
-      <c r="D295" s="14">
+      <c r="D295" s="15">
         <f>0.000000001*B345^4</f>
       </c>
       <c r="E295" s="1"/>
-      <c r="F295" s="15">
+      <c r="F295" s="16">
         <f>-0.000000003*B295^4-0.00000003*B295^3+0.0001*B295^2+0.0123*B295</f>
       </c>
-      <c r="G295" s="15">
+      <c r="G295" s="16">
         <f>0.000000001*B345^4-0.00000009*B295^3-0.00000005</f>
       </c>
-      <c r="H295" s="13"/>
+      <c r="H295" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
       <c r="A296" s="1"/>
-      <c r="B296" s="14">
+      <c r="B296" s="15">
         <v>295</v>
       </c>
-      <c r="C296" s="14">
+      <c r="C296" s="15">
         <f>B296^4</f>
       </c>
-      <c r="D296" s="14">
+      <c r="D296" s="15">
         <f>0.000000001*B346^4</f>
       </c>
       <c r="E296" s="1"/>
-      <c r="F296" s="15">
+      <c r="F296" s="16">
         <f>-0.000000003*B296^4-0.00000003*B296^3+0.0001*B296^2+0.0123*B296</f>
       </c>
-      <c r="G296" s="15">
+      <c r="G296" s="16">
         <f>0.000000001*B346^4-0.00000009*B296^3-0.00000005</f>
       </c>
-      <c r="H296" s="13"/>
+      <c r="H296" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
       <c r="A297" s="1"/>
-      <c r="B297" s="14">
+      <c r="B297" s="15">
         <v>296</v>
       </c>
-      <c r="C297" s="14">
+      <c r="C297" s="15">
         <f>B297^4</f>
       </c>
-      <c r="D297" s="14">
+      <c r="D297" s="15">
         <f>0.000000001*B347^4</f>
       </c>
       <c r="E297" s="1"/>
-      <c r="F297" s="15">
+      <c r="F297" s="16">
         <f>-0.000000003*B297^4-0.00000003*B297^3+0.0001*B297^2+0.0123*B297</f>
       </c>
-      <c r="G297" s="15">
+      <c r="G297" s="16">
         <f>0.000000001*B347^4-0.00000009*B297^3-0.00000005</f>
       </c>
-      <c r="H297" s="13"/>
+      <c r="H297" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
       <c r="A298" s="1"/>
-      <c r="B298" s="14">
+      <c r="B298" s="15">
         <v>297</v>
       </c>
-      <c r="C298" s="14">
+      <c r="C298" s="15">
         <f>B298^4</f>
       </c>
-      <c r="D298" s="14">
+      <c r="D298" s="15">
         <f>0.000000001*B348^4</f>
       </c>
       <c r="E298" s="1"/>
-      <c r="F298" s="15">
+      <c r="F298" s="16">
         <f>-0.000000003*B298^4-0.00000003*B298^3+0.0001*B298^2+0.0123*B298</f>
       </c>
-      <c r="G298" s="15">
+      <c r="G298" s="16">
         <f>0.000000001*B348^4-0.00000009*B298^3-0.00000005</f>
       </c>
-      <c r="H298" s="13"/>
+      <c r="H298" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
       <c r="A299" s="1"/>
-      <c r="B299" s="14">
+      <c r="B299" s="15">
         <v>298</v>
       </c>
-      <c r="C299" s="14">
+      <c r="C299" s="15">
         <f>B299^4</f>
       </c>
-      <c r="D299" s="14">
+      <c r="D299" s="15">
         <f>0.000000001*B349^4</f>
       </c>
       <c r="E299" s="1"/>
-      <c r="F299" s="15">
+      <c r="F299" s="16">
         <f>-0.000000003*B299^4-0.00000003*B299^3+0.0001*B299^2+0.0123*B299</f>
       </c>
-      <c r="G299" s="15">
+      <c r="G299" s="16">
         <f>0.000000001*B349^4-0.00000009*B299^3-0.00000005</f>
       </c>
-      <c r="H299" s="13"/>
+      <c r="H299" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
       <c r="A300" s="1"/>
-      <c r="B300" s="14">
+      <c r="B300" s="15">
         <v>299</v>
       </c>
-      <c r="C300" s="14">
+      <c r="C300" s="15">
         <f>B300^4</f>
       </c>
-      <c r="D300" s="14">
+      <c r="D300" s="15">
         <f>0.000000001*B350^4</f>
       </c>
       <c r="E300" s="1"/>
-      <c r="F300" s="15">
+      <c r="F300" s="16">
         <f>-0.000000003*B300^4-0.00000003*B300^3+0.0001*B300^2+0.0123*B300</f>
       </c>
-      <c r="G300" s="15">
+      <c r="G300" s="16">
         <f>0.000000001*B350^4-0.00000009*B300^3-0.00000005</f>
       </c>
-      <c r="H300" s="13"/>
+      <c r="H300" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
       <c r="A301" s="1"/>
-      <c r="B301" s="14">
+      <c r="B301" s="15">
         <v>300</v>
       </c>
-      <c r="C301" s="14">
+      <c r="C301" s="15">
         <f>B301^4</f>
       </c>
-      <c r="D301" s="14">
+      <c r="D301" s="15">
         <f>0.000000001*B351^4</f>
       </c>
       <c r="E301" s="1"/>
-      <c r="F301" s="15">
+      <c r="F301" s="16">
         <f>-0.000000003*B301^4-0.00000003*B301^3+0.0001*B301^2+0.0123*B301</f>
       </c>
-      <c r="G301" s="15">
+      <c r="G301" s="16">
         <f>0.000000001*B351^4-0.00000009*B301^3-0.00000005</f>
       </c>
-      <c r="H301" s="13"/>
+      <c r="H301" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6525,11 +6534,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="10.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -6547,7 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="4">
         <v>48</v>
@@ -6562,7 +6571,7 @@
         <v>0.006765061</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="4">
         <v>40</v>
@@ -6577,7 +6586,7 @@
         <v>0.007310846000000001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4">
         <v>37</v>
@@ -6592,7 +6601,7 @@
         <v>0.007888001000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="4">
         <v>40</v>
@@ -6607,7 +6616,7 @@
         <v>0.008497246</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
         <v>40</v>
@@ -6622,7 +6631,7 @@
         <v>0.009139325</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="4">
         <v>40</v>
@@ -6637,7 +6646,7 @@
         <v>0.009815006</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="4">
         <v>40</v>
@@ -6652,7 +6661,7 @@
         <v>0.010525081</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="4">
         <v>29</v>
@@ -6667,7 +6676,7 @@
         <v>0.011270366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="4">
         <v>33</v>
@@ -6682,7 +6691,7 @@
         <v>0.012051701</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
         <v>33</v>
@@ -6697,7 +6706,7 @@
         <v>0.012869950000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="4">
         <v>25</v>
@@ -6712,7 +6721,7 @@
         <v>0.013726001000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="4">
         <v>20</v>
@@ -6727,7 +6736,7 @@
         <v>0.014620766000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="4">
         <v>20</v>
@@ -6742,7 +6751,7 @@
         <v>0.015555181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="4">
         <v>23.39</v>
@@ -6757,7 +6766,7 @@
         <v>0.016530206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="4">
         <v>23.99</v>
@@ -6772,7 +6781,7 @@
         <v>0.017546825000000002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="4">
         <v>23.65</v>
@@ -6787,7 +6796,7 @@
         <v>0.018606046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="4">
         <v>22.84</v>
@@ -6802,7 +6811,7 @@
         <v>0.019708901</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="4">
         <v>23.03</v>
@@ -6817,7 +6826,7 @@
         <v>0.020856446</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="4">
         <v>25.27</v>
@@ -6832,7 +6841,7 @@
         <v>0.022049761</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
         <v>25.59</v>
@@ -6847,7 +6856,7 @@
         <v>0.02328995</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="4">
         <v>25.59</v>
@@ -6862,7 +6871,7 @@
         <v>0.024578141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="4">
         <v>25.7</v>
@@ -36927,581 +36936,581 @@
       <c r="B2027" s="6"/>
       <c r="C2027" s="7"/>
       <c r="D2027" s="7"/>
-      <c r="E2027" s="3"/>
+      <c r="E2027" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2028" customHeight="1" ht="18.75">
       <c r="A2028" s="1"/>
       <c r="B2028" s="6"/>
       <c r="C2028" s="7"/>
       <c r="D2028" s="7"/>
-      <c r="E2028" s="3"/>
+      <c r="E2028" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2029" customHeight="1" ht="18.75">
       <c r="A2029" s="1"/>
       <c r="B2029" s="6"/>
       <c r="C2029" s="7"/>
       <c r="D2029" s="7"/>
-      <c r="E2029" s="3"/>
+      <c r="E2029" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2030" customHeight="1" ht="18.75">
       <c r="A2030" s="1"/>
       <c r="B2030" s="6"/>
       <c r="C2030" s="7"/>
       <c r="D2030" s="7"/>
-      <c r="E2030" s="3"/>
+      <c r="E2030" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2031" customHeight="1" ht="18.75">
       <c r="A2031" s="1"/>
       <c r="B2031" s="6"/>
       <c r="C2031" s="7"/>
       <c r="D2031" s="7"/>
-      <c r="E2031" s="3"/>
+      <c r="E2031" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2032" customHeight="1" ht="18.75">
       <c r="A2032" s="1"/>
       <c r="B2032" s="6"/>
       <c r="C2032" s="7"/>
       <c r="D2032" s="7"/>
-      <c r="E2032" s="3"/>
+      <c r="E2032" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2033" customHeight="1" ht="18.75">
       <c r="A2033" s="1"/>
       <c r="B2033" s="6"/>
       <c r="C2033" s="7"/>
       <c r="D2033" s="7"/>
-      <c r="E2033" s="3"/>
+      <c r="E2033" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2034" customHeight="1" ht="18.75">
       <c r="A2034" s="1"/>
       <c r="B2034" s="6"/>
       <c r="C2034" s="7"/>
       <c r="D2034" s="7"/>
-      <c r="E2034" s="3"/>
+      <c r="E2034" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2035" customHeight="1" ht="18.75">
       <c r="A2035" s="1"/>
       <c r="B2035" s="6"/>
       <c r="C2035" s="7"/>
       <c r="D2035" s="7"/>
-      <c r="E2035" s="3"/>
+      <c r="E2035" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2036" customHeight="1" ht="18.75">
       <c r="A2036" s="1"/>
       <c r="B2036" s="6"/>
       <c r="C2036" s="7"/>
       <c r="D2036" s="7"/>
-      <c r="E2036" s="3"/>
+      <c r="E2036" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2037" customHeight="1" ht="18.75">
       <c r="A2037" s="1"/>
       <c r="B2037" s="6"/>
       <c r="C2037" s="7"/>
       <c r="D2037" s="7"/>
-      <c r="E2037" s="3"/>
+      <c r="E2037" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2038" customHeight="1" ht="18.75">
       <c r="A2038" s="1"/>
       <c r="B2038" s="6"/>
       <c r="C2038" s="7"/>
       <c r="D2038" s="7"/>
-      <c r="E2038" s="3"/>
+      <c r="E2038" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2039" customHeight="1" ht="18.75">
       <c r="A2039" s="1"/>
       <c r="B2039" s="6"/>
       <c r="C2039" s="7"/>
       <c r="D2039" s="7"/>
-      <c r="E2039" s="3"/>
+      <c r="E2039" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2040" customHeight="1" ht="18.75">
       <c r="A2040" s="1"/>
       <c r="B2040" s="6"/>
       <c r="C2040" s="7"/>
       <c r="D2040" s="7"/>
-      <c r="E2040" s="3"/>
+      <c r="E2040" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2041" customHeight="1" ht="18.75">
       <c r="A2041" s="1"/>
       <c r="B2041" s="6"/>
       <c r="C2041" s="7"/>
       <c r="D2041" s="7"/>
-      <c r="E2041" s="3"/>
+      <c r="E2041" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2042" customHeight="1" ht="18.75">
       <c r="A2042" s="1"/>
       <c r="B2042" s="6"/>
       <c r="C2042" s="7"/>
       <c r="D2042" s="7"/>
-      <c r="E2042" s="3"/>
+      <c r="E2042" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2043" customHeight="1" ht="18.75">
       <c r="A2043" s="1"/>
       <c r="B2043" s="6"/>
       <c r="C2043" s="7"/>
       <c r="D2043" s="7"/>
-      <c r="E2043" s="3"/>
+      <c r="E2043" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2044" customHeight="1" ht="18.75">
       <c r="A2044" s="1"/>
       <c r="B2044" s="6"/>
       <c r="C2044" s="7"/>
       <c r="D2044" s="7"/>
-      <c r="E2044" s="3"/>
+      <c r="E2044" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2045" customHeight="1" ht="18.75">
       <c r="A2045" s="1"/>
       <c r="B2045" s="6"/>
       <c r="C2045" s="7"/>
       <c r="D2045" s="7"/>
-      <c r="E2045" s="3"/>
+      <c r="E2045" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2046" customHeight="1" ht="18.75">
       <c r="A2046" s="1"/>
       <c r="B2046" s="6"/>
       <c r="C2046" s="7"/>
       <c r="D2046" s="7"/>
-      <c r="E2046" s="3"/>
+      <c r="E2046" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2047" customHeight="1" ht="18.75">
       <c r="A2047" s="1"/>
       <c r="B2047" s="6"/>
       <c r="C2047" s="7"/>
       <c r="D2047" s="7"/>
-      <c r="E2047" s="3"/>
+      <c r="E2047" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2048" customHeight="1" ht="18.75">
       <c r="A2048" s="1"/>
       <c r="B2048" s="6"/>
       <c r="C2048" s="7"/>
       <c r="D2048" s="7"/>
-      <c r="E2048" s="3"/>
+      <c r="E2048" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2049" customHeight="1" ht="18.75">
       <c r="A2049" s="1"/>
       <c r="B2049" s="6"/>
       <c r="C2049" s="7"/>
       <c r="D2049" s="7"/>
-      <c r="E2049" s="3"/>
+      <c r="E2049" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2050" customHeight="1" ht="18.75">
       <c r="A2050" s="1"/>
       <c r="B2050" s="6"/>
       <c r="C2050" s="7"/>
       <c r="D2050" s="7"/>
-      <c r="E2050" s="3"/>
+      <c r="E2050" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2051" customHeight="1" ht="18.75">
       <c r="A2051" s="1"/>
       <c r="B2051" s="6"/>
       <c r="C2051" s="7"/>
       <c r="D2051" s="7"/>
-      <c r="E2051" s="3"/>
+      <c r="E2051" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2052" customHeight="1" ht="18.75">
       <c r="A2052" s="1"/>
       <c r="B2052" s="6"/>
       <c r="C2052" s="7"/>
       <c r="D2052" s="7"/>
-      <c r="E2052" s="3"/>
+      <c r="E2052" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2053" customHeight="1" ht="18.75">
       <c r="A2053" s="1"/>
       <c r="B2053" s="6"/>
       <c r="C2053" s="7"/>
       <c r="D2053" s="7"/>
-      <c r="E2053" s="3"/>
+      <c r="E2053" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2054" customHeight="1" ht="18.75">
       <c r="A2054" s="1"/>
       <c r="B2054" s="6"/>
       <c r="C2054" s="7"/>
       <c r="D2054" s="7"/>
-      <c r="E2054" s="3"/>
+      <c r="E2054" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2055" customHeight="1" ht="18.75">
       <c r="A2055" s="1"/>
       <c r="B2055" s="6"/>
       <c r="C2055" s="7"/>
       <c r="D2055" s="7"/>
-      <c r="E2055" s="3"/>
+      <c r="E2055" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2056" customHeight="1" ht="18.75">
       <c r="A2056" s="1"/>
       <c r="B2056" s="6"/>
       <c r="C2056" s="7"/>
       <c r="D2056" s="7"/>
-      <c r="E2056" s="3"/>
+      <c r="E2056" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2057" customHeight="1" ht="18.75">
       <c r="A2057" s="1"/>
       <c r="B2057" s="6"/>
       <c r="C2057" s="7"/>
       <c r="D2057" s="7"/>
-      <c r="E2057" s="3"/>
+      <c r="E2057" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2058" customHeight="1" ht="18.75">
       <c r="A2058" s="1"/>
       <c r="B2058" s="6"/>
       <c r="C2058" s="7"/>
       <c r="D2058" s="7"/>
-      <c r="E2058" s="3"/>
+      <c r="E2058" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2059" customHeight="1" ht="18.75">
       <c r="A2059" s="1"/>
       <c r="B2059" s="6"/>
       <c r="C2059" s="7"/>
       <c r="D2059" s="7"/>
-      <c r="E2059" s="3"/>
+      <c r="E2059" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2060" customHeight="1" ht="18.75">
       <c r="A2060" s="1"/>
       <c r="B2060" s="6"/>
       <c r="C2060" s="7"/>
       <c r="D2060" s="7"/>
-      <c r="E2060" s="3"/>
+      <c r="E2060" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2061" customHeight="1" ht="18.75">
       <c r="A2061" s="1"/>
       <c r="B2061" s="6"/>
       <c r="C2061" s="7"/>
       <c r="D2061" s="7"/>
-      <c r="E2061" s="3"/>
+      <c r="E2061" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2062" customHeight="1" ht="18.75">
       <c r="A2062" s="1"/>
       <c r="B2062" s="6"/>
       <c r="C2062" s="7"/>
       <c r="D2062" s="7"/>
-      <c r="E2062" s="3"/>
+      <c r="E2062" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2063" customHeight="1" ht="18.75">
       <c r="A2063" s="1"/>
       <c r="B2063" s="6"/>
       <c r="C2063" s="7"/>
       <c r="D2063" s="7"/>
-      <c r="E2063" s="3"/>
+      <c r="E2063" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2064" customHeight="1" ht="18.75">
       <c r="A2064" s="1"/>
       <c r="B2064" s="6"/>
       <c r="C2064" s="7"/>
       <c r="D2064" s="7"/>
-      <c r="E2064" s="3"/>
+      <c r="E2064" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2065" customHeight="1" ht="18.75">
       <c r="A2065" s="1"/>
       <c r="B2065" s="6"/>
       <c r="C2065" s="7"/>
       <c r="D2065" s="7"/>
-      <c r="E2065" s="3"/>
+      <c r="E2065" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2066" customHeight="1" ht="18.75">
       <c r="A2066" s="1"/>
       <c r="B2066" s="6"/>
       <c r="C2066" s="7"/>
       <c r="D2066" s="7"/>
-      <c r="E2066" s="3"/>
+      <c r="E2066" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2067" customHeight="1" ht="18.75">
       <c r="A2067" s="1"/>
       <c r="B2067" s="6"/>
       <c r="C2067" s="7"/>
       <c r="D2067" s="7"/>
-      <c r="E2067" s="3"/>
+      <c r="E2067" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2068" customHeight="1" ht="18.75">
       <c r="A2068" s="1"/>
       <c r="B2068" s="6"/>
       <c r="C2068" s="7"/>
       <c r="D2068" s="7"/>
-      <c r="E2068" s="3"/>
+      <c r="E2068" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2069" customHeight="1" ht="18.75">
       <c r="A2069" s="1"/>
       <c r="B2069" s="6"/>
       <c r="C2069" s="7"/>
       <c r="D2069" s="7"/>
-      <c r="E2069" s="3"/>
+      <c r="E2069" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2070" customHeight="1" ht="18.75">
       <c r="A2070" s="1"/>
       <c r="B2070" s="6"/>
       <c r="C2070" s="7"/>
       <c r="D2070" s="7"/>
-      <c r="E2070" s="3"/>
+      <c r="E2070" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2071" customHeight="1" ht="18.75">
       <c r="A2071" s="1"/>
       <c r="B2071" s="6"/>
       <c r="C2071" s="7"/>
       <c r="D2071" s="7"/>
-      <c r="E2071" s="3"/>
+      <c r="E2071" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2072" customHeight="1" ht="18.75">
       <c r="A2072" s="1"/>
       <c r="B2072" s="6"/>
       <c r="C2072" s="7"/>
       <c r="D2072" s="7"/>
-      <c r="E2072" s="3"/>
+      <c r="E2072" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2073" customHeight="1" ht="18.75">
       <c r="A2073" s="1"/>
       <c r="B2073" s="6"/>
       <c r="C2073" s="7"/>
       <c r="D2073" s="7"/>
-      <c r="E2073" s="3"/>
+      <c r="E2073" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2074" customHeight="1" ht="18.75">
       <c r="A2074" s="1"/>
       <c r="B2074" s="6"/>
       <c r="C2074" s="7"/>
       <c r="D2074" s="7"/>
-      <c r="E2074" s="3"/>
+      <c r="E2074" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2075" customHeight="1" ht="18.75">
       <c r="A2075" s="1"/>
       <c r="B2075" s="6"/>
       <c r="C2075" s="7"/>
       <c r="D2075" s="7"/>
-      <c r="E2075" s="3"/>
+      <c r="E2075" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2076" customHeight="1" ht="18.75">
       <c r="A2076" s="1"/>
       <c r="B2076" s="6"/>
       <c r="C2076" s="7"/>
       <c r="D2076" s="7"/>
-      <c r="E2076" s="3"/>
+      <c r="E2076" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2077" customHeight="1" ht="18.75">
       <c r="A2077" s="1"/>
       <c r="B2077" s="6"/>
       <c r="C2077" s="7"/>
       <c r="D2077" s="7"/>
-      <c r="E2077" s="3"/>
+      <c r="E2077" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2078" customHeight="1" ht="18.75">
       <c r="A2078" s="1"/>
       <c r="B2078" s="6"/>
       <c r="C2078" s="7"/>
       <c r="D2078" s="7"/>
-      <c r="E2078" s="3"/>
+      <c r="E2078" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2079" customHeight="1" ht="18.75">
       <c r="A2079" s="1"/>
       <c r="B2079" s="6"/>
       <c r="C2079" s="7"/>
       <c r="D2079" s="7"/>
-      <c r="E2079" s="3"/>
+      <c r="E2079" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2080" customHeight="1" ht="18.75">
       <c r="A2080" s="1"/>
       <c r="B2080" s="6"/>
       <c r="C2080" s="7"/>
       <c r="D2080" s="7"/>
-      <c r="E2080" s="3"/>
+      <c r="E2080" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2081" customHeight="1" ht="18.75">
       <c r="A2081" s="1"/>
       <c r="B2081" s="6"/>
       <c r="C2081" s="7"/>
       <c r="D2081" s="7"/>
-      <c r="E2081" s="3"/>
+      <c r="E2081" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2082" customHeight="1" ht="18.75">
       <c r="A2082" s="1"/>
       <c r="B2082" s="6"/>
       <c r="C2082" s="7"/>
       <c r="D2082" s="7"/>
-      <c r="E2082" s="3"/>
+      <c r="E2082" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2083" customHeight="1" ht="18.75">
       <c r="A2083" s="1"/>
       <c r="B2083" s="6"/>
       <c r="C2083" s="7"/>
       <c r="D2083" s="7"/>
-      <c r="E2083" s="3"/>
+      <c r="E2083" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2084" customHeight="1" ht="18.75">
       <c r="A2084" s="1"/>
       <c r="B2084" s="6"/>
       <c r="C2084" s="7"/>
       <c r="D2084" s="7"/>
-      <c r="E2084" s="3"/>
+      <c r="E2084" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2085" customHeight="1" ht="18.75">
       <c r="A2085" s="1"/>
       <c r="B2085" s="6"/>
       <c r="C2085" s="7"/>
       <c r="D2085" s="7"/>
-      <c r="E2085" s="3"/>
+      <c r="E2085" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2086" customHeight="1" ht="18.75">
       <c r="A2086" s="1"/>
       <c r="B2086" s="6"/>
       <c r="C2086" s="7"/>
       <c r="D2086" s="7"/>
-      <c r="E2086" s="3"/>
+      <c r="E2086" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2087" customHeight="1" ht="18.75">
       <c r="A2087" s="1"/>
       <c r="B2087" s="6"/>
       <c r="C2087" s="7"/>
       <c r="D2087" s="7"/>
-      <c r="E2087" s="3"/>
+      <c r="E2087" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2088" customHeight="1" ht="18.75">
       <c r="A2088" s="1"/>
       <c r="B2088" s="6"/>
       <c r="C2088" s="7"/>
       <c r="D2088" s="7"/>
-      <c r="E2088" s="3"/>
+      <c r="E2088" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2089" customHeight="1" ht="18.75">
       <c r="A2089" s="1"/>
       <c r="B2089" s="6"/>
       <c r="C2089" s="7"/>
       <c r="D2089" s="7"/>
-      <c r="E2089" s="3"/>
+      <c r="E2089" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2090" customHeight="1" ht="18.75">
       <c r="A2090" s="1"/>
       <c r="B2090" s="6"/>
       <c r="C2090" s="7"/>
       <c r="D2090" s="7"/>
-      <c r="E2090" s="3"/>
+      <c r="E2090" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2091" customHeight="1" ht="18.75">
       <c r="A2091" s="1"/>
       <c r="B2091" s="6"/>
       <c r="C2091" s="7"/>
       <c r="D2091" s="7"/>
-      <c r="E2091" s="3"/>
+      <c r="E2091" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2092" customHeight="1" ht="18.75">
       <c r="A2092" s="1"/>
       <c r="B2092" s="6"/>
       <c r="C2092" s="7"/>
       <c r="D2092" s="7"/>
-      <c r="E2092" s="3"/>
+      <c r="E2092" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2093" customHeight="1" ht="18.75">
       <c r="A2093" s="1"/>
       <c r="B2093" s="6"/>
       <c r="C2093" s="7"/>
       <c r="D2093" s="7"/>
-      <c r="E2093" s="3"/>
+      <c r="E2093" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2094" customHeight="1" ht="18.75">
       <c r="A2094" s="1"/>
       <c r="B2094" s="6"/>
       <c r="C2094" s="7"/>
       <c r="D2094" s="7"/>
-      <c r="E2094" s="3"/>
+      <c r="E2094" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2095" customHeight="1" ht="18.75">
       <c r="A2095" s="1"/>
       <c r="B2095" s="6"/>
       <c r="C2095" s="7"/>
       <c r="D2095" s="7"/>
-      <c r="E2095" s="3"/>
+      <c r="E2095" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2096" customHeight="1" ht="18.75">
       <c r="A2096" s="1"/>
       <c r="B2096" s="6"/>
       <c r="C2096" s="7"/>
       <c r="D2096" s="7"/>
-      <c r="E2096" s="3"/>
+      <c r="E2096" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2097" customHeight="1" ht="18.75">
       <c r="A2097" s="1"/>
       <c r="B2097" s="6"/>
       <c r="C2097" s="7"/>
       <c r="D2097" s="7"/>
-      <c r="E2097" s="3"/>
+      <c r="E2097" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2098" customHeight="1" ht="18.75">
       <c r="A2098" s="1"/>
       <c r="B2098" s="6"/>
       <c r="C2098" s="7"/>
       <c r="D2098" s="7"/>
-      <c r="E2098" s="3"/>
+      <c r="E2098" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2099" customHeight="1" ht="18.75">
       <c r="A2099" s="1"/>
       <c r="B2099" s="6"/>
       <c r="C2099" s="7"/>
       <c r="D2099" s="7"/>
-      <c r="E2099" s="3"/>
+      <c r="E2099" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2100" customHeight="1" ht="18.75">
       <c r="A2100" s="1"/>
       <c r="B2100" s="6"/>
       <c r="C2100" s="7"/>
       <c r="D2100" s="7"/>
-      <c r="E2100" s="3"/>
+      <c r="E2100" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2101" customHeight="1" ht="18.75">
       <c r="A2101" s="1"/>
       <c r="B2101" s="6"/>
       <c r="C2101" s="7"/>
       <c r="D2101" s="7"/>
-      <c r="E2101" s="3"/>
+      <c r="E2101" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2102" customHeight="1" ht="18.75">
       <c r="A2102" s="1"/>
       <c r="B2102" s="6"/>
       <c r="C2102" s="7"/>
       <c r="D2102" s="7"/>
-      <c r="E2102" s="3"/>
+      <c r="E2102" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2103" customHeight="1" ht="18.75">
       <c r="A2103" s="1"/>
       <c r="B2103" s="6"/>
       <c r="C2103" s="7"/>
       <c r="D2103" s="7"/>
-      <c r="E2103" s="3"/>
+      <c r="E2103" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2104" customHeight="1" ht="18.75">
       <c r="A2104" s="1"/>
       <c r="B2104" s="6"/>
       <c r="C2104" s="7"/>
       <c r="D2104" s="7"/>
-      <c r="E2104" s="3"/>
+      <c r="E2104" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2105" customHeight="1" ht="18.75">
       <c r="A2105" s="1"/>
       <c r="B2105" s="6"/>
       <c r="C2105" s="7"/>
       <c r="D2105" s="7"/>
-      <c r="E2105" s="3"/>
+      <c r="E2105" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2106" customHeight="1" ht="18.75">
       <c r="A2106" s="1"/>
       <c r="B2106" s="6"/>
       <c r="C2106" s="7"/>
       <c r="D2106" s="7"/>
-      <c r="E2106" s="3"/>
+      <c r="E2106" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2107" customHeight="1" ht="18.75">
       <c r="A2107" s="1"/>
       <c r="B2107" s="6"/>
       <c r="C2107" s="7"/>
       <c r="D2107" s="7"/>
-      <c r="E2107" s="3"/>
+      <c r="E2107" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2108" customHeight="1" ht="18.75">
       <c r="A2108" s="1"/>
       <c r="B2108" s="6"/>
       <c r="C2108" s="7"/>
       <c r="D2108" s="7"/>
-      <c r="E2108" s="3"/>
+      <c r="E2108" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2109" customHeight="1" ht="18.75">
       <c r="A2109" s="1"/>
       <c r="B2109" s="6"/>
       <c r="C2109" s="7"/>
       <c r="D2109" s="7"/>
-      <c r="E2109" s="3"/>
+      <c r="E2109" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
